--- a/PARC RZB (version 1).xlsx
+++ b/PARC RZB (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthur.cahn\OneDrive - Groupe Exedra\Bureau\App-Parc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51D0C55-6875-4137-A553-A8DE0C41D4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1D2ECA-E7A9-42BD-957A-F092EFEFA2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{3DFD6CFB-0C71-4847-AAE3-4AD380DC4CBE}"/>
+    <workbookView xWindow="-16380" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{3DFD6CFB-0C71-4847-AAE3-4AD380DC4CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId4"/>
+    <pivotCache cacheId="46" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="836">
   <si>
     <t>Libellé</t>
   </si>
@@ -2489,6 +2489,213 @@
   </si>
   <si>
     <t>H05241M</t>
+  </si>
+  <si>
+    <t>IMMATRICULATION</t>
+  </si>
+  <si>
+    <t>HH-839-CR</t>
+  </si>
+  <si>
+    <t>HF-201-QF</t>
+  </si>
+  <si>
+    <t>FV-643-JR</t>
+  </si>
+  <si>
+    <t>FV-571-JR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FH-750-TN</t>
+  </si>
+  <si>
+    <t>FH-508-TN</t>
+  </si>
+  <si>
+    <t>FG-699-JC</t>
+  </si>
+  <si>
+    <t>FG-618-JC</t>
+  </si>
+  <si>
+    <t>EH-536-CM</t>
+  </si>
+  <si>
+    <t>EL-474-KV</t>
+  </si>
+  <si>
+    <t>DH-130-TV</t>
+  </si>
+  <si>
+    <t>DC-049-LL</t>
+  </si>
+  <si>
+    <t>EN-134-HF</t>
+  </si>
+  <si>
+    <t>GF-746-DD</t>
+  </si>
+  <si>
+    <t>DK-694-SY</t>
+  </si>
+  <si>
+    <t>HE-464-ZS</t>
+  </si>
+  <si>
+    <t>DJ-920-EF</t>
+  </si>
+  <si>
+    <t>EP-048-SG</t>
+  </si>
+  <si>
+    <t>FG-268-NZ</t>
+  </si>
+  <si>
+    <t>FG-436-NZ</t>
+  </si>
+  <si>
+    <t>HE-803-FS</t>
+  </si>
+  <si>
+    <t>HE-998-FS</t>
+  </si>
+  <si>
+    <t>GG-698-AC</t>
+  </si>
+  <si>
+    <t>GG-753-JF</t>
+  </si>
+  <si>
+    <t>GG-827-JF</t>
+  </si>
+  <si>
+    <t>FV-727-HD</t>
+  </si>
+  <si>
+    <t>FE-585-TG</t>
+  </si>
+  <si>
+    <t>HE-469-ZS</t>
+  </si>
+  <si>
+    <t>EL-908-NZ</t>
+  </si>
+  <si>
+    <t>DH-718-GS</t>
+  </si>
+  <si>
+    <t>FT-825-GM</t>
+  </si>
+  <si>
+    <t>GC-292-SC</t>
+  </si>
+  <si>
+    <t>GP-880-FK</t>
+  </si>
+  <si>
+    <t>BQ-984-ZM</t>
+  </si>
+  <si>
+    <t>FQ-066-ZL</t>
+  </si>
+  <si>
+    <t>GY-035-HG</t>
+  </si>
+  <si>
+    <t>GG-003-CZ</t>
+  </si>
+  <si>
+    <t>DQ-521-HH</t>
+  </si>
+  <si>
+    <t>DC-753-DN</t>
+  </si>
+  <si>
+    <t>CR-362-SM</t>
+  </si>
+  <si>
+    <t>DR-177-SW</t>
+  </si>
+  <si>
+    <t>EZ-717-DD</t>
+  </si>
+  <si>
+    <t>BQ-216-KC</t>
+  </si>
+  <si>
+    <t>EZ-445-QG</t>
+  </si>
+  <si>
+    <t>EZ-513-QG</t>
+  </si>
+  <si>
+    <t>FA-514-DE</t>
+  </si>
+  <si>
+    <t>CY-525-BS</t>
+  </si>
+  <si>
+    <t>AL-226-HZ</t>
+  </si>
+  <si>
+    <t>EY-588-CX</t>
+  </si>
+  <si>
+    <t>EZ-656-FK</t>
+  </si>
+  <si>
+    <t>EY-510-EG</t>
+  </si>
+  <si>
+    <t>EF-663-HK</t>
+  </si>
+  <si>
+    <t>GC-561-SL</t>
+  </si>
+  <si>
+    <t>FK-505-WT</t>
+  </si>
+  <si>
+    <t>7046PT33</t>
+  </si>
+  <si>
+    <t>DX-958-DM</t>
+  </si>
+  <si>
+    <t>FD-919-WF</t>
+  </si>
+  <si>
+    <t>ER-638-WP</t>
+  </si>
+  <si>
+    <t>DL-574-WY</t>
+  </si>
+  <si>
+    <t>CV-135-TQ</t>
+  </si>
+  <si>
+    <t>FP-216-VJ</t>
+  </si>
+  <si>
+    <t>DC-229-NA</t>
+  </si>
+  <si>
+    <t>DD-583-PD</t>
+  </si>
+  <si>
+    <t>GP-069-GC</t>
+  </si>
+  <si>
+    <t>FB-694-FZ</t>
+  </si>
+  <si>
+    <t>FR-224-XP</t>
+  </si>
+  <si>
+    <t>FZ-432-RR</t>
   </si>
 </sst>
 </file>
@@ -2741,11 +2948,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CAHN Arthur" refreshedDate="46071.572934953707" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="204" xr:uid="{3DD66E31-C7C6-4B6C-BDA6-DDB80924E8D7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CAHN Arthur" refreshedDate="46072.325333796296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="204" xr:uid="{18484A86-DCC2-4D65-BC82-DB4C1D235FBC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D1048576" sheet="Feuil1"/>
+    <worksheetSource ref="A1:E1048576" sheet="Feuil1"/>
   </cacheSource>
-  <cacheFields count="4">
+  <cacheFields count="5">
     <cacheField name="N° DE PARC HME" numFmtId="0">
       <sharedItems containsBlank="1" count="204">
         <s v="H05100R"/>
@@ -3348,7 +3555,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="AGENCE" numFmtId="0">
-      <sharedItems containsBlank="1" count="26">
+      <sharedItems containsBlank="1" count="12">
         <s v="AQUALIS"/>
         <s v="CA"/>
         <s v="CA BASSIN"/>
@@ -3361,20 +3568,182 @@
         <s v="SST"/>
         <s v="EES"/>
         <m/>
-        <s v="FABREZ" u="1"/>
-        <s v="FABHST2" u="1"/>
-        <s v="FAEMPR" u="1"/>
-        <s v="PERSON HME" u="1"/>
-        <s v="MATFGX" u="1"/>
-        <s v="FABHCA" u="1"/>
-        <s v="FDBHYD" u="1"/>
-        <s v="FABBCV" u="1"/>
-        <s v="MATELT" u="1"/>
-        <s v="FABHST" u="1"/>
-        <s v="FABLAT" u="1"/>
-        <s v="FAYBAY" u="1"/>
-        <s v="FAEMPH" u="1"/>
-        <s v="FABHBA" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="IMMATRICULATION" numFmtId="0">
+      <sharedItems containsBlank="1" count="172">
+        <s v="HF-102-YH"/>
+        <s v="FL-071-JB"/>
+        <s v="GT-085-PV"/>
+        <s v="GW-475-EJ"/>
+        <s v="GX-429-WD"/>
+        <s v="GY-570-RR"/>
+        <s v="GF-111-BE"/>
+        <s v="FM-655-SM"/>
+        <s v="GR-563-SQ"/>
+        <s v="GT-805-PG"/>
+        <s v="GW-205-YQ"/>
+        <s v="GY-960-XZ"/>
+        <s v="FN-093-MT"/>
+        <s v="HH-839-CR"/>
+        <s v="HB-687-JV"/>
+        <m/>
+        <s v="FS-562-GV"/>
+        <s v="GV-618-CW"/>
+        <s v="FT-437-FS"/>
+        <s v="HF-201-QF"/>
+        <s v="FV-643-JR"/>
+        <s v="FV-571-JR"/>
+        <s v=" "/>
+        <s v="FH-750-TN"/>
+        <s v="FH-508-TN"/>
+        <s v="FG-699-JC"/>
+        <s v="FG-618-JC"/>
+        <s v="EH-536-CM"/>
+        <s v="EL-474-KV"/>
+        <s v="DH-130-TV"/>
+        <s v="DC-049-LL"/>
+        <s v="EN-134-HF"/>
+        <s v="GE-715-PK"/>
+        <s v="GM-416-EJ"/>
+        <s v="GX-489-WD"/>
+        <s v="GX-237-WR"/>
+        <s v="GF-746-DD"/>
+        <s v="DK-694-SY"/>
+        <s v="HE-464-ZS"/>
+        <s v="DJ-920-EF"/>
+        <s v="EP-048-SG"/>
+        <s v="FG-268-NZ"/>
+        <s v="FG-436-NZ"/>
+        <s v="HE-803-FS"/>
+        <s v="HE-998-FS"/>
+        <s v="GG-698-AC"/>
+        <s v="GG-753-JF"/>
+        <s v="GG-827-JF"/>
+        <s v="FV-727-HD"/>
+        <s v="HA-874-XC"/>
+        <s v="GS-091-PP"/>
+        <s v="GT-608-CV"/>
+        <s v="GX-126-WR"/>
+        <s v="GM-668-EJ"/>
+        <s v="GQ-145-YL"/>
+        <s v="GQ-172-FV"/>
+        <s v="GW-057-NQ"/>
+        <s v="GX-614-NV"/>
+        <s v="FE-585-TG"/>
+        <s v="HE-469-ZS"/>
+        <s v="EL-908-NZ"/>
+        <s v="DH-718-GS"/>
+        <s v="FT-825-GM"/>
+        <s v="GC-292-SC"/>
+        <s v="GP-880-FK"/>
+        <s v="BQ-984-ZM"/>
+        <s v="FQ-066-ZL"/>
+        <s v="GY-035-HG"/>
+        <s v="GG-003-CZ"/>
+        <s v="DQ-521-HH"/>
+        <s v="DC-753-DN"/>
+        <s v="CR-362-SM"/>
+        <s v="DR-177-SW"/>
+        <s v="EZ-717-DD"/>
+        <s v="BQ-216-KC"/>
+        <s v="EZ-445-QG"/>
+        <s v="EZ-513-QG"/>
+        <s v="FA-514-DE"/>
+        <s v="CY-525-BS"/>
+        <s v="AL-226-HZ"/>
+        <s v="EY-588-CX"/>
+        <s v="EZ-656-FK"/>
+        <s v="EY-510-EG"/>
+        <s v="EF-663-HK"/>
+        <s v="GC-561-SL"/>
+        <s v="HC-730-HR"/>
+        <s v="HC-417-BJ"/>
+        <s v="GX-589-XH"/>
+        <s v="GX-868-XH"/>
+        <s v="GX-860-XH"/>
+        <s v="GX-024-XJ"/>
+        <s v="GC-052-KA"/>
+        <s v="GX-958-WD"/>
+        <s v="GX-882-XH"/>
+        <s v="GX-974-XH"/>
+        <s v="GT-592-QM"/>
+        <s v="GX-024-QW"/>
+        <s v="FR-863-XC"/>
+        <s v="GA-659-MK"/>
+        <s v="GA-668-MK"/>
+        <s v="GJ-748-SR"/>
+        <s v="GA-653-MK"/>
+        <s v="GA-525-MK"/>
+        <s v="GJ-834-RN"/>
+        <s v="GT-629-NE"/>
+        <s v="GV-424-VM"/>
+        <s v="GX-372-BJ"/>
+        <s v="GX-776-WD"/>
+        <s v="GY-636-RR"/>
+        <s v="GT-764-PG"/>
+        <s v="GA-703-BJ"/>
+        <s v="GJ-162-RP"/>
+        <s v="GM-041-DP"/>
+        <s v="FQ-522-FL"/>
+        <s v="GM-870-HP"/>
+        <s v="GW-384-ZG"/>
+        <s v="GV-272-DZ"/>
+        <s v="GH-818-GJ"/>
+        <s v="HD-861-KP"/>
+        <s v="HB-036-GH"/>
+        <s v="HB-057-GH"/>
+        <s v="HB-840-GG"/>
+        <s v="HB-786-GG"/>
+        <s v="HB-889-GG"/>
+        <s v="HB-847-GG"/>
+        <s v="HB-920-GG"/>
+        <s v="HB-079-GH"/>
+        <s v="HB-902-GG"/>
+        <s v="FE-125-TK"/>
+        <s v="EZ-204-YK"/>
+        <s v="GT-897-NE"/>
+        <s v="GS-601-KH"/>
+        <s v="GT-556-ZA"/>
+        <s v="GZ-807-QX"/>
+        <s v="GG-571-FL"/>
+        <s v="GG-579-DQ"/>
+        <s v="GJ-384-YJ"/>
+        <s v="FX-515-TY"/>
+        <s v="GG-094-CR"/>
+        <s v="GS-282-LT"/>
+        <s v="GR-608-HH"/>
+        <s v="GR-622-HH"/>
+        <s v="GT-478-DE"/>
+        <s v="GT-028-MD"/>
+        <s v="GD-982-NN"/>
+        <s v="HA-642-GS"/>
+        <s v="GV-741-JJ"/>
+        <s v="FY-432-RD"/>
+        <s v="GN-287-NL"/>
+        <s v="GY-266-DW"/>
+        <s v="GX-032-XJ"/>
+        <s v="GV-190-SZ"/>
+        <s v="GW-358-LD"/>
+        <s v="GH-276-NV"/>
+        <s v="GG-684-WY"/>
+        <s v="GF-895-DB"/>
+        <s v="GA-986-RC"/>
+        <s v="GM-594-DW"/>
+        <s v="FK-505-WT"/>
+        <s v="7046PT33"/>
+        <s v="DX-958-DM"/>
+        <s v="FD-919-WF"/>
+        <s v="ER-638-WP"/>
+        <s v="DL-574-WY"/>
+        <s v="CV-135-TQ"/>
+        <s v="FP-216-VJ"/>
+        <s v="DC-229-NA"/>
+        <s v="DD-583-PD"/>
+        <s v="GP-069-GC"/>
+        <s v="FB-694-FZ"/>
+        <s v="FR-224-XP"/>
+        <s v="FZ-432-RR"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3393,1232 +3762,1436 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="4"/>
     <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
     <x v="5"/>
     <x v="0"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="6"/>
     <x v="0"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="7"/>
     <x v="6"/>
     <x v="7"/>
     <x v="0"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="8"/>
     <x v="7"/>
     <x v="8"/>
     <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="9"/>
     <x v="8"/>
     <x v="9"/>
     <x v="0"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="10"/>
     <x v="9"/>
     <x v="10"/>
     <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="11"/>
     <x v="10"/>
     <x v="11"/>
     <x v="0"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="12"/>
     <x v="11"/>
     <x v="12"/>
     <x v="1"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="13"/>
     <x v="12"/>
     <x v="13"/>
     <x v="1"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="14"/>
     <x v="13"/>
     <x v="14"/>
     <x v="1"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="15"/>
     <x v="14"/>
     <x v="13"/>
     <x v="1"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="16"/>
     <x v="12"/>
     <x v="15"/>
     <x v="1"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="17"/>
     <x v="15"/>
     <x v="16"/>
     <x v="1"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="18"/>
     <x v="16"/>
     <x v="17"/>
     <x v="1"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="19"/>
     <x v="17"/>
     <x v="18"/>
     <x v="2"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="20"/>
     <x v="18"/>
     <x v="19"/>
     <x v="2"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="21"/>
     <x v="18"/>
     <x v="20"/>
     <x v="2"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="22"/>
     <x v="19"/>
     <x v="21"/>
     <x v="2"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="23"/>
     <x v="20"/>
     <x v="22"/>
     <x v="2"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="24"/>
     <x v="21"/>
     <x v="23"/>
     <x v="2"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="25"/>
     <x v="22"/>
     <x v="24"/>
     <x v="2"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="26"/>
     <x v="23"/>
     <x v="25"/>
     <x v="2"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="27"/>
     <x v="23"/>
     <x v="26"/>
     <x v="2"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="28"/>
     <x v="24"/>
     <x v="27"/>
     <x v="2"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="29"/>
     <x v="25"/>
     <x v="28"/>
     <x v="2"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="30"/>
     <x v="26"/>
     <x v="29"/>
     <x v="2"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="31"/>
     <x v="27"/>
     <x v="30"/>
     <x v="2"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="32"/>
     <x v="28"/>
     <x v="31"/>
     <x v="2"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="33"/>
     <x v="29"/>
     <x v="32"/>
     <x v="2"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="34"/>
     <x v="30"/>
     <x v="33"/>
     <x v="2"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="35"/>
     <x v="31"/>
     <x v="34"/>
     <x v="2"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="36"/>
     <x v="32"/>
     <x v="35"/>
     <x v="2"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="37"/>
     <x v="33"/>
     <x v="36"/>
     <x v="2"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="38"/>
     <x v="34"/>
     <x v="37"/>
     <x v="2"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="39"/>
     <x v="35"/>
     <x v="38"/>
     <x v="2"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="40"/>
     <x v="36"/>
     <x v="39"/>
     <x v="2"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="41"/>
     <x v="37"/>
     <x v="40"/>
     <x v="2"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="42"/>
     <x v="38"/>
     <x v="41"/>
     <x v="3"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="43"/>
     <x v="39"/>
     <x v="42"/>
     <x v="3"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="44"/>
     <x v="40"/>
     <x v="43"/>
     <x v="3"/>
+    <x v="38"/>
   </r>
   <r>
     <x v="45"/>
     <x v="41"/>
     <x v="44"/>
     <x v="3"/>
+    <x v="39"/>
   </r>
   <r>
     <x v="46"/>
     <x v="42"/>
     <x v="45"/>
     <x v="3"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="47"/>
     <x v="43"/>
     <x v="46"/>
     <x v="3"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="48"/>
     <x v="44"/>
     <x v="47"/>
     <x v="3"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="49"/>
     <x v="45"/>
     <x v="48"/>
     <x v="3"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="50"/>
     <x v="46"/>
     <x v="49"/>
     <x v="3"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="51"/>
     <x v="47"/>
     <x v="50"/>
     <x v="3"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="52"/>
     <x v="48"/>
     <x v="51"/>
     <x v="3"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="53"/>
     <x v="49"/>
     <x v="52"/>
     <x v="3"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="54"/>
     <x v="50"/>
     <x v="53"/>
     <x v="3"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="55"/>
     <x v="51"/>
     <x v="54"/>
     <x v="3"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="56"/>
     <x v="51"/>
     <x v="55"/>
     <x v="3"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="57"/>
     <x v="52"/>
     <x v="56"/>
     <x v="3"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="58"/>
     <x v="52"/>
     <x v="57"/>
     <x v="3"/>
+    <x v="46"/>
   </r>
   <r>
     <x v="59"/>
     <x v="52"/>
     <x v="58"/>
     <x v="3"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="60"/>
     <x v="53"/>
     <x v="59"/>
     <x v="3"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="61"/>
     <x v="54"/>
     <x v="60"/>
     <x v="3"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="62"/>
     <x v="55"/>
     <x v="61"/>
     <x v="3"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="63"/>
     <x v="56"/>
     <x v="62"/>
     <x v="3"/>
+    <x v="51"/>
   </r>
   <r>
     <x v="64"/>
     <x v="57"/>
     <x v="63"/>
     <x v="3"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="65"/>
     <x v="58"/>
     <x v="64"/>
     <x v="3"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="66"/>
     <x v="59"/>
     <x v="65"/>
     <x v="3"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="67"/>
     <x v="60"/>
     <x v="66"/>
     <x v="3"/>
+    <x v="55"/>
   </r>
   <r>
     <x v="68"/>
     <x v="61"/>
     <x v="67"/>
     <x v="3"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="69"/>
     <x v="62"/>
     <x v="68"/>
     <x v="3"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="70"/>
     <x v="63"/>
     <x v="69"/>
     <x v="4"/>
+    <x v="58"/>
   </r>
   <r>
     <x v="71"/>
     <x v="64"/>
     <x v="70"/>
     <x v="4"/>
+    <x v="59"/>
   </r>
   <r>
     <x v="72"/>
     <x v="30"/>
     <x v="71"/>
     <x v="4"/>
+    <x v="60"/>
   </r>
   <r>
     <x v="73"/>
     <x v="65"/>
     <x v="72"/>
     <x v="4"/>
+    <x v="61"/>
   </r>
   <r>
     <x v="74"/>
     <x v="66"/>
     <x v="73"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="75"/>
     <x v="66"/>
     <x v="74"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="76"/>
     <x v="67"/>
     <x v="75"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="77"/>
     <x v="67"/>
     <x v="76"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="78"/>
     <x v="68"/>
     <x v="77"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="79"/>
     <x v="68"/>
     <x v="78"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="80"/>
     <x v="68"/>
     <x v="79"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="81"/>
     <x v="68"/>
     <x v="80"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="82"/>
     <x v="68"/>
     <x v="81"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="83"/>
     <x v="69"/>
     <x v="82"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="84"/>
     <x v="70"/>
     <x v="83"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="85"/>
     <x v="71"/>
     <x v="84"/>
     <x v="4"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="86"/>
     <x v="72"/>
     <x v="85"/>
     <x v="4"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="87"/>
     <x v="73"/>
     <x v="86"/>
     <x v="4"/>
+    <x v="64"/>
   </r>
   <r>
     <x v="88"/>
     <x v="74"/>
     <x v="87"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="89"/>
     <x v="75"/>
     <x v="88"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="90"/>
     <x v="76"/>
     <x v="89"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="91"/>
     <x v="77"/>
     <x v="90"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="92"/>
     <x v="78"/>
     <x v="91"/>
     <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="93"/>
     <x v="79"/>
     <x v="92"/>
     <x v="4"/>
+    <x v="65"/>
   </r>
   <r>
     <x v="94"/>
     <x v="80"/>
     <x v="93"/>
     <x v="4"/>
+    <x v="66"/>
   </r>
   <r>
     <x v="95"/>
     <x v="81"/>
     <x v="94"/>
     <x v="4"/>
+    <x v="67"/>
   </r>
   <r>
     <x v="96"/>
     <x v="82"/>
     <x v="95"/>
     <x v="4"/>
+    <x v="68"/>
   </r>
   <r>
     <x v="97"/>
     <x v="83"/>
     <x v="96"/>
     <x v="4"/>
+    <x v="69"/>
   </r>
   <r>
     <x v="98"/>
     <x v="84"/>
     <x v="97"/>
     <x v="4"/>
+    <x v="70"/>
   </r>
   <r>
     <x v="99"/>
     <x v="85"/>
     <x v="98"/>
     <x v="4"/>
+    <x v="71"/>
   </r>
   <r>
     <x v="100"/>
     <x v="86"/>
     <x v="99"/>
     <x v="4"/>
+    <x v="72"/>
   </r>
   <r>
     <x v="101"/>
     <x v="87"/>
     <x v="100"/>
     <x v="4"/>
+    <x v="73"/>
   </r>
   <r>
     <x v="102"/>
     <x v="88"/>
     <x v="101"/>
     <x v="4"/>
+    <x v="74"/>
   </r>
   <r>
     <x v="103"/>
     <x v="89"/>
     <x v="102"/>
     <x v="4"/>
+    <x v="75"/>
   </r>
   <r>
     <x v="104"/>
     <x v="89"/>
     <x v="103"/>
     <x v="4"/>
+    <x v="76"/>
   </r>
   <r>
     <x v="105"/>
     <x v="89"/>
     <x v="104"/>
     <x v="4"/>
+    <x v="77"/>
   </r>
   <r>
     <x v="106"/>
     <x v="90"/>
     <x v="105"/>
     <x v="4"/>
+    <x v="78"/>
   </r>
   <r>
     <x v="107"/>
     <x v="91"/>
     <x v="106"/>
     <x v="4"/>
+    <x v="79"/>
   </r>
   <r>
     <x v="108"/>
     <x v="92"/>
     <x v="107"/>
     <x v="4"/>
+    <x v="80"/>
   </r>
   <r>
     <x v="109"/>
     <x v="93"/>
     <x v="108"/>
     <x v="4"/>
+    <x v="81"/>
   </r>
   <r>
     <x v="110"/>
     <x v="94"/>
     <x v="109"/>
     <x v="4"/>
+    <x v="82"/>
   </r>
   <r>
     <x v="111"/>
     <x v="95"/>
     <x v="110"/>
     <x v="4"/>
+    <x v="83"/>
   </r>
   <r>
     <x v="112"/>
     <x v="96"/>
     <x v="111"/>
     <x v="4"/>
+    <x v="84"/>
   </r>
   <r>
     <x v="113"/>
     <x v="97"/>
     <x v="112"/>
     <x v="4"/>
+    <x v="85"/>
   </r>
   <r>
     <x v="114"/>
     <x v="98"/>
     <x v="113"/>
     <x v="4"/>
+    <x v="86"/>
   </r>
   <r>
     <x v="115"/>
     <x v="99"/>
     <x v="13"/>
     <x v="4"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="116"/>
     <x v="100"/>
     <x v="114"/>
     <x v="4"/>
+    <x v="87"/>
   </r>
   <r>
     <x v="117"/>
     <x v="101"/>
     <x v="115"/>
     <x v="4"/>
+    <x v="88"/>
   </r>
   <r>
     <x v="118"/>
     <x v="102"/>
     <x v="116"/>
     <x v="4"/>
+    <x v="89"/>
   </r>
   <r>
     <x v="119"/>
     <x v="103"/>
     <x v="117"/>
     <x v="4"/>
+    <x v="90"/>
   </r>
   <r>
     <x v="120"/>
     <x v="104"/>
     <x v="118"/>
     <x v="4"/>
+    <x v="91"/>
   </r>
   <r>
     <x v="121"/>
     <x v="105"/>
     <x v="119"/>
     <x v="4"/>
+    <x v="92"/>
   </r>
   <r>
     <x v="122"/>
     <x v="106"/>
     <x v="120"/>
     <x v="4"/>
+    <x v="93"/>
   </r>
   <r>
     <x v="123"/>
     <x v="107"/>
     <x v="121"/>
     <x v="4"/>
+    <x v="94"/>
   </r>
   <r>
     <x v="124"/>
     <x v="108"/>
     <x v="122"/>
     <x v="4"/>
+    <x v="95"/>
   </r>
   <r>
     <x v="125"/>
     <x v="109"/>
     <x v="123"/>
     <x v="4"/>
+    <x v="96"/>
   </r>
   <r>
     <x v="126"/>
     <x v="110"/>
     <x v="124"/>
     <x v="5"/>
+    <x v="97"/>
   </r>
   <r>
     <x v="127"/>
     <x v="111"/>
     <x v="125"/>
     <x v="5"/>
+    <x v="98"/>
   </r>
   <r>
     <x v="128"/>
     <x v="112"/>
     <x v="126"/>
     <x v="5"/>
+    <x v="99"/>
   </r>
   <r>
     <x v="129"/>
     <x v="113"/>
     <x v="127"/>
     <x v="5"/>
+    <x v="100"/>
   </r>
   <r>
     <x v="130"/>
     <x v="114"/>
     <x v="128"/>
     <x v="5"/>
+    <x v="101"/>
   </r>
   <r>
     <x v="131"/>
     <x v="115"/>
     <x v="129"/>
     <x v="5"/>
+    <x v="102"/>
   </r>
   <r>
     <x v="132"/>
     <x v="116"/>
     <x v="130"/>
     <x v="5"/>
+    <x v="103"/>
   </r>
   <r>
     <x v="133"/>
     <x v="117"/>
     <x v="131"/>
     <x v="5"/>
+    <x v="104"/>
   </r>
   <r>
     <x v="134"/>
     <x v="118"/>
     <x v="132"/>
     <x v="5"/>
+    <x v="105"/>
   </r>
   <r>
     <x v="135"/>
     <x v="119"/>
     <x v="133"/>
     <x v="5"/>
+    <x v="106"/>
   </r>
   <r>
     <x v="136"/>
     <x v="120"/>
     <x v="134"/>
     <x v="5"/>
+    <x v="107"/>
   </r>
   <r>
     <x v="137"/>
     <x v="121"/>
     <x v="135"/>
     <x v="5"/>
+    <x v="108"/>
   </r>
   <r>
     <x v="138"/>
     <x v="122"/>
     <x v="136"/>
     <x v="6"/>
+    <x v="109"/>
   </r>
   <r>
     <x v="139"/>
     <x v="123"/>
     <x v="137"/>
     <x v="6"/>
+    <x v="110"/>
   </r>
   <r>
     <x v="140"/>
     <x v="124"/>
     <x v="138"/>
     <x v="6"/>
+    <x v="111"/>
   </r>
   <r>
     <x v="141"/>
     <x v="125"/>
     <x v="139"/>
     <x v="6"/>
+    <x v="112"/>
   </r>
   <r>
     <x v="142"/>
     <x v="126"/>
     <x v="140"/>
     <x v="6"/>
+    <x v="113"/>
   </r>
   <r>
     <x v="143"/>
     <x v="127"/>
     <x v="141"/>
     <x v="6"/>
+    <x v="114"/>
   </r>
   <r>
     <x v="144"/>
     <x v="128"/>
     <x v="142"/>
     <x v="6"/>
+    <x v="115"/>
   </r>
   <r>
     <x v="145"/>
     <x v="129"/>
     <x v="143"/>
     <x v="7"/>
+    <x v="116"/>
   </r>
   <r>
     <x v="146"/>
     <x v="130"/>
     <x v="144"/>
     <x v="7"/>
+    <x v="117"/>
   </r>
   <r>
     <x v="147"/>
     <x v="131"/>
     <x v="145"/>
     <x v="7"/>
+    <x v="118"/>
   </r>
   <r>
     <x v="148"/>
     <x v="132"/>
     <x v="146"/>
     <x v="7"/>
+    <x v="119"/>
   </r>
   <r>
     <x v="149"/>
     <x v="133"/>
     <x v="147"/>
     <x v="7"/>
+    <x v="120"/>
   </r>
   <r>
     <x v="150"/>
     <x v="134"/>
     <x v="148"/>
     <x v="7"/>
+    <x v="121"/>
   </r>
   <r>
     <x v="151"/>
     <x v="135"/>
     <x v="0"/>
     <x v="7"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="152"/>
     <x v="136"/>
     <x v="149"/>
     <x v="7"/>
+    <x v="122"/>
   </r>
   <r>
     <x v="153"/>
     <x v="137"/>
     <x v="150"/>
     <x v="7"/>
+    <x v="123"/>
   </r>
   <r>
     <x v="154"/>
     <x v="138"/>
     <x v="151"/>
     <x v="7"/>
+    <x v="124"/>
   </r>
   <r>
     <x v="155"/>
     <x v="139"/>
     <x v="152"/>
     <x v="7"/>
+    <x v="125"/>
   </r>
   <r>
     <x v="156"/>
     <x v="140"/>
     <x v="153"/>
     <x v="7"/>
+    <x v="126"/>
   </r>
   <r>
     <x v="157"/>
     <x v="141"/>
     <x v="154"/>
     <x v="7"/>
+    <x v="127"/>
   </r>
   <r>
     <x v="158"/>
     <x v="135"/>
     <x v="155"/>
     <x v="7"/>
+    <x v="128"/>
   </r>
   <r>
     <x v="159"/>
     <x v="131"/>
     <x v="156"/>
     <x v="7"/>
+    <x v="129"/>
   </r>
   <r>
     <x v="160"/>
     <x v="142"/>
     <x v="157"/>
     <x v="7"/>
+    <x v="130"/>
   </r>
   <r>
     <x v="161"/>
     <x v="143"/>
     <x v="158"/>
     <x v="7"/>
+    <x v="131"/>
   </r>
   <r>
     <x v="162"/>
     <x v="144"/>
     <x v="159"/>
     <x v="7"/>
+    <x v="132"/>
   </r>
   <r>
     <x v="163"/>
     <x v="145"/>
     <x v="160"/>
     <x v="7"/>
+    <x v="133"/>
   </r>
   <r>
     <x v="164"/>
     <x v="146"/>
     <x v="161"/>
     <x v="7"/>
+    <x v="134"/>
   </r>
   <r>
     <x v="165"/>
     <x v="147"/>
     <x v="162"/>
     <x v="7"/>
+    <x v="135"/>
   </r>
   <r>
     <x v="166"/>
     <x v="148"/>
     <x v="163"/>
     <x v="7"/>
+    <x v="136"/>
   </r>
   <r>
     <x v="167"/>
     <x v="149"/>
     <x v="164"/>
     <x v="7"/>
+    <x v="137"/>
   </r>
   <r>
     <x v="168"/>
     <x v="150"/>
     <x v="165"/>
     <x v="7"/>
+    <x v="138"/>
   </r>
   <r>
     <x v="169"/>
     <x v="151"/>
     <x v="166"/>
     <x v="7"/>
+    <x v="139"/>
   </r>
   <r>
     <x v="170"/>
     <x v="152"/>
     <x v="167"/>
     <x v="7"/>
+    <x v="140"/>
   </r>
   <r>
     <x v="171"/>
     <x v="153"/>
     <x v="168"/>
     <x v="7"/>
+    <x v="141"/>
   </r>
   <r>
     <x v="172"/>
     <x v="154"/>
     <x v="169"/>
     <x v="7"/>
+    <x v="142"/>
   </r>
   <r>
     <x v="173"/>
     <x v="155"/>
     <x v="170"/>
     <x v="7"/>
+    <x v="143"/>
   </r>
   <r>
     <x v="174"/>
     <x v="156"/>
     <x v="171"/>
     <x v="7"/>
+    <x v="144"/>
   </r>
   <r>
     <x v="175"/>
     <x v="157"/>
     <x v="172"/>
     <x v="7"/>
+    <x v="145"/>
   </r>
   <r>
     <x v="176"/>
     <x v="158"/>
     <x v="173"/>
     <x v="8"/>
+    <x v="146"/>
   </r>
   <r>
     <x v="177"/>
     <x v="159"/>
     <x v="174"/>
     <x v="8"/>
+    <x v="147"/>
   </r>
   <r>
     <x v="178"/>
     <x v="160"/>
     <x v="175"/>
     <x v="8"/>
+    <x v="148"/>
   </r>
   <r>
     <x v="179"/>
     <x v="161"/>
     <x v="176"/>
     <x v="8"/>
+    <x v="149"/>
   </r>
   <r>
     <x v="180"/>
     <x v="162"/>
     <x v="177"/>
     <x v="8"/>
+    <x v="150"/>
   </r>
   <r>
     <x v="181"/>
     <x v="163"/>
     <x v="178"/>
     <x v="9"/>
+    <x v="151"/>
   </r>
   <r>
     <x v="182"/>
     <x v="164"/>
     <x v="179"/>
     <x v="9"/>
+    <x v="152"/>
   </r>
   <r>
     <x v="183"/>
     <x v="165"/>
     <x v="180"/>
     <x v="9"/>
+    <x v="153"/>
   </r>
   <r>
     <x v="184"/>
     <x v="166"/>
     <x v="181"/>
     <x v="9"/>
+    <x v="154"/>
   </r>
   <r>
     <x v="185"/>
     <x v="167"/>
     <x v="182"/>
     <x v="9"/>
+    <x v="155"/>
   </r>
   <r>
     <x v="186"/>
     <x v="168"/>
     <x v="183"/>
     <x v="9"/>
+    <x v="156"/>
   </r>
   <r>
     <x v="187"/>
     <x v="169"/>
     <x v="184"/>
     <x v="9"/>
+    <x v="157"/>
   </r>
   <r>
     <x v="188"/>
     <x v="170"/>
     <x v="185"/>
     <x v="9"/>
+    <x v="158"/>
   </r>
   <r>
     <x v="189"/>
     <x v="171"/>
     <x v="186"/>
     <x v="9"/>
+    <x v="159"/>
   </r>
   <r>
     <x v="190"/>
     <x v="172"/>
     <x v="187"/>
     <x v="9"/>
+    <x v="160"/>
   </r>
   <r>
     <x v="191"/>
     <x v="173"/>
     <x v="188"/>
     <x v="9"/>
+    <x v="161"/>
   </r>
   <r>
     <x v="192"/>
     <x v="174"/>
     <x v="189"/>
     <x v="9"/>
+    <x v="162"/>
   </r>
   <r>
     <x v="193"/>
     <x v="95"/>
     <x v="190"/>
     <x v="9"/>
+    <x v="163"/>
   </r>
   <r>
     <x v="194"/>
     <x v="175"/>
     <x v="191"/>
     <x v="9"/>
+    <x v="164"/>
   </r>
   <r>
     <x v="195"/>
     <x v="176"/>
     <x v="192"/>
     <x v="9"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="196"/>
     <x v="177"/>
     <x v="193"/>
     <x v="9"/>
+    <x v="165"/>
   </r>
   <r>
     <x v="197"/>
     <x v="178"/>
     <x v="194"/>
     <x v="10"/>
+    <x v="166"/>
   </r>
   <r>
     <x v="198"/>
     <x v="179"/>
     <x v="195"/>
     <x v="10"/>
+    <x v="167"/>
   </r>
   <r>
     <x v="199"/>
     <x v="180"/>
     <x v="196"/>
     <x v="10"/>
+    <x v="168"/>
   </r>
   <r>
     <x v="200"/>
     <x v="181"/>
     <x v="197"/>
     <x v="10"/>
+    <x v="169"/>
   </r>
   <r>
     <x v="201"/>
     <x v="182"/>
     <x v="198"/>
     <x v="10"/>
+    <x v="170"/>
   </r>
   <r>
     <x v="202"/>
     <x v="183"/>
     <x v="199"/>
     <x v="10"/>
+    <x v="171"/>
   </r>
   <r>
     <x v="203"/>
     <x v="184"/>
     <x v="13"/>
     <x v="11"/>
+    <x v="15"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A8155F7-30B2-4FA6-9549-3E38FDBD609A}" name="Tableau croisé dynamique1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:D207" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
-  <pivotFields count="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{707FFB0E-8043-422D-8EFF-1A98332A3456}" name="Tableau croisé dynamique1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:E207" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
+  <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="204">
         <item x="22"/>
@@ -5221,26 +5794,12 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="26">
+      <items count="12">
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="9"/>
         <item x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
         <item x="0"/>
         <item x="1"/>
         <item x="5"/>
@@ -5250,12 +5809,189 @@
         <item x="10"/>
       </items>
     </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="172">
+        <item x="22"/>
+        <item x="159"/>
+        <item x="79"/>
+        <item x="74"/>
+        <item x="65"/>
+        <item x="71"/>
+        <item x="164"/>
+        <item x="78"/>
+        <item x="30"/>
+        <item x="166"/>
+        <item x="70"/>
+        <item x="167"/>
+        <item x="29"/>
+        <item x="61"/>
+        <item x="39"/>
+        <item x="37"/>
+        <item x="163"/>
+        <item x="69"/>
+        <item x="72"/>
+        <item x="160"/>
+        <item x="83"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="60"/>
+        <item x="31"/>
+        <item x="40"/>
+        <item x="162"/>
+        <item x="82"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="81"/>
+        <item x="73"/>
+        <item x="77"/>
+        <item x="169"/>
+        <item x="161"/>
+        <item x="128"/>
+        <item x="58"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="158"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="165"/>
+        <item x="66"/>
+        <item x="113"/>
+        <item x="170"/>
+        <item x="97"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="62"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="48"/>
+        <item x="137"/>
+        <item x="147"/>
+        <item x="171"/>
+        <item x="102"/>
+        <item x="101"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="110"/>
+        <item x="156"/>
+        <item x="91"/>
+        <item x="63"/>
+        <item x="84"/>
+        <item x="144"/>
+        <item x="32"/>
+        <item x="6"/>
+        <item x="36"/>
+        <item x="155"/>
+        <item x="68"/>
+        <item x="138"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="154"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="153"/>
+        <item x="117"/>
+        <item x="111"/>
+        <item x="136"/>
+        <item x="100"/>
+        <item x="103"/>
+        <item x="112"/>
+        <item x="33"/>
+        <item x="157"/>
+        <item x="53"/>
+        <item x="114"/>
+        <item x="148"/>
+        <item x="168"/>
+        <item x="64"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="8"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="50"/>
+        <item x="139"/>
+        <item x="131"/>
+        <item x="143"/>
+        <item x="2"/>
+        <item x="142"/>
+        <item x="132"/>
+        <item x="95"/>
+        <item x="51"/>
+        <item x="104"/>
+        <item x="109"/>
+        <item x="9"/>
+        <item x="130"/>
+        <item x="151"/>
+        <item x="116"/>
+        <item x="105"/>
+        <item x="17"/>
+        <item x="146"/>
+        <item x="56"/>
+        <item x="10"/>
+        <item x="152"/>
+        <item x="115"/>
+        <item x="3"/>
+        <item x="96"/>
+        <item x="90"/>
+        <item x="150"/>
+        <item x="52"/>
+        <item x="35"/>
+        <item x="106"/>
+        <item x="4"/>
+        <item x="34"/>
+        <item x="87"/>
+        <item x="57"/>
+        <item x="107"/>
+        <item x="89"/>
+        <item x="88"/>
+        <item x="93"/>
+        <item x="92"/>
+        <item x="94"/>
+        <item x="67"/>
+        <item x="149"/>
+        <item x="5"/>
+        <item x="108"/>
+        <item x="11"/>
+        <item x="133"/>
+        <item x="145"/>
+        <item x="49"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="126"/>
+        <item x="14"/>
+        <item x="122"/>
+        <item x="121"/>
+        <item x="124"/>
+        <item x="123"/>
+        <item x="127"/>
+        <item x="125"/>
+        <item x="86"/>
+        <item x="85"/>
+        <item x="118"/>
+        <item x="38"/>
+        <item x="59"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="0"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="15"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="4">
+  <rowFields count="5">
     <field x="3"/>
     <field x="0"/>
     <field x="2"/>
     <field x="1"/>
+    <field x="4"/>
   </rowFields>
   <rowItems count="204">
     <i>
@@ -5263,1032 +5999,1236 @@
       <x/>
       <x v="196"/>
       <x v="44"/>
+      <x/>
     </i>
     <i r="1">
       <x v="1"/>
       <x v="197"/>
       <x v="45"/>
+      <x/>
     </i>
     <i r="1">
       <x v="2"/>
       <x v="198"/>
       <x v="18"/>
+      <x v="171"/>
     </i>
     <i r="1">
       <x v="12"/>
       <x v="140"/>
       <x v="41"/>
+      <x/>
     </i>
     <i r="1">
       <x v="13"/>
       <x v="133"/>
       <x v="32"/>
+      <x/>
     </i>
     <i r="1">
       <x v="14"/>
       <x v="134"/>
       <x v="33"/>
+      <x/>
     </i>
     <i r="1">
       <x v="16"/>
       <x v="143"/>
       <x v="43"/>
+      <x/>
     </i>
     <i r="1">
       <x v="64"/>
       <x v="101"/>
       <x v="152"/>
+      <x v="92"/>
     </i>
     <i r="1">
       <x v="79"/>
       <x v="76"/>
       <x v="127"/>
+      <x v="73"/>
     </i>
     <i r="1">
       <x v="114"/>
       <x v="119"/>
       <x v="170"/>
+      <x v="131"/>
     </i>
     <i r="1">
       <x v="115"/>
       <x v="118"/>
       <x v="169"/>
+      <x v="134"/>
     </i>
     <i r="1">
       <x v="127"/>
       <x v="179"/>
       <x v="24"/>
+      <x v="21"/>
     </i>
     <i r="1">
       <x v="128"/>
       <x v="160"/>
       <x v="6"/>
+      <x v="22"/>
     </i>
     <i r="1">
       <x v="129"/>
       <x v="159"/>
       <x v="1"/>
+      <x v="12"/>
     </i>
     <i r="1">
       <x v="144"/>
       <x v="148"/>
       <x v="8"/>
+      <x v="8"/>
     </i>
     <i r="1">
       <x v="153"/>
       <x v="190"/>
       <x v="29"/>
+      <x v="169"/>
     </i>
     <i r="1">
       <x v="155"/>
       <x v="187"/>
       <x v="37"/>
+      <x v="44"/>
     </i>
     <i r="1">
       <x v="156"/>
       <x v="188"/>
       <x v="37"/>
+      <x v="43"/>
     </i>
     <i r="1">
       <x v="176"/>
       <x v="16"/>
       <x v="73"/>
+      <x v="58"/>
     </i>
     <i r="1">
       <x v="179"/>
       <x v="17"/>
       <x v="73"/>
+      <x v="57"/>
     </i>
     <i r="1">
       <x v="188"/>
       <x v="163"/>
       <x v="58"/>
+      <x v="24"/>
     </i>
     <i r="1">
       <x v="198"/>
       <x v="170"/>
       <x v="51"/>
+      <x v="42"/>
     </i>
     <i r="1">
       <x v="199"/>
       <x v="171"/>
       <x v="52"/>
+      <x v="41"/>
     </i>
     <i>
       <x v="1"/>
       <x v="4"/>
       <x v="131"/>
       <x v="30"/>
+      <x/>
     </i>
     <i r="1">
       <x v="6"/>
       <x v="141"/>
       <x v="38"/>
+      <x/>
     </i>
     <i r="1">
       <x v="8"/>
       <x v="142"/>
       <x v="42"/>
+      <x/>
     </i>
     <i r="1">
       <x v="10"/>
       <x v="132"/>
       <x v="31"/>
+      <x/>
     </i>
     <i r="1">
       <x v="30"/>
       <x v="99"/>
       <x v="150"/>
+      <x v="99"/>
     </i>
     <i r="1">
       <x v="35"/>
       <x v="104"/>
       <x v="155"/>
+      <x v="100"/>
     </i>
     <i r="1">
       <x v="45"/>
       <x v="40"/>
       <x v="95"/>
+      <x v="150"/>
     </i>
     <i r="1">
       <x v="68"/>
       <x v="85"/>
       <x v="136"/>
+      <x v="94"/>
     </i>
     <i r="1">
       <x v="102"/>
       <x v="52"/>
       <x v="103"/>
+      <x v="104"/>
     </i>
     <i r="1">
       <x v="108"/>
       <x v="53"/>
       <x v="104"/>
+      <x v="112"/>
     </i>
     <i r="1">
       <x v="111"/>
       <x v="113"/>
       <x v="164"/>
+      <x v="122"/>
     </i>
     <i r="1">
       <x v="112"/>
       <x v="62"/>
       <x v="113"/>
+      <x v="130"/>
     </i>
     <i r="1">
       <x v="126"/>
       <x v="117"/>
       <x v="168"/>
+      <x v="136"/>
     </i>
     <i r="1">
       <x v="133"/>
       <x v="155"/>
       <x v="7"/>
+      <x v="14"/>
     </i>
     <i r="1">
       <x v="136"/>
       <x v="157"/>
       <x v="2"/>
+      <x v="15"/>
     </i>
     <i r="1">
       <x v="138"/>
       <x v="154"/>
       <x v="10"/>
+      <x v="25"/>
     </i>
     <i r="1">
       <x v="139"/>
       <x v="195"/>
       <x/>
+      <x v="75"/>
     </i>
     <i r="1">
       <x v="140"/>
       <x v="156"/>
       <x v="5"/>
+      <x v="164"/>
     </i>
     <i r="1">
       <x v="170"/>
       <x v="11"/>
       <x v="17"/>
+      <x/>
     </i>
     <i r="1">
       <x v="175"/>
       <x v="14"/>
       <x v="65"/>
+      <x v="166"/>
     </i>
     <i r="1">
       <x v="177"/>
       <x v="20"/>
       <x v="71"/>
+      <x v="82"/>
     </i>
     <i r="1">
       <x v="178"/>
       <x v="15"/>
       <x v="65"/>
+      <x v="167"/>
     </i>
     <i r="1">
       <x v="180"/>
       <x v="21"/>
       <x v="71"/>
+      <x v="83"/>
     </i>
     <i r="1">
       <x v="181"/>
       <x v="22"/>
       <x v="71"/>
+      <x v="84"/>
     </i>
     <i r="1">
       <x v="184"/>
       <x v="18"/>
       <x v="72"/>
+      <x v="59"/>
     </i>
     <i r="1">
       <x v="186"/>
       <x v="130"/>
       <x v="21"/>
+      <x/>
     </i>
     <i r="1">
       <x v="194"/>
       <x v="168"/>
       <x v="49"/>
+      <x v="39"/>
     </i>
     <i r="1">
       <x v="195"/>
       <x v="169"/>
       <x v="50"/>
+      <x v="40"/>
     </i>
     <i>
       <x v="2"/>
       <x v="5"/>
       <x v="136"/>
       <x v="39"/>
+      <x/>
     </i>
     <i r="1">
       <x v="7"/>
       <x v="138"/>
       <x v="34"/>
+      <x/>
     </i>
     <i r="1">
       <x v="9"/>
       <x v="139"/>
       <x v="36"/>
+      <x/>
     </i>
     <i r="1">
       <x v="11"/>
       <x v="137"/>
       <x v="40"/>
+      <x/>
     </i>
     <i r="1">
       <x v="15"/>
       <x v="135"/>
       <x v="35"/>
+      <x/>
     </i>
     <i r="1">
       <x v="22"/>
       <x v="27"/>
       <x v="77"/>
+      <x v="161"/>
     </i>
     <i r="1">
       <x v="27"/>
       <x v="67"/>
       <x v="118"/>
+      <x v="138"/>
     </i>
     <i r="1">
       <x v="31"/>
       <x v="127"/>
       <x v="178"/>
+      <x v="142"/>
     </i>
     <i r="1">
       <x v="32"/>
       <x v="199"/>
       <x v="87"/>
+      <x v="171"/>
     </i>
     <i r="1">
       <x v="67"/>
       <x v="180"/>
       <x v="64"/>
+      <x v="7"/>
     </i>
     <i r="1">
       <x v="69"/>
       <x v="126"/>
       <x v="177"/>
+      <x v="140"/>
     </i>
     <i r="1">
       <x v="82"/>
       <x v="94"/>
       <x v="145"/>
+      <x v="69"/>
     </i>
     <i r="1">
       <x v="88"/>
       <x v="125"/>
       <x v="176"/>
+      <x v="141"/>
     </i>
     <i r="1">
       <x v="92"/>
       <x v="26"/>
       <x v="76"/>
+      <x v="162"/>
     </i>
     <i r="1">
       <x v="113"/>
       <x v="69"/>
       <x v="120"/>
+      <x v="128"/>
     </i>
     <i r="1">
       <x v="122"/>
       <x v="66"/>
       <x v="117"/>
+      <x v="139"/>
     </i>
     <i r="1">
       <x v="123"/>
       <x v="61"/>
       <x v="112"/>
+      <x v="127"/>
     </i>
     <i r="1">
       <x v="124"/>
       <x v="58"/>
       <x v="109"/>
+      <x v="111"/>
     </i>
     <i r="1">
       <x v="125"/>
       <x v="41"/>
       <x v="96"/>
+      <x v="135"/>
     </i>
     <i r="1">
       <x v="131"/>
       <x v="161"/>
       <x v="6"/>
+      <x v="23"/>
     </i>
     <i r="1">
       <x v="132"/>
       <x v="153"/>
       <x v="12"/>
+      <x v="13"/>
     </i>
     <i r="1">
       <x v="137"/>
       <x v="149"/>
       <x v="62"/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="141"/>
       <x v="162"/>
       <x v="3"/>
+      <x v="38"/>
     </i>
     <i r="1">
       <x v="143"/>
       <x v="158"/>
       <x v="4"/>
+      <x v="165"/>
     </i>
     <i r="1">
       <x v="145"/>
       <x v="182"/>
       <x v="63"/>
+      <x v="30"/>
     </i>
     <i r="1">
       <x v="148"/>
       <x v="129"/>
       <x v="27"/>
+      <x v="98"/>
     </i>
     <i r="1">
       <x v="149"/>
       <x v="183"/>
       <x v="63"/>
+      <x v="31"/>
     </i>
     <i r="1">
       <x v="150"/>
       <x v="192"/>
       <x v="25"/>
+      <x v="56"/>
     </i>
     <i r="1">
       <x v="151"/>
       <x v="193"/>
       <x v="26"/>
+      <x v="70"/>
     </i>
     <i r="1">
       <x v="152"/>
       <x v="184"/>
       <x v="63"/>
+      <x v="34"/>
     </i>
     <i r="1">
       <x v="158"/>
       <x v="175"/>
       <x v="57"/>
+      <x v="5"/>
     </i>
     <i r="1">
       <x v="159"/>
       <x v="174"/>
       <x v="55"/>
+      <x v="17"/>
     </i>
     <i r="1">
       <x v="162"/>
       <x v="146"/>
       <x v="69"/>
+      <x v="20"/>
     </i>
     <i r="1">
       <x v="163"/>
       <x v="12"/>
       <x v="16"/>
+      <x/>
     </i>
     <i r="1">
       <x v="164"/>
       <x v="9"/>
       <x v="19"/>
+      <x/>
     </i>
     <i r="1">
       <x v="165"/>
       <x v="13"/>
       <x v="16"/>
+      <x/>
     </i>
     <i r="1">
       <x v="166"/>
       <x v="8"/>
       <x v="19"/>
+      <x/>
     </i>
     <i r="1">
       <x v="167"/>
       <x v="7"/>
       <x v="20"/>
+      <x/>
     </i>
     <i r="1">
       <x v="168"/>
       <x v="6"/>
       <x v="20"/>
+      <x/>
     </i>
     <i r="1">
       <x v="169"/>
       <x v="5"/>
       <x v="20"/>
+      <x/>
     </i>
     <i r="1">
       <x v="171"/>
       <x v="4"/>
       <x v="20"/>
+      <x/>
     </i>
     <i r="1">
       <x v="172"/>
       <x v="3"/>
       <x v="20"/>
+      <x/>
     </i>
     <i r="1">
       <x v="174"/>
       <x v="19"/>
       <x v="74"/>
+      <x v="71"/>
     </i>
     <i r="1">
       <x v="182"/>
       <x v="23"/>
       <x v="66"/>
+      <x v="28"/>
     </i>
     <i r="1">
       <x v="183"/>
       <x v="24"/>
       <x v="67"/>
+      <x v="32"/>
     </i>
     <i r="1">
       <x v="185"/>
       <x v="25"/>
       <x v="68"/>
+      <x v="27"/>
     </i>
     <i r="1">
       <x v="189"/>
       <x v="165"/>
       <x v="54"/>
+      <x v="77"/>
     </i>
     <i r="1">
       <x v="190"/>
       <x v="166"/>
       <x v="53"/>
+      <x v="143"/>
     </i>
     <i r="1">
       <x v="191"/>
       <x v="177"/>
       <x v="59"/>
+      <x v="18"/>
     </i>
     <i r="1">
       <x v="192"/>
       <x v="178"/>
       <x v="61"/>
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="193"/>
       <x v="167"/>
       <x v="60"/>
+      <x v="33"/>
     </i>
     <i r="1">
       <x v="196"/>
       <x v="172"/>
       <x v="48"/>
+      <x v="50"/>
     </i>
     <i r="1">
       <x v="197"/>
       <x v="173"/>
       <x v="46"/>
+      <x v="4"/>
     </i>
     <i r="1">
       <x v="200"/>
       <x v="176"/>
       <x v="56"/>
+      <x v="10"/>
     </i>
     <i r="1">
       <x v="201"/>
       <x v="2"/>
       <x v="23"/>
+      <x/>
     </i>
     <i r="1">
       <x v="202"/>
       <x v="1"/>
       <x v="22"/>
+      <x/>
     </i>
     <i>
       <x v="3"/>
       <x v="3"/>
       <x/>
       <x v="14"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="21"/>
       <x v="50"/>
       <x v="101"/>
+      <x v="117"/>
     </i>
     <i r="1">
       <x v="24"/>
       <x v="93"/>
       <x v="144"/>
+      <x v="68"/>
     </i>
     <i r="1">
       <x v="72"/>
       <x v="102"/>
       <x v="153"/>
+      <x v="93"/>
     </i>
     <i r="1">
       <x v="76"/>
       <x v="89"/>
       <x v="140"/>
+      <x v="76"/>
     </i>
     <i r="1">
       <x v="83"/>
       <x v="75"/>
       <x v="126"/>
+      <x v="81"/>
     </i>
     <i r="1">
       <x v="84"/>
       <x v="60"/>
       <x v="111"/>
+      <x v="124"/>
     </i>
     <i r="1">
       <x v="95"/>
       <x v="74"/>
       <x v="125"/>
+      <x v="85"/>
     </i>
     <i r="1">
       <x v="130"/>
       <x v="151"/>
       <x v="11"/>
+      <x v="19"/>
     </i>
     <i r="1">
       <x v="134"/>
       <x v="150"/>
       <x v="9"/>
+      <x v="36"/>
     </i>
     <i r="1">
       <x v="135"/>
       <x v="152"/>
       <x v="13"/>
+      <x v="26"/>
     </i>
     <i r="1">
       <x v="157"/>
       <x v="189"/>
       <x v="28"/>
+      <x v="45"/>
     </i>
     <i r="1">
       <x v="160"/>
       <x v="145"/>
       <x v="69"/>
+      <x v="16"/>
     </i>
     <i r="1">
       <x v="161"/>
       <x v="144"/>
       <x v="70"/>
+      <x v="6"/>
     </i>
     <i r="1">
       <x v="173"/>
       <x v="10"/>
       <x v="15"/>
+      <x/>
     </i>
     <i r="1">
       <x v="187"/>
       <x v="164"/>
       <x v="47"/>
+      <x v="49"/>
     </i>
     <i>
       <x v="4"/>
       <x v="203"/>
       <x v="199"/>
       <x v="75"/>
+      <x v="171"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="5"/>
       <x v="18"/>
       <x v="86"/>
       <x v="137"/>
+      <x v="47"/>
     </i>
     <i r="1">
       <x v="23"/>
       <x v="128"/>
       <x v="78"/>
+      <x v="168"/>
     </i>
     <i r="1">
       <x v="26"/>
       <x v="106"/>
       <x v="157"/>
+      <x v="101"/>
     </i>
     <i r="1">
       <x v="38"/>
       <x v="77"/>
       <x v="128"/>
+      <x v="74"/>
     </i>
     <i r="1">
       <x v="39"/>
       <x v="124"/>
       <x v="175"/>
+      <x v="147"/>
     </i>
     <i r="1">
       <x v="44"/>
       <x v="65"/>
       <x v="116"/>
+      <x v="145"/>
     </i>
     <i r="1">
       <x v="50"/>
       <x v="111"/>
       <x v="162"/>
+      <x v="115"/>
     </i>
     <i r="1">
       <x v="61"/>
       <x v="59"/>
       <x v="110"/>
+      <x v="126"/>
     </i>
     <i r="1">
       <x v="65"/>
       <x v="115"/>
       <x v="166"/>
+      <x v="123"/>
     </i>
     <i r="1">
       <x v="71"/>
       <x v="44"/>
       <x v="78"/>
+      <x v="46"/>
     </i>
     <i r="1">
       <x v="96"/>
       <x v="64"/>
       <x v="115"/>
+      <x v="133"/>
     </i>
     <i r="1">
       <x v="98"/>
       <x v="57"/>
       <x v="108"/>
+      <x v="108"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="6"/>
       <x v="41"/>
       <x v="199"/>
       <x v="84"/>
+      <x v="170"/>
     </i>
     <i r="1">
       <x v="46"/>
       <x v="199"/>
       <x v="94"/>
+      <x v="171"/>
     </i>
     <i r="1">
       <x v="47"/>
       <x v="87"/>
       <x v="138"/>
+      <x v="55"/>
     </i>
     <i r="1">
       <x v="51"/>
       <x v="33"/>
       <x v="86"/>
+      <x v="154"/>
     </i>
     <i r="1">
       <x v="58"/>
       <x v="45"/>
       <x v="84"/>
+      <x v="54"/>
     </i>
     <i r="1">
       <x v="73"/>
       <x v="110"/>
       <x v="161"/>
+      <x v="120"/>
     </i>
     <i r="1">
       <x v="78"/>
       <x v="46"/>
       <x v="97"/>
+      <x v="48"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="7"/>
       <x v="33"/>
       <x v="73"/>
       <x v="124"/>
+      <x v="66"/>
     </i>
     <i r="1">
       <x v="37"/>
       <x v="91"/>
       <x v="142"/>
+      <x v="64"/>
     </i>
     <i r="1">
       <x v="42"/>
       <x v="92"/>
       <x v="143"/>
+      <x v="63"/>
     </i>
     <i r="1">
       <x v="48"/>
       <x v="72"/>
       <x v="123"/>
+      <x v="65"/>
     </i>
     <i r="1">
       <x v="63"/>
       <x v="47"/>
       <x v="98"/>
+      <x v="53"/>
     </i>
     <i r="1">
       <x v="99"/>
       <x v="83"/>
       <x v="134"/>
+      <x v="89"/>
     </i>
     <i r="1">
       <x v="101"/>
       <x v="96"/>
       <x v="147"/>
+      <x v="90"/>
     </i>
     <i r="1">
       <x v="104"/>
       <x v="109"/>
       <x v="160"/>
+      <x v="113"/>
     </i>
     <i r="1">
       <x v="110"/>
       <x v="116"/>
       <x v="167"/>
+      <x v="132"/>
     </i>
     <i r="1">
       <x v="118"/>
       <x v="120"/>
       <x v="171"/>
+      <x v="137"/>
     </i>
     <i r="1">
       <x v="119"/>
       <x v="112"/>
       <x v="163"/>
+      <x v="119"/>
     </i>
     <i r="1">
       <x v="120"/>
       <x v="123"/>
       <x v="174"/>
+      <x v="146"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="8"/>
       <x v="53"/>
       <x v="90"/>
       <x v="141"/>
+      <x v="51"/>
     </i>
     <i r="1">
       <x v="54"/>
       <x v="71"/>
       <x v="122"/>
+      <x v="67"/>
     </i>
     <i r="1">
       <x v="97"/>
       <x v="103"/>
       <x v="154"/>
+      <x v="95"/>
     </i>
     <i r="1">
       <x v="103"/>
       <x v="84"/>
       <x v="135"/>
+      <x v="91"/>
     </i>
     <i r="1">
       <x v="105"/>
       <x v="82"/>
       <x v="133"/>
+      <x v="87"/>
     </i>
     <i r="1">
       <x v="106"/>
       <x v="54"/>
       <x v="105"/>
+      <x v="114"/>
     </i>
     <i r="1">
       <x v="117"/>
       <x v="114"/>
       <x v="165"/>
+      <x v="125"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="9"/>
       <x v="17"/>
       <x v="42"/>
       <x v="85"/>
+      <x v="37"/>
     </i>
     <i r="1">
       <x v="19"/>
       <x v="88"/>
       <x v="139"/>
+      <x v="60"/>
     </i>
     <i r="1">
       <x v="20"/>
       <x v="78"/>
       <x v="129"/>
+      <x v="79"/>
     </i>
     <i r="1">
       <x v="25"/>
       <x v="95"/>
       <x v="146"/>
+      <x v="78"/>
     </i>
     <i r="1">
       <x v="29"/>
       <x v="80"/>
       <x v="131"/>
+      <x v="86"/>
     </i>
     <i r="1">
       <x v="34"/>
       <x v="79"/>
       <x v="130"/>
+      <x v="80"/>
     </i>
     <i r="1">
       <x v="36"/>
       <x v="36"/>
       <x v="90"/>
+      <x v="157"/>
     </i>
     <i r="1">
       <x v="40"/>
       <x v="30"/>
       <x v="81"/>
+      <x v="152"/>
     </i>
     <i r="1">
       <x v="43"/>
       <x v="51"/>
       <x v="102"/>
+      <x v="106"/>
     </i>
     <i r="1">
       <x v="49"/>
       <x v="100"/>
       <x v="151"/>
+      <x v="102"/>
     </i>
     <i r="1">
       <x v="52"/>
       <x v="128"/>
       <x v="85"/>
+      <x/>
     </i>
     <i r="1">
       <x v="55"/>
       <x v="105"/>
       <x v="156"/>
+      <x v="103"/>
     </i>
     <i r="1">
       <x v="56"/>
       <x v="32"/>
       <x v="83"/>
+      <x v="149"/>
     </i>
     <i r="1">
       <x v="57"/>
       <x v="39"/>
       <x v="93"/>
+      <x v="159"/>
     </i>
     <i r="1">
       <x v="60"/>
       <x v="55"/>
       <x v="106"/>
+      <x v="110"/>
     </i>
     <i r="1">
       <x v="62"/>
       <x v="37"/>
       <x v="91"/>
+      <x v="160"/>
     </i>
     <i r="1">
       <x v="66"/>
       <x v="28"/>
       <x v="79"/>
+      <x v="163"/>
     </i>
     <i r="1">
       <x v="70"/>
       <x v="35"/>
       <x v="89"/>
+      <x v="158"/>
     </i>
     <i r="1">
       <x v="74"/>
       <x v="29"/>
       <x v="80"/>
+      <x v="151"/>
     </i>
     <i r="1">
       <x v="75"/>
       <x v="48"/>
       <x v="99"/>
+      <x v="72"/>
     </i>
     <i r="1">
       <x v="77"/>
       <x v="34"/>
       <x v="88"/>
+      <x v="155"/>
     </i>
     <i r="1">
       <x v="81"/>
       <x v="38"/>
       <x v="92"/>
+      <x v="153"/>
     </i>
     <i r="1">
       <x v="85"/>
       <x v="31"/>
       <x v="82"/>
+      <x v="156"/>
     </i>
     <i r="1">
       <x v="86"/>
       <x v="49"/>
       <x v="100"/>
+      <x v="116"/>
     </i>
     <i r="1">
       <x v="90"/>
       <x v="108"/>
       <x v="159"/>
+      <x v="107"/>
     </i>
     <i r="1">
       <x v="91"/>
       <x v="107"/>
       <x v="158"/>
+      <x v="109"/>
     </i>
     <i r="1">
       <x v="93"/>
       <x v="97"/>
       <x v="148"/>
+      <x v="105"/>
     </i>
     <i r="1">
       <x v="94"/>
       <x v="68"/>
       <x v="119"/>
+      <x v="148"/>
     </i>
     <i r="1">
       <x v="100"/>
       <x v="63"/>
       <x v="114"/>
+      <x v="118"/>
     </i>
     <i r="1">
       <x v="107"/>
       <x v="81"/>
       <x v="132"/>
+      <x v="88"/>
     </i>
     <i r="1">
       <x v="116"/>
       <x v="43"/>
       <x v="79"/>
+      <x v="29"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="10"/>
       <x v="59"/>
       <x v="70"/>
       <x v="121"/>
+      <x v="61"/>
     </i>
     <i r="1">
       <x v="80"/>
       <x v="122"/>
       <x v="173"/>
+      <x v="129"/>
     </i>
     <i r="1">
       <x v="87"/>
       <x v="56"/>
       <x v="107"/>
+      <x v="121"/>
     </i>
     <i r="1">
       <x v="109"/>
       <x v="98"/>
       <x v="149"/>
+      <x v="96"/>
     </i>
     <i r="1">
       <x v="121"/>
       <x v="121"/>
       <x v="172"/>
+      <x v="144"/>
     </i>
     <i>
-      <x v="25"/>
+      <x v="11"/>
       <x v="28"/>
       <x v="181"/>
       <x v="179"/>
+      <x v="9"/>
     </i>
     <i r="1">
       <x v="89"/>
       <x v="147"/>
       <x v="180"/>
+      <x v="11"/>
     </i>
     <i r="1">
       <x v="142"/>
       <x v="194"/>
       <x v="184"/>
+      <x v="62"/>
     </i>
     <i r="1">
       <x v="146"/>
       <x v="191"/>
       <x v="183"/>
+      <x v="52"/>
     </i>
     <i r="1">
       <x v="147"/>
       <x v="186"/>
       <x v="181"/>
+      <x v="97"/>
     </i>
     <i r="1">
       <x v="154"/>
       <x v="185"/>
       <x v="182"/>
+      <x v="35"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -6623,19 +7563,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E45F6B-D5AA-4ADC-B642-F466751D8267}">
-  <dimension ref="A3:D207"/>
+  <dimension ref="A3:E207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>262</v>
       </c>
@@ -6648,8 +7589,11 @@
       <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="9" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -6662,8 +7606,11 @@
       <c r="D4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -6673,8 +7620,11 @@
       <c r="D5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -6684,8 +7634,11 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -6695,8 +7648,11 @@
       <c r="D7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -6706,8 +7662,11 @@
       <c r="D8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -6717,8 +7676,11 @@
       <c r="D9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -6728,8 +7690,11 @@
       <c r="D10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>626</v>
       </c>
@@ -6739,8 +7704,11 @@
       <c r="D11" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>517</v>
       </c>
@@ -6750,8 +7718,11 @@
       <c r="D12" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>704</v>
       </c>
@@ -6761,8 +7732,11 @@
       <c r="D13" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>699</v>
       </c>
@@ -6772,8 +7746,11 @@
       <c r="D14" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>71</v>
       </c>
@@ -6783,8 +7760,11 @@
       <c r="D15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>74</v>
       </c>
@@ -6794,8 +7774,11 @@
       <c r="D16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>77</v>
       </c>
@@ -6805,8 +7788,11 @@
       <c r="D17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>80</v>
       </c>
@@ -6816,8 +7802,11 @@
       <c r="D18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -6827,8 +7816,11 @@
       <c r="D19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>51</v>
       </c>
@@ -6838,8 +7830,11 @@
       <c r="D20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -6849,8 +7844,11 @@
       <c r="D21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -6860,8 +7858,11 @@
       <c r="D22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -6871,8 +7872,11 @@
       <c r="D23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>83</v>
       </c>
@@ -6882,8 +7886,11 @@
       <c r="D24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -6893,8 +7900,11 @@
       <c r="D25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -6904,8 +7914,11 @@
       <c r="D26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -6918,8 +7931,11 @@
       <c r="D27" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>114</v>
       </c>
@@ -6929,8 +7945,11 @@
       <c r="D28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>117</v>
       </c>
@@ -6940,8 +7959,11 @@
       <c r="D29" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>108</v>
       </c>
@@ -6951,8 +7973,11 @@
       <c r="D30" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>617</v>
       </c>
@@ -6962,8 +7987,11 @@
       <c r="D31" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>641</v>
       </c>
@@ -6973,8 +8001,11 @@
       <c r="D32" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>358</v>
       </c>
@@ -6984,8 +8015,11 @@
       <c r="D33" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>555</v>
       </c>
@@ -6995,8 +8029,11 @@
       <c r="D34" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>414</v>
       </c>
@@ -7006,8 +8043,11 @@
       <c r="D35" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>419</v>
       </c>
@@ -7017,8 +8057,11 @@
       <c r="D36" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>679</v>
       </c>
@@ -7028,8 +8071,11 @@
       <c r="D37" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>457</v>
       </c>
@@ -7039,8 +8085,11 @@
       <c r="D38" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>695</v>
       </c>
@@ -7050,8 +8099,11 @@
       <c r="D39" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>96</v>
       </c>
@@ -7061,8 +8113,11 @@
       <c r="D40" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>90</v>
       </c>
@@ -7072,8 +8127,11 @@
       <c r="D41" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>99</v>
       </c>
@@ -7083,8 +8141,11 @@
       <c r="D42" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>87</v>
       </c>
@@ -7094,8 +8155,11 @@
       <c r="D43" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>93</v>
       </c>
@@ -7105,8 +8169,11 @@
       <c r="D44" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>102</v>
       </c>
@@ -7116,8 +8183,11 @@
       <c r="D45" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>126</v>
       </c>
@@ -7127,8 +8197,11 @@
       <c r="D46" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>131</v>
       </c>
@@ -7138,8 +8211,11 @@
       <c r="D47" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>129</v>
       </c>
@@ -7149,8 +8225,11 @@
       <c r="D48" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>134</v>
       </c>
@@ -7160,8 +8239,11 @@
       <c r="D49" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>136</v>
       </c>
@@ -7171,8 +8253,11 @@
       <c r="D50" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>138</v>
       </c>
@@ -7182,8 +8267,11 @@
       <c r="D51" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>105</v>
       </c>
@@ -7193,8 +8281,11 @@
       <c r="D52" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>120</v>
       </c>
@@ -7204,8 +8295,11 @@
       <c r="D53" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>123</v>
       </c>
@@ -7215,8 +8309,11 @@
       <c r="D54" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>261</v>
       </c>
@@ -7229,8 +8326,11 @@
       <c r="D55" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>189</v>
       </c>
@@ -7240,8 +8340,11 @@
       <c r="D56" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>195</v>
       </c>
@@ -7251,8 +8354,11 @@
       <c r="D57" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>201</v>
       </c>
@@ -7262,8 +8368,11 @@
       <c r="D58" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>192</v>
       </c>
@@ -7273,8 +8382,11 @@
       <c r="D59" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>278</v>
       </c>
@@ -7284,8 +8396,11 @@
       <c r="D60" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>479</v>
       </c>
@@ -7295,8 +8410,11 @@
       <c r="D61" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>737</v>
       </c>
@@ -7306,8 +8424,11 @@
       <c r="D62" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>324</v>
       </c>
@@ -7317,8 +8438,11 @@
       <c r="D63" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>241</v>
       </c>
@@ -7328,8 +8452,11 @@
       <c r="D64" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>733</v>
       </c>
@@ -7339,8 +8466,11 @@
       <c r="D65" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>595</v>
       </c>
@@ -7350,8 +8480,11 @@
       <c r="D66" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>729</v>
       </c>
@@ -7361,8 +8494,11 @@
       <c r="D67" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>272</v>
       </c>
@@ -7372,8 +8508,11 @@
       <c r="D68" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>487</v>
       </c>
@@ -7383,8 +8522,11 @@
       <c r="D69" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>475</v>
       </c>
@@ -7394,8 +8536,11 @@
       <c r="D70" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>453</v>
       </c>
@@ -7405,8 +8550,11 @@
       <c r="D71" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>441</v>
       </c>
@@ -7416,8 +8564,11 @@
       <c r="D72" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>363</v>
       </c>
@@ -7427,8 +8578,11 @@
       <c r="D73" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>148</v>
       </c>
@@ -7438,8 +8592,11 @@
       <c r="D74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>150</v>
       </c>
@@ -7449,8 +8606,11 @@
       <c r="D75" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>244</v>
       </c>
@@ -7460,8 +8620,11 @@
       <c r="D76" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>142</v>
       </c>
@@ -7471,8 +8634,11 @@
       <c r="D77" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>145</v>
       </c>
@@ -7482,8 +8648,11 @@
       <c r="D78" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>234</v>
       </c>
@@ -7493,8 +8662,11 @@
       <c r="D79" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>186</v>
       </c>
@@ -7504,8 +8676,11 @@
       <c r="D80" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>237</v>
       </c>
@@ -7515,8 +8690,11 @@
       <c r="D81" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>180</v>
       </c>
@@ -7526,8 +8704,11 @@
       <c r="D82" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>183</v>
       </c>
@@ -7537,8 +8718,11 @@
       <c r="D83" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>239</v>
       </c>
@@ -7548,8 +8732,11 @@
       <c r="D84" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>222</v>
       </c>
@@ -7559,8 +8746,11 @@
       <c r="D85" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>216</v>
       </c>
@@ -7570,8 +8760,11 @@
       <c r="D86" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>256</v>
       </c>
@@ -7581,8 +8774,11 @@
       <c r="D87" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>153</v>
       </c>
@@ -7592,8 +8788,11 @@
       <c r="D88" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>158</v>
       </c>
@@ -7603,8 +8802,11 @@
       <c r="D89" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>156</v>
       </c>
@@ -7614,8 +8816,11 @@
       <c r="D90" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>161</v>
       </c>
@@ -7625,8 +8830,11 @@
       <c r="D91" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>163</v>
       </c>
@@ -7636,8 +8844,11 @@
       <c r="D92" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>166</v>
       </c>
@@ -7647,8 +8858,11 @@
       <c r="D93" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>168</v>
       </c>
@@ -7658,8 +8872,11 @@
       <c r="D94" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>170</v>
       </c>
@@ -7669,8 +8886,11 @@
       <c r="D95" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>172</v>
       </c>
@@ -7680,8 +8900,11 @@
       <c r="D96" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>258</v>
       </c>
@@ -7691,8 +8914,11 @@
       <c r="D97" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>247</v>
       </c>
@@ -7702,8 +8928,11 @@
       <c r="D98" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>250</v>
       </c>
@@ -7713,8 +8942,11 @@
       <c r="D99" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>253</v>
       </c>
@@ -7724,8 +8956,11 @@
       <c r="D100" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>213</v>
       </c>
@@ -7735,8 +8970,11 @@
       <c r="D101" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>210</v>
       </c>
@@ -7746,8 +8984,11 @@
       <c r="D102" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>225</v>
       </c>
@@ -7757,8 +8998,11 @@
       <c r="D103" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>231</v>
       </c>
@@ -7768,8 +9012,11 @@
       <c r="D104" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>228</v>
       </c>
@@ -7779,8 +9026,11 @@
       <c r="D105" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>207</v>
       </c>
@@ -7790,8 +9040,11 @@
       <c r="D106" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>204</v>
       </c>
@@ -7801,8 +9054,11 @@
       <c r="D107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>219</v>
       </c>
@@ -7812,8 +9068,11 @@
       <c r="D108" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>177</v>
       </c>
@@ -7823,8 +9082,11 @@
       <c r="D109" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>174</v>
       </c>
@@ -7834,8 +9096,11 @@
       <c r="D110" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -7848,8 +9113,11 @@
       <c r="D111" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>404</v>
       </c>
@@ -7859,8 +9127,11 @@
       <c r="D112" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>591</v>
       </c>
@@ -7870,8 +9141,11 @@
       <c r="D113" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>631</v>
       </c>
@@ -7881,8 +9155,11 @@
       <c r="D114" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>574</v>
       </c>
@@ -7892,8 +9169,11 @@
       <c r="D115" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>513</v>
       </c>
@@ -7903,8 +9183,11 @@
       <c r="D116" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>449</v>
       </c>
@@ -7914,8 +9197,11 @@
       <c r="D117" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>508</v>
       </c>
@@ -7925,8 +9211,11 @@
       <c r="D118" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>1</v>
       </c>
@@ -7936,8 +9225,11 @@
       <c r="D119" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>10</v>
       </c>
@@ -7947,8 +9239,11 @@
       <c r="D120" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>13</v>
       </c>
@@ -7958,8 +9253,11 @@
       <c r="D121" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>3</v>
       </c>
@@ -7969,8 +9267,11 @@
       <c r="D122" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>16</v>
       </c>
@@ -7980,8 +9281,11 @@
       <c r="D123" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>19</v>
       </c>
@@ -7991,8 +9295,11 @@
       <c r="D124" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>22</v>
       </c>
@@ -8002,8 +9309,11 @@
       <c r="D125" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>25</v>
       </c>
@@ -8013,8 +9323,11 @@
       <c r="D126" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>741</v>
       </c>
@@ -8027,8 +9340,11 @@
       <c r="D127" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>746</v>
       </c>
@@ -8041,8 +9357,11 @@
       <c r="D128" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>282</v>
       </c>
@@ -8052,8 +9371,11 @@
       <c r="D129" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>649</v>
       </c>
@@ -8063,8 +9385,11 @@
       <c r="D130" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>523</v>
       </c>
@@ -8074,8 +9399,11 @@
       <c r="D131" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>725</v>
       </c>
@@ -8085,8 +9413,11 @@
       <c r="D132" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>471</v>
       </c>
@@ -8096,8 +9427,11 @@
       <c r="D133" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>671</v>
       </c>
@@ -8107,8 +9441,11 @@
       <c r="D134" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>445</v>
       </c>
@@ -8118,8 +9455,11 @@
       <c r="D135" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>687</v>
       </c>
@@ -8129,8 +9469,11 @@
       <c r="D136" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>375</v>
       </c>
@@ -8140,8 +9483,11 @@
       <c r="D137" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>466</v>
       </c>
@@ -8151,8 +9497,11 @@
       <c r="D138" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>437</v>
       </c>
@@ -8162,8 +9511,11 @@
       <c r="D139" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>744</v>
       </c>
@@ -8176,8 +9528,11 @@
       <c r="D140" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>356</v>
       </c>
@@ -8187,8 +9542,11 @@
       <c r="D141" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>564</v>
       </c>
@@ -8198,8 +9556,11 @@
       <c r="D142" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>319</v>
       </c>
@@ -8209,8 +9570,11 @@
       <c r="D143" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>379</v>
       </c>
@@ -8220,8 +9584,11 @@
       <c r="D144" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>667</v>
       </c>
@@ -8231,8 +9598,11 @@
       <c r="D145" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>383</v>
       </c>
@@ -8242,8 +9612,11 @@
       <c r="D146" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>747</v>
       </c>
@@ -8256,8 +9629,11 @@
       <c r="D147" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>583</v>
       </c>
@@ -8267,8 +9643,11 @@
       <c r="D148" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>587</v>
       </c>
@@ -8278,8 +9657,11 @@
       <c r="D149" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>500</v>
       </c>
@@ -8289,8 +9671,11 @@
       <c r="D150" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>388</v>
       </c>
@@ -8300,8 +9685,11 @@
       <c r="D151" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>547</v>
       </c>
@@ -8311,8 +9699,11 @@
       <c r="D152" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>604</v>
       </c>
@@ -8322,8 +9713,11 @@
       <c r="D153" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>662</v>
       </c>
@@ -8333,8 +9727,11 @@
       <c r="D154" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>691</v>
       </c>
@@ -8344,8 +9741,11 @@
       <c r="D155" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>708</v>
       </c>
@@ -8355,8 +9755,11 @@
       <c r="D156" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>675</v>
       </c>
@@ -8366,8 +9769,11 @@
       <c r="D157" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>720</v>
       </c>
@@ -8377,8 +9783,11 @@
       <c r="D158" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>745</v>
       </c>
@@ -8391,8 +9800,11 @@
       <c r="D159" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>496</v>
       </c>
@@ -8402,8 +9814,11 @@
       <c r="D160" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>636</v>
       </c>
@@ -8413,8 +9828,11 @@
       <c r="D161" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>551</v>
       </c>
@@ -8424,8 +9842,11 @@
       <c r="D162" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>543</v>
       </c>
@@ -8435,8 +9856,11 @@
       <c r="D163" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>423</v>
       </c>
@@ -8446,8 +9870,11 @@
       <c r="D164" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>683</v>
       </c>
@@ -8457,8 +9884,11 @@
       <c r="D165" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>742</v>
       </c>
@@ -8471,8 +9901,11 @@
       <c r="D166" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>569</v>
       </c>
@@ -8482,8 +9915,11 @@
       <c r="D167" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>527</v>
       </c>
@@ -8493,8 +9929,11 @@
       <c r="D168" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>600</v>
       </c>
@@ -8504,8 +9943,11 @@
       <c r="D169" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>535</v>
       </c>
@@ -8515,8 +9957,11 @@
       <c r="D170" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>531</v>
       </c>
@@ -8526,8 +9971,11 @@
       <c r="D171" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>336</v>
       </c>
@@ -8537,8 +9985,11 @@
       <c r="D172" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>298</v>
       </c>
@@ -8548,8 +9999,11 @@
       <c r="D173" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>409</v>
       </c>
@@ -8559,8 +10013,11 @@
       <c r="D174" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>621</v>
       </c>
@@ -8570,8 +10027,11 @@
       <c r="D175" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>317</v>
       </c>
@@ -8581,8 +10041,11 @@
       <c r="D176" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E176" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>645</v>
       </c>
@@ -8592,8 +10055,11 @@
       <c r="D177" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E177" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>308</v>
       </c>
@@ -8603,8 +10069,11 @@
       <c r="D178" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E178" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>351</v>
       </c>
@@ -8614,8 +10083,11 @@
       <c r="D179" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E179" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>428</v>
       </c>
@@ -8625,8 +10097,11 @@
       <c r="D180" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E180" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>341</v>
       </c>
@@ -8636,8 +10111,11 @@
       <c r="D181" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E181" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>287</v>
       </c>
@@ -8647,8 +10125,11 @@
       <c r="D182" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E182" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>331</v>
       </c>
@@ -8658,8 +10139,11 @@
       <c r="D183" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E183" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>293</v>
       </c>
@@ -8669,8 +10153,11 @@
       <c r="D184" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E184" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>393</v>
       </c>
@@ -8680,8 +10167,11 @@
       <c r="D185" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E185" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>326</v>
       </c>
@@ -8691,8 +10181,11 @@
       <c r="D186" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E186" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>346</v>
       </c>
@@ -8702,8 +10195,11 @@
       <c r="D187" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E187" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>303</v>
       </c>
@@ -8713,8 +10209,11 @@
       <c r="D188" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E188" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>399</v>
       </c>
@@ -8724,8 +10223,11 @@
       <c r="D189" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E189" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>658</v>
       </c>
@@ -8735,8 +10237,11 @@
       <c r="D190" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E190" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>653</v>
       </c>
@@ -8746,8 +10251,11 @@
       <c r="D191" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E191" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>608</v>
       </c>
@@ -8757,8 +10265,11 @@
       <c r="D192" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>483</v>
       </c>
@@ -8768,8 +10279,11 @@
       <c r="D193" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>461</v>
       </c>
@@ -8779,8 +10293,11 @@
       <c r="D194" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>539</v>
       </c>
@@ -8790,8 +10307,11 @@
       <c r="D195" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>371</v>
       </c>
@@ -8801,8 +10321,11 @@
       <c r="D196" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>743</v>
       </c>
@@ -8815,8 +10338,11 @@
       <c r="D197" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>716</v>
       </c>
@@ -8826,8 +10352,11 @@
       <c r="D198" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>432</v>
       </c>
@@ -8837,8 +10366,11 @@
       <c r="D199" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>612</v>
       </c>
@@ -8848,8 +10380,11 @@
       <c r="D200" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>712</v>
       </c>
@@ -8859,8 +10394,11 @@
       <c r="D201" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>749</v>
       </c>
@@ -8873,8 +10411,11 @@
       <c r="D202" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>762</v>
       </c>
@@ -8884,8 +10425,11 @@
       <c r="D203" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>766</v>
       </c>
@@ -8895,8 +10439,11 @@
       <c r="D204" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>765</v>
       </c>
@@ -8906,8 +10453,11 @@
       <c r="D205" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>763</v>
       </c>
@@ -8917,8 +10467,11 @@
       <c r="D206" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>764</v>
       </c>
@@ -8927,6 +10480,9 @@
       </c>
       <c r="D207" t="s">
         <v>755</v>
+      </c>
+      <c r="E207" t="s">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -8937,10 +10493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28873CF9-E3BC-49B1-B081-ECDB2863C8AA}">
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8950,7 +10506,7 @@
     <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -8963,8 +10519,11 @@
       <c r="D1" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>282</v>
       </c>
@@ -8977,8 +10536,11 @@
       <c r="D2" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>375</v>
       </c>
@@ -8991,8 +10553,11 @@
       <c r="D3" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>437</v>
       </c>
@@ -9005,8 +10570,11 @@
       <c r="D4" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>445</v>
       </c>
@@ -9019,8 +10587,11 @@
       <c r="D5" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>466</v>
       </c>
@@ -9033,8 +10604,11 @@
       <c r="D6" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>471</v>
       </c>
@@ -9047,8 +10621,11 @@
       <c r="D7" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>523</v>
       </c>
@@ -9061,8 +10638,11 @@
       <c r="D8" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>559</v>
       </c>
@@ -9075,8 +10655,11 @@
       <c r="D9" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>649</v>
       </c>
@@ -9089,8 +10672,11 @@
       <c r="D10" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>671</v>
       </c>
@@ -9103,8 +10689,11 @@
       <c r="D11" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>687</v>
       </c>
@@ -9117,8 +10706,11 @@
       <c r="D12" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>725</v>
       </c>
@@ -9131,8 +10723,11 @@
       <c r="D13" s="6" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>383</v>
       </c>
@@ -9145,8 +10740,11 @@
       <c r="D14" s="6" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>313</v>
       </c>
@@ -9157,8 +10755,11 @@
       <c r="D15" s="6" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>319</v>
       </c>
@@ -9171,8 +10772,11 @@
       <c r="D16" s="6" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>356</v>
       </c>
@@ -9183,8 +10787,9 @@
       <c r="D17" s="6" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>379</v>
       </c>
@@ -9197,8 +10802,11 @@
       <c r="D18" s="6" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>667</v>
       </c>
@@ -9211,8 +10819,11 @@
       <c r="D19" s="6" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>564</v>
       </c>
@@ -9225,8 +10836,11 @@
       <c r="D20" s="6" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -9239,8 +10853,11 @@
       <c r="D21" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -9253,8 +10870,11 @@
       <c r="D22" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -9267,8 +10887,11 @@
       <c r="D23" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
@@ -9281,8 +10904,11 @@
       <c r="D24" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
@@ -9295,8 +10921,11 @@
       <c r="D25" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -9309,8 +10938,11 @@
       <c r="D26" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -9323,8 +10955,11 @@
       <c r="D27" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -9337,8 +10972,11 @@
       <c r="D28" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -9351,8 +10989,11 @@
       <c r="D29" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -9365,8 +11006,11 @@
       <c r="D30" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
@@ -9379,8 +11023,11 @@
       <c r="D31" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
@@ -9393,8 +11040,9 @@
       <c r="D32" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>65</v>
       </c>
@@ -9407,8 +11055,11 @@
       <c r="D33" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>68</v>
       </c>
@@ -9421,8 +11072,11 @@
       <c r="D34" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
@@ -9435,8 +11089,11 @@
       <c r="D35" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
@@ -9449,8 +11106,11 @@
       <c r="D36" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>77</v>
       </c>
@@ -9463,8 +11123,11 @@
       <c r="D37" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -9477,8 +11140,11 @@
       <c r="D38" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>83</v>
       </c>
@@ -9491,8 +11157,11 @@
       <c r="D39" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>517</v>
       </c>
@@ -9505,8 +11174,11 @@
       <c r="D40" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>626</v>
       </c>
@@ -9519,8 +11191,11 @@
       <c r="D41" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>699</v>
       </c>
@@ -9533,8 +11208,11 @@
       <c r="D42" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>704</v>
       </c>
@@ -9547,8 +11225,11 @@
       <c r="D43" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>87</v>
       </c>
@@ -9561,8 +11242,11 @@
       <c r="D44" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>90</v>
       </c>
@@ -9575,8 +11259,11 @@
       <c r="D45" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
@@ -9589,8 +11276,11 @@
       <c r="D46" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>96</v>
       </c>
@@ -9603,8 +11293,11 @@
       <c r="D47" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>99</v>
       </c>
@@ -9617,8 +11310,11 @@
       <c r="D48" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>102</v>
       </c>
@@ -9631,8 +11327,11 @@
       <c r="D49" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>105</v>
       </c>
@@ -9645,8 +11344,11 @@
       <c r="D50" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>108</v>
       </c>
@@ -9659,8 +11361,11 @@
       <c r="D51" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>111</v>
       </c>
@@ -9673,8 +11378,11 @@
       <c r="D52" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>114</v>
       </c>
@@ -9687,8 +11395,11 @@
       <c r="D53" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>117</v>
       </c>
@@ -9701,8 +11412,11 @@
       <c r="D54" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>120</v>
       </c>
@@ -9715,8 +11429,11 @@
       <c r="D55" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>123</v>
       </c>
@@ -9729,8 +11446,11 @@
       <c r="D56" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>126</v>
       </c>
@@ -9743,8 +11463,11 @@
       <c r="D57" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>129</v>
       </c>
@@ -9757,8 +11480,11 @@
       <c r="D58" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>131</v>
       </c>
@@ -9771,8 +11497,11 @@
       <c r="D59" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="6" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>134</v>
       </c>
@@ -9785,8 +11514,11 @@
       <c r="D60" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" s="6" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>136</v>
       </c>
@@ -9799,8 +11531,11 @@
       <c r="D61" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>138</v>
       </c>
@@ -9813,8 +11548,11 @@
       <c r="D62" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>358</v>
       </c>
@@ -9827,8 +11565,11 @@
       <c r="D63" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>414</v>
       </c>
@@ -9841,8 +11582,11 @@
       <c r="D64" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>419</v>
       </c>
@@ -9855,8 +11599,11 @@
       <c r="D65" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>457</v>
       </c>
@@ -9869,8 +11616,11 @@
       <c r="D66" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>555</v>
       </c>
@@ -9883,8 +11633,11 @@
       <c r="D67" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>617</v>
       </c>
@@ -9897,8 +11650,11 @@
       <c r="D68" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>641</v>
       </c>
@@ -9911,8 +11667,11 @@
       <c r="D69" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>679</v>
       </c>
@@ -9925,8 +11684,11 @@
       <c r="D70" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>695</v>
       </c>
@@ -9939,8 +11701,11 @@
       <c r="D71" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>142</v>
       </c>
@@ -9953,8 +11718,11 @@
       <c r="D72" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>145</v>
       </c>
@@ -9967,8 +11735,11 @@
       <c r="D73" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>148</v>
       </c>
@@ -9981,8 +11752,11 @@
       <c r="D74" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>150</v>
       </c>
@@ -9995,8 +11769,11 @@
       <c r="D75" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>153</v>
       </c>
@@ -10009,8 +11786,11 @@
       <c r="D76" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>156</v>
       </c>
@@ -10023,8 +11803,11 @@
       <c r="D77" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>158</v>
       </c>
@@ -10037,8 +11820,11 @@
       <c r="D78" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>161</v>
       </c>
@@ -10051,8 +11837,11 @@
       <c r="D79" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>163</v>
       </c>
@@ -10065,8 +11854,11 @@
       <c r="D80" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>166</v>
       </c>
@@ -10079,8 +11871,11 @@
       <c r="D81" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>168</v>
       </c>
@@ -10093,8 +11888,11 @@
       <c r="D82" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>170</v>
       </c>
@@ -10107,8 +11905,11 @@
       <c r="D83" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>172</v>
       </c>
@@ -10121,8 +11922,11 @@
       <c r="D84" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>174</v>
       </c>
@@ -10135,8 +11939,11 @@
       <c r="D85" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>177</v>
       </c>
@@ -10149,8 +11956,11 @@
       <c r="D86" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>180</v>
       </c>
@@ -10163,8 +11973,11 @@
       <c r="D87" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>183</v>
       </c>
@@ -10177,8 +11990,11 @@
       <c r="D88" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>186</v>
       </c>
@@ -10191,8 +12007,11 @@
       <c r="D89" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>189</v>
       </c>
@@ -10205,8 +12024,11 @@
       <c r="D90" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>192</v>
       </c>
@@ -10219,8 +12041,11 @@
       <c r="D91" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>195</v>
       </c>
@@ -10233,8 +12058,11 @@
       <c r="D92" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>198</v>
       </c>
@@ -10247,8 +12075,11 @@
       <c r="D93" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>201</v>
       </c>
@@ -10261,8 +12092,11 @@
       <c r="D94" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>204</v>
       </c>
@@ -10275,8 +12109,11 @@
       <c r="D95" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>207</v>
       </c>
@@ -10289,8 +12126,11 @@
       <c r="D96" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>210</v>
       </c>
@@ -10303,8 +12143,11 @@
       <c r="D97" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" s="6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>213</v>
       </c>
@@ -10317,8 +12160,11 @@
       <c r="D98" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>216</v>
       </c>
@@ -10331,8 +12177,11 @@
       <c r="D99" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" s="6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>219</v>
       </c>
@@ -10345,8 +12194,11 @@
       <c r="D100" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>222</v>
       </c>
@@ -10359,8 +12211,11 @@
       <c r="D101" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" s="6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>225</v>
       </c>
@@ -10373,8 +12228,11 @@
       <c r="D102" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>228</v>
       </c>
@@ -10387,8 +12245,11 @@
       <c r="D103" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>231</v>
       </c>
@@ -10401,8 +12262,11 @@
       <c r="D104" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>234</v>
       </c>
@@ -10415,8 +12279,11 @@
       <c r="D105" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>237</v>
       </c>
@@ -10429,8 +12296,11 @@
       <c r="D106" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>239</v>
       </c>
@@ -10443,8 +12313,11 @@
       <c r="D107" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>241</v>
       </c>
@@ -10457,8 +12330,11 @@
       <c r="D108" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>244</v>
       </c>
@@ -10471,8 +12347,11 @@
       <c r="D109" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>247</v>
       </c>
@@ -10485,8 +12364,11 @@
       <c r="D110" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>250</v>
       </c>
@@ -10499,8 +12381,11 @@
       <c r="D111" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>253</v>
       </c>
@@ -10513,8 +12398,11 @@
       <c r="D112" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>256</v>
       </c>
@@ -10527,8 +12415,11 @@
       <c r="D113" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" s="6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>258</v>
       </c>
@@ -10541,8 +12432,11 @@
       <c r="D114" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>272</v>
       </c>
@@ -10555,8 +12449,11 @@
       <c r="D115" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>278</v>
       </c>
@@ -10569,8 +12466,11 @@
       <c r="D116" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>324</v>
       </c>
@@ -10581,8 +12481,9 @@
       <c r="D117" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>363</v>
       </c>
@@ -10595,8 +12496,11 @@
       <c r="D118" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>475</v>
       </c>
@@ -10609,8 +12513,11 @@
       <c r="D119" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>479</v>
       </c>
@@ -10623,8 +12530,11 @@
       <c r="D120" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>487</v>
       </c>
@@ -10637,8 +12547,11 @@
       <c r="D121" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>595</v>
       </c>
@@ -10651,8 +12564,11 @@
       <c r="D122" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>729</v>
       </c>
@@ -10665,8 +12581,11 @@
       <c r="D123" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>733</v>
       </c>
@@ -10679,8 +12598,11 @@
       <c r="D124" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>737</v>
       </c>
@@ -10693,8 +12615,11 @@
       <c r="D125" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>441</v>
       </c>
@@ -10707,8 +12632,11 @@
       <c r="D126" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>453</v>
       </c>
@@ -10721,8 +12649,11 @@
       <c r="D127" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>388</v>
       </c>
@@ -10735,8 +12666,11 @@
       <c r="D128" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>500</v>
       </c>
@@ -10749,8 +12683,11 @@
       <c r="D129" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>504</v>
       </c>
@@ -10763,8 +12700,11 @@
       <c r="D130" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>547</v>
       </c>
@@ -10777,8 +12717,11 @@
       <c r="D131" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>583</v>
       </c>
@@ -10791,8 +12734,11 @@
       <c r="D132" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>587</v>
       </c>
@@ -10805,8 +12751,11 @@
       <c r="D133" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>604</v>
       </c>
@@ -10819,8 +12768,11 @@
       <c r="D134" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>662</v>
       </c>
@@ -10833,8 +12785,11 @@
       <c r="D135" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>675</v>
       </c>
@@ -10847,8 +12802,11 @@
       <c r="D136" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>691</v>
       </c>
@@ -10861,8 +12819,11 @@
       <c r="D137" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>708</v>
       </c>
@@ -10875,8 +12836,11 @@
       <c r="D138" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>720</v>
       </c>
@@ -10889,8 +12853,11 @@
       <c r="D139" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>423</v>
       </c>
@@ -10903,8 +12870,11 @@
       <c r="D140" s="6" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>496</v>
       </c>
@@ -10917,8 +12887,11 @@
       <c r="D141" s="6" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>543</v>
       </c>
@@ -10931,8 +12904,11 @@
       <c r="D142" s="6" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>551</v>
       </c>
@@ -10945,8 +12921,11 @@
       <c r="D143" s="6" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>578</v>
       </c>
@@ -10959,8 +12938,11 @@
       <c r="D144" s="6" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>636</v>
       </c>
@@ -10973,8 +12955,11 @@
       <c r="D145" s="6" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>683</v>
       </c>
@@ -10987,8 +12972,11 @@
       <c r="D146" s="6" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>461</v>
       </c>
@@ -11001,8 +12989,11 @@
       <c r="D147" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>535</v>
       </c>
@@ -11015,8 +13006,11 @@
       <c r="D148" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>287</v>
       </c>
@@ -11029,8 +13023,11 @@
       <c r="D149" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>293</v>
       </c>
@@ -11043,8 +13040,11 @@
       <c r="D150" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>298</v>
       </c>
@@ -11057,8 +13057,11 @@
       <c r="D151" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>303</v>
       </c>
@@ -11071,8 +13074,11 @@
       <c r="D152" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>317</v>
       </c>
@@ -11085,8 +13091,11 @@
       <c r="D153" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>326</v>
       </c>
@@ -11099,8 +13108,11 @@
       <c r="D154" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>331</v>
       </c>
@@ -11113,8 +13125,11 @@
       <c r="D155" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>336</v>
       </c>
@@ -11127,8 +13142,11 @@
       <c r="D156" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>341</v>
       </c>
@@ -11141,8 +13159,11 @@
       <c r="D157" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>346</v>
       </c>
@@ -11155,8 +13176,11 @@
       <c r="D158" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>351</v>
       </c>
@@ -11169,8 +13193,11 @@
       <c r="D159" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
         <v>367</v>
       </c>
@@ -11183,8 +13210,11 @@
       <c r="D160" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
         <v>371</v>
       </c>
@@ -11197,8 +13227,11 @@
       <c r="D161" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>399</v>
       </c>
@@ -11211,8 +13244,11 @@
       <c r="D162" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>409</v>
       </c>
@@ -11225,8 +13261,11 @@
       <c r="D163" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
         <v>428</v>
       </c>
@@ -11239,8 +13278,11 @@
       <c r="D164" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>483</v>
       </c>
@@ -11253,8 +13295,11 @@
       <c r="D165" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
         <v>527</v>
       </c>
@@ -11267,8 +13312,11 @@
       <c r="D166" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
         <v>531</v>
       </c>
@@ -11281,8 +13329,11 @@
       <c r="D167" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
         <v>539</v>
       </c>
@@ -11295,8 +13346,11 @@
       <c r="D168" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>569</v>
       </c>
@@ -11309,8 +13363,11 @@
       <c r="D169" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
         <v>600</v>
       </c>
@@ -11323,8 +13380,11 @@
       <c r="D170" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>608</v>
       </c>
@@ -11337,8 +13397,11 @@
       <c r="D171" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>621</v>
       </c>
@@ -11351,8 +13414,11 @@
       <c r="D172" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>645</v>
       </c>
@@ -11365,8 +13431,11 @@
       <c r="D173" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>653</v>
       </c>
@@ -11379,8 +13448,11 @@
       <c r="D174" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>658</v>
       </c>
@@ -11393,8 +13465,11 @@
       <c r="D175" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
         <v>393</v>
       </c>
@@ -11407,8 +13482,11 @@
       <c r="D176" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>308</v>
       </c>
@@ -11421,8 +13499,11 @@
       <c r="D177" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>432</v>
       </c>
@@ -11435,8 +13516,11 @@
       <c r="D178" s="6" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>491</v>
       </c>
@@ -11449,8 +13533,11 @@
       <c r="D179" s="6" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>612</v>
       </c>
@@ -11463,8 +13550,11 @@
       <c r="D180" s="6" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>712</v>
       </c>
@@ -11477,8 +13567,11 @@
       <c r="D181" s="6" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
         <v>716</v>
       </c>
@@ -11491,8 +13584,11 @@
       <c r="D182" s="6" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>404</v>
       </c>
@@ -11505,8 +13601,11 @@
       <c r="D183" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
         <v>449</v>
       </c>
@@ -11519,8 +13618,11 @@
       <c r="D184" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>508</v>
       </c>
@@ -11533,8 +13635,11 @@
       <c r="D185" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>513</v>
       </c>
@@ -11547,8 +13652,11 @@
       <c r="D186" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>574</v>
       </c>
@@ -11561,8 +13669,11 @@
       <c r="D187" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
         <v>591</v>
       </c>
@@ -11575,8 +13686,11 @@
       <c r="D188" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>631</v>
       </c>
@@ -11589,8 +13703,11 @@
       <c r="D189" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>3</v>
       </c>
@@ -11603,8 +13720,11 @@
       <c r="D190" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>6</v>
       </c>
@@ -11617,8 +13737,11 @@
       <c r="D191" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>1</v>
       </c>
@@ -11631,8 +13754,11 @@
       <c r="D192" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>10</v>
       </c>
@@ -11645,8 +13771,11 @@
       <c r="D193" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>13</v>
       </c>
@@ -11659,8 +13788,11 @@
       <c r="D194" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194" s="6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>16</v>
       </c>
@@ -11673,8 +13805,11 @@
       <c r="D195" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>19</v>
       </c>
@@ -11687,8 +13822,11 @@
       <c r="D196" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>22</v>
       </c>
@@ -11701,8 +13839,11 @@
       <c r="D197" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>25</v>
       </c>
@@ -11715,8 +13856,11 @@
       <c r="D198" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>761</v>
       </c>
@@ -11729,8 +13873,11 @@
       <c r="D199" s="6" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>762</v>
       </c>
@@ -11743,8 +13890,11 @@
       <c r="D200" s="6" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>763</v>
       </c>
@@ -11757,8 +13907,11 @@
       <c r="D201" s="6" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>764</v>
       </c>
@@ -11771,8 +13924,11 @@
       <c r="D202" s="6" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>765</v>
       </c>
@@ -11785,8 +13941,11 @@
       <c r="D203" s="6" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>766</v>
       </c>
@@ -11798,6 +13957,9 @@
       </c>
       <c r="D204" s="6" t="s">
         <v>749</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>835</v>
       </c>
     </row>
   </sheetData>

--- a/PARC RZB (version 1).xlsx
+++ b/PARC RZB (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthur.cahn\OneDrive - Groupe Exedra\Bureau\App-Parc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1D2ECA-E7A9-42BD-957A-F092EFEFA2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163ED039-152A-455C-B18B-43FBE9E3A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16380" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{3DFD6CFB-0C71-4847-AAE3-4AD380DC4CBE}"/>
+    <workbookView xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{3DFD6CFB-0C71-4847-AAE3-4AD380DC4CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId4"/>
+    <pivotCache cacheId="47" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5189,7 +5189,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{707FFB0E-8043-422D-8EFF-1A98332A3456}" name="Tableau croisé dynamique1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{707FFB0E-8043-422D-8EFF-1A98332A3456}" name="Tableau croisé dynamique1" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E207" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -7565,8 +7565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E45F6B-D5AA-4ADC-B642-F466751D8267}">
   <dimension ref="A3:E207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10495,8 +10495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28873CF9-E3BC-49B1-B081-ECDB2863C8AA}">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13871,7 +13871,7 @@
         <v>750</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>830</v>
@@ -13888,7 +13888,7 @@
         <v>752</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>831</v>
@@ -13905,7 +13905,7 @@
         <v>754</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>832</v>
@@ -13922,7 +13922,7 @@
         <v>756</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>833</v>
@@ -13939,7 +13939,7 @@
         <v>758</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>834</v>
@@ -13956,7 +13956,7 @@
         <v>760</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>835</v>

--- a/PARC RZB (version 1).xlsx
+++ b/PARC RZB (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthur.cahn\OneDrive - Groupe Exedra\Bureau\App-Parc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163ED039-152A-455C-B18B-43FBE9E3A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDB35E4-82C9-408F-A345-DEB455816923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{3DFD6CFB-0C71-4847-AAE3-4AD380DC4CBE}"/>
+    <workbookView xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{3DFD6CFB-0C71-4847-AAE3-4AD380DC4CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="47" r:id="rId4"/>
+    <pivotCache cacheId="55" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="835">
   <si>
     <t>Libellé</t>
   </si>
@@ -2435,9 +2435,6 @@
   </si>
   <si>
     <t>H05102F FOURGON.MASTER.VIDEO.HYDROSCAN</t>
-  </si>
-  <si>
-    <t>EES</t>
   </si>
   <si>
     <t>VU26E</t>
@@ -2948,7 +2945,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CAHN Arthur" refreshedDate="46072.325333796296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="204" xr:uid="{18484A86-DCC2-4D65-BC82-DB4C1D235FBC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CAHN Arthur" refreshedDate="46072.422228009258" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="204" xr:uid="{18484A86-DCC2-4D65-BC82-DB4C1D235FBC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="Feuil1"/>
   </cacheSource>
@@ -3566,8 +3563,8 @@
         <s v="EMP"/>
         <s v="ESA"/>
         <s v="SST"/>
-        <s v="EES"/>
         <m/>
+        <s v="EES" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="IMMATRICULATION" numFmtId="0">
@@ -5140,56 +5137,56 @@
     <x v="197"/>
     <x v="178"/>
     <x v="194"/>
-    <x v="10"/>
+    <x v="0"/>
     <x v="166"/>
   </r>
   <r>
     <x v="198"/>
     <x v="179"/>
     <x v="195"/>
-    <x v="10"/>
+    <x v="0"/>
     <x v="167"/>
   </r>
   <r>
     <x v="199"/>
     <x v="180"/>
     <x v="196"/>
-    <x v="10"/>
+    <x v="0"/>
     <x v="168"/>
   </r>
   <r>
     <x v="200"/>
     <x v="181"/>
     <x v="197"/>
-    <x v="10"/>
+    <x v="0"/>
     <x v="169"/>
   </r>
   <r>
     <x v="201"/>
     <x v="182"/>
     <x v="198"/>
-    <x v="10"/>
+    <x v="0"/>
     <x v="170"/>
   </r>
   <r>
     <x v="202"/>
     <x v="183"/>
     <x v="199"/>
-    <x v="10"/>
+    <x v="0"/>
     <x v="171"/>
   </r>
   <r>
     <x v="203"/>
     <x v="184"/>
     <x v="13"/>
-    <x v="11"/>
+    <x v="10"/>
     <x v="15"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{707FFB0E-8043-422D-8EFF-1A98332A3456}" name="Tableau croisé dynamique1" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{707FFB0E-8043-422D-8EFF-1A98332A3456}" name="Tableau croisé dynamique1" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E207" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -5799,14 +5796,14 @@
         <item x="3"/>
         <item x="4"/>
         <item x="9"/>
-        <item x="11"/>
+        <item x="10"/>
         <item x="0"/>
         <item x="1"/>
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
-        <item x="10"/>
+        <item m="1" x="11"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
@@ -6763,6 +6760,12 @@
       <x v="101"/>
     </i>
     <i r="1">
+      <x v="28"/>
+      <x v="181"/>
+      <x v="179"/>
+      <x v="9"/>
+    </i>
+    <i r="1">
       <x v="38"/>
       <x v="77"/>
       <x v="128"/>
@@ -6805,6 +6808,12 @@
       <x v="46"/>
     </i>
     <i r="1">
+      <x v="89"/>
+      <x v="147"/>
+      <x v="180"/>
+      <x v="11"/>
+    </i>
+    <i r="1">
       <x v="96"/>
       <x v="64"/>
       <x v="115"/>
@@ -6815,6 +6824,30 @@
       <x v="57"/>
       <x v="108"/>
       <x v="108"/>
+    </i>
+    <i r="1">
+      <x v="142"/>
+      <x v="194"/>
+      <x v="184"/>
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="146"/>
+      <x v="191"/>
+      <x v="183"/>
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="147"/>
+      <x v="186"/>
+      <x v="181"/>
+      <x v="97"/>
+    </i>
+    <i r="1">
+      <x v="154"/>
+      <x v="185"/>
+      <x v="182"/>
+      <x v="35"/>
     </i>
     <i>
       <x v="6"/>
@@ -7192,43 +7225,6 @@
       <x v="121"/>
       <x v="172"/>
       <x v="144"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="28"/>
-      <x v="181"/>
-      <x v="179"/>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="89"/>
-      <x v="147"/>
-      <x v="180"/>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="142"/>
-      <x v="194"/>
-      <x v="184"/>
-      <x v="62"/>
-    </i>
-    <i r="1">
-      <x v="146"/>
-      <x v="191"/>
-      <x v="183"/>
-      <x v="52"/>
-    </i>
-    <i r="1">
-      <x v="147"/>
-      <x v="186"/>
-      <x v="181"/>
-      <x v="97"/>
-    </i>
-    <i r="1">
-      <x v="154"/>
-      <x v="185"/>
-      <x v="182"/>
-      <x v="35"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -7565,8 +7561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E45F6B-D5AA-4ADC-B642-F466751D8267}">
   <dimension ref="A3:E207"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7590,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -7607,7 +7603,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -7621,7 +7617,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -7649,7 +7645,7 @@
         <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -7663,7 +7659,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -7677,7 +7673,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -7691,7 +7687,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -7761,7 +7757,7 @@
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -7775,7 +7771,7 @@
         <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -7789,7 +7785,7 @@
         <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -7803,7 +7799,7 @@
         <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -7817,7 +7813,7 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -7831,7 +7827,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -7845,7 +7841,7 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -7859,7 +7855,7 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -7873,7 +7869,7 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -7887,7 +7883,7 @@
         <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -7901,7 +7897,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -7915,7 +7911,7 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -7932,7 +7928,7 @@
         <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -7946,7 +7942,7 @@
         <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -7960,7 +7956,7 @@
         <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -7974,7 +7970,7 @@
         <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -8114,7 +8110,7 @@
         <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -8128,7 +8124,7 @@
         <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -8142,7 +8138,7 @@
         <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
@@ -8156,7 +8152,7 @@
         <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -8170,7 +8166,7 @@
         <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -8184,7 +8180,7 @@
         <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -8198,7 +8194,7 @@
         <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -8212,7 +8208,7 @@
         <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -8226,7 +8222,7 @@
         <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -8240,7 +8236,7 @@
         <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -8254,7 +8250,7 @@
         <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -8268,7 +8264,7 @@
         <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -8282,7 +8278,7 @@
         <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -8296,7 +8292,7 @@
         <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -8310,7 +8306,7 @@
         <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -8327,7 +8323,7 @@
         <v>199</v>
       </c>
       <c r="E55" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -8341,7 +8337,7 @@
         <v>190</v>
       </c>
       <c r="E56" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -8355,7 +8351,7 @@
         <v>196</v>
       </c>
       <c r="E57" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -8369,7 +8365,7 @@
         <v>202</v>
       </c>
       <c r="E58" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -8383,7 +8379,7 @@
         <v>193</v>
       </c>
       <c r="E59" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -8453,7 +8449,7 @@
         <v>242</v>
       </c>
       <c r="E64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -8593,7 +8589,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
@@ -8607,7 +8603,7 @@
         <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
@@ -8621,7 +8617,7 @@
         <v>245</v>
       </c>
       <c r="E76" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
@@ -8635,7 +8631,7 @@
         <v>143</v>
       </c>
       <c r="E77" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
@@ -8649,7 +8645,7 @@
         <v>146</v>
       </c>
       <c r="E78" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
@@ -8663,7 +8659,7 @@
         <v>235</v>
       </c>
       <c r="E79" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
@@ -8677,7 +8673,7 @@
         <v>187</v>
       </c>
       <c r="E80" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
@@ -8691,7 +8687,7 @@
         <v>235</v>
       </c>
       <c r="E81" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
@@ -8705,7 +8701,7 @@
         <v>181</v>
       </c>
       <c r="E82" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
@@ -8719,7 +8715,7 @@
         <v>184</v>
       </c>
       <c r="E83" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
@@ -8733,7 +8729,7 @@
         <v>235</v>
       </c>
       <c r="E84" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
@@ -8747,7 +8743,7 @@
         <v>223</v>
       </c>
       <c r="E85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
@@ -8761,7 +8757,7 @@
         <v>217</v>
       </c>
       <c r="E86" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
@@ -8775,7 +8771,7 @@
         <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
@@ -8789,7 +8785,7 @@
         <v>154</v>
       </c>
       <c r="E88" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
@@ -8803,7 +8799,7 @@
         <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
@@ -8817,7 +8813,7 @@
         <v>154</v>
       </c>
       <c r="E90" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
@@ -8831,7 +8827,7 @@
         <v>159</v>
       </c>
       <c r="E91" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
@@ -8845,7 +8841,7 @@
         <v>164</v>
       </c>
       <c r="E92" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
@@ -8859,7 +8855,7 @@
         <v>164</v>
       </c>
       <c r="E93" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
@@ -8873,7 +8869,7 @@
         <v>164</v>
       </c>
       <c r="E94" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
@@ -8887,7 +8883,7 @@
         <v>164</v>
       </c>
       <c r="E95" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
@@ -8901,7 +8897,7 @@
         <v>164</v>
       </c>
       <c r="E96" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -8915,7 +8911,7 @@
         <v>259</v>
       </c>
       <c r="E97" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -8929,7 +8925,7 @@
         <v>248</v>
       </c>
       <c r="E98" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -8943,7 +8939,7 @@
         <v>251</v>
       </c>
       <c r="E99" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -8957,7 +8953,7 @@
         <v>254</v>
       </c>
       <c r="E100" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -8971,7 +8967,7 @@
         <v>214</v>
       </c>
       <c r="E101" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -8985,7 +8981,7 @@
         <v>211</v>
       </c>
       <c r="E102" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -8999,7 +8995,7 @@
         <v>226</v>
       </c>
       <c r="E103" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -9013,7 +9009,7 @@
         <v>232</v>
       </c>
       <c r="E104" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -9027,7 +9023,7 @@
         <v>229</v>
       </c>
       <c r="E105" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -9041,7 +9037,7 @@
         <v>208</v>
       </c>
       <c r="E106" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -9055,7 +9051,7 @@
         <v>205</v>
       </c>
       <c r="E107" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -9069,7 +9065,7 @@
         <v>220</v>
       </c>
       <c r="E108" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -9083,7 +9079,7 @@
         <v>178</v>
       </c>
       <c r="E109" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -9097,7 +9093,7 @@
         <v>175</v>
       </c>
       <c r="E110" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -9114,7 +9110,7 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -9226,7 +9222,7 @@
         <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -9240,7 +9236,7 @@
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -9254,7 +9250,7 @@
         <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -9268,7 +9264,7 @@
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -9282,7 +9278,7 @@
         <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -9296,7 +9292,7 @@
         <v>20</v>
       </c>
       <c r="E124" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -9310,7 +9306,7 @@
         <v>23</v>
       </c>
       <c r="E125" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -9324,7 +9320,7 @@
         <v>26</v>
       </c>
       <c r="E126" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -9361,7 +9357,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>282</v>
       </c>
@@ -9375,7 +9371,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>649</v>
       </c>
@@ -9389,1100 +9385,1097 @@
         <v>650</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
+        <v>760</v>
+      </c>
+      <c r="C131" t="s">
+        <v>749</v>
+      </c>
+      <c r="D131" t="s">
+        <v>748</v>
+      </c>
+      <c r="E131" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
         <v>523</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>525</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D132" t="s">
         <v>526</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E132" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
         <v>725</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>727</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" t="s">
         <v>728</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
         <v>471</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>473</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D134" t="s">
         <v>474</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E134" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
         <v>671</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>673</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
         <v>674</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E135" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
         <v>445</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>447</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D136" t="s">
         <v>448</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E136" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
         <v>687</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>689</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D137" t="s">
         <v>690</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E137" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
         <v>375</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>377</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D138" t="s">
         <v>285</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E138" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>761</v>
+      </c>
+      <c r="C139" t="s">
+        <v>751</v>
+      </c>
+      <c r="D139" t="s">
+        <v>750</v>
+      </c>
+      <c r="E139" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
         <v>466</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C140" t="s">
         <v>468</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D140" t="s">
         <v>469</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E140" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
         <v>437</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C141" t="s">
         <v>439</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D141" t="s">
         <v>440</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E141" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>744</v>
-      </c>
-      <c r="B140" t="s">
-        <v>313</v>
-      </c>
-      <c r="C140" t="s">
-        <v>741</v>
-      </c>
-      <c r="D140" t="s">
-        <v>315</v>
-      </c>
-      <c r="E140" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
-        <v>356</v>
-      </c>
-      <c r="C141" t="s">
-        <v>741</v>
-      </c>
-      <c r="D141" t="s">
-        <v>357</v>
-      </c>
-      <c r="E141" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>564</v>
+        <v>765</v>
       </c>
       <c r="C142" t="s">
-        <v>566</v>
+        <v>759</v>
       </c>
       <c r="D142" t="s">
-        <v>567</v>
+        <v>758</v>
       </c>
       <c r="E142" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>319</v>
+        <v>764</v>
       </c>
       <c r="C143" t="s">
-        <v>321</v>
+        <v>757</v>
       </c>
       <c r="D143" t="s">
-        <v>322</v>
+        <v>756</v>
       </c>
       <c r="E143" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>379</v>
+        <v>762</v>
       </c>
       <c r="C144" t="s">
-        <v>381</v>
+        <v>753</v>
       </c>
       <c r="D144" t="s">
-        <v>315</v>
+        <v>752</v>
       </c>
       <c r="E144" t="s">
-        <v>380</v>
+        <v>831</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>667</v>
+        <v>763</v>
       </c>
       <c r="C145" t="s">
-        <v>669</v>
+        <v>755</v>
       </c>
       <c r="D145" t="s">
-        <v>670</v>
+        <v>754</v>
       </c>
       <c r="E145" t="s">
-        <v>668</v>
+        <v>832</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>744</v>
+      </c>
       <c r="B146" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
       <c r="C146" t="s">
-        <v>385</v>
+        <v>741</v>
       </c>
       <c r="D146" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="E146" t="s">
-        <v>384</v>
+        <v>767</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>747</v>
-      </c>
       <c r="B147" t="s">
-        <v>504</v>
+        <v>356</v>
       </c>
       <c r="C147" t="s">
-        <v>506</v>
+        <v>741</v>
       </c>
       <c r="D147" t="s">
-        <v>507</v>
+        <v>357</v>
       </c>
       <c r="E147" t="s">
-        <v>505</v>
+        <v>741</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="C148" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="D148" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="E148" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>587</v>
+        <v>319</v>
       </c>
       <c r="C149" t="s">
-        <v>589</v>
+        <v>321</v>
       </c>
       <c r="D149" t="s">
-        <v>590</v>
+        <v>322</v>
       </c>
       <c r="E149" t="s">
-        <v>588</v>
+        <v>320</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C150" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="D150" t="s">
-        <v>503</v>
+        <v>315</v>
       </c>
       <c r="E150" t="s">
-        <v>501</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>388</v>
+        <v>667</v>
       </c>
       <c r="C151" t="s">
-        <v>390</v>
+        <v>669</v>
       </c>
       <c r="D151" t="s">
-        <v>391</v>
+        <v>670</v>
       </c>
       <c r="E151" t="s">
-        <v>389</v>
+        <v>668</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>547</v>
+        <v>383</v>
       </c>
       <c r="C152" t="s">
-        <v>549</v>
+        <v>385</v>
       </c>
       <c r="D152" t="s">
-        <v>550</v>
+        <v>386</v>
       </c>
       <c r="E152" t="s">
-        <v>548</v>
+        <v>384</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>747</v>
+      </c>
       <c r="B153" t="s">
-        <v>604</v>
+        <v>504</v>
       </c>
       <c r="C153" t="s">
-        <v>606</v>
+        <v>506</v>
       </c>
       <c r="D153" t="s">
-        <v>607</v>
+        <v>507</v>
       </c>
       <c r="E153" t="s">
-        <v>605</v>
+        <v>505</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>662</v>
+        <v>583</v>
       </c>
       <c r="C154" t="s">
-        <v>664</v>
+        <v>585</v>
       </c>
       <c r="D154" t="s">
-        <v>665</v>
+        <v>586</v>
       </c>
       <c r="E154" t="s">
-        <v>663</v>
+        <v>584</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>691</v>
+        <v>587</v>
       </c>
       <c r="C155" t="s">
-        <v>693</v>
+        <v>589</v>
       </c>
       <c r="D155" t="s">
-        <v>694</v>
+        <v>590</v>
       </c>
       <c r="E155" t="s">
-        <v>692</v>
+        <v>588</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>708</v>
+        <v>500</v>
       </c>
       <c r="C156" t="s">
-        <v>710</v>
+        <v>502</v>
       </c>
       <c r="D156" t="s">
-        <v>711</v>
+        <v>503</v>
       </c>
       <c r="E156" t="s">
-        <v>709</v>
+        <v>501</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>675</v>
+        <v>388</v>
       </c>
       <c r="C157" t="s">
-        <v>677</v>
+        <v>390</v>
       </c>
       <c r="D157" t="s">
-        <v>678</v>
+        <v>391</v>
       </c>
       <c r="E157" t="s">
-        <v>676</v>
+        <v>389</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>720</v>
+        <v>547</v>
       </c>
       <c r="C158" t="s">
-        <v>722</v>
+        <v>549</v>
       </c>
       <c r="D158" t="s">
-        <v>723</v>
+        <v>550</v>
       </c>
       <c r="E158" t="s">
-        <v>721</v>
+        <v>548</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>745</v>
-      </c>
       <c r="B159" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="C159" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="D159" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="E159" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>496</v>
+        <v>662</v>
       </c>
       <c r="C160" t="s">
-        <v>498</v>
+        <v>664</v>
       </c>
       <c r="D160" t="s">
-        <v>499</v>
+        <v>665</v>
       </c>
       <c r="E160" t="s">
-        <v>497</v>
+        <v>663</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>636</v>
+        <v>691</v>
       </c>
       <c r="C161" t="s">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="D161" t="s">
-        <v>639</v>
+        <v>694</v>
       </c>
       <c r="E161" t="s">
-        <v>637</v>
+        <v>692</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>551</v>
+        <v>708</v>
       </c>
       <c r="C162" t="s">
-        <v>553</v>
+        <v>710</v>
       </c>
       <c r="D162" t="s">
-        <v>554</v>
+        <v>711</v>
       </c>
       <c r="E162" t="s">
-        <v>552</v>
+        <v>709</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>543</v>
+        <v>675</v>
       </c>
       <c r="C163" t="s">
-        <v>545</v>
+        <v>677</v>
       </c>
       <c r="D163" t="s">
-        <v>546</v>
+        <v>678</v>
       </c>
       <c r="E163" t="s">
-        <v>544</v>
+        <v>676</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>423</v>
+        <v>720</v>
       </c>
       <c r="C164" t="s">
-        <v>425</v>
+        <v>722</v>
       </c>
       <c r="D164" t="s">
-        <v>426</v>
+        <v>723</v>
       </c>
       <c r="E164" t="s">
-        <v>424</v>
+        <v>721</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>745</v>
+      </c>
       <c r="B165" t="s">
-        <v>683</v>
+        <v>578</v>
       </c>
       <c r="C165" t="s">
-        <v>685</v>
+        <v>580</v>
       </c>
       <c r="D165" t="s">
-        <v>686</v>
+        <v>581</v>
       </c>
       <c r="E165" t="s">
-        <v>684</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>742</v>
-      </c>
       <c r="B166" t="s">
-        <v>367</v>
+        <v>496</v>
       </c>
       <c r="C166" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="D166" t="s">
-        <v>318</v>
+        <v>499</v>
       </c>
       <c r="E166" t="s">
-        <v>368</v>
+        <v>497</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="C167" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="D167" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="E167" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="C168" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="D168" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="E168" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="C169" t="s">
-        <v>602</v>
+        <v>545</v>
       </c>
       <c r="D169" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="E169" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>535</v>
+        <v>423</v>
       </c>
       <c r="C170" t="s">
-        <v>537</v>
+        <v>425</v>
       </c>
       <c r="D170" t="s">
-        <v>538</v>
+        <v>426</v>
       </c>
       <c r="E170" t="s">
-        <v>536</v>
+        <v>424</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>531</v>
+        <v>683</v>
       </c>
       <c r="C171" t="s">
-        <v>533</v>
+        <v>685</v>
       </c>
       <c r="D171" t="s">
-        <v>534</v>
+        <v>686</v>
       </c>
       <c r="E171" t="s">
-        <v>532</v>
+        <v>684</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>742</v>
+      </c>
       <c r="B172" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="C172" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="D172" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>298</v>
+        <v>569</v>
       </c>
       <c r="C173" t="s">
-        <v>300</v>
+        <v>571</v>
       </c>
       <c r="D173" t="s">
-        <v>301</v>
+        <v>572</v>
       </c>
       <c r="E173" t="s">
-        <v>299</v>
+        <v>570</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>409</v>
+        <v>527</v>
       </c>
       <c r="C174" t="s">
-        <v>411</v>
+        <v>529</v>
       </c>
       <c r="D174" t="s">
-        <v>412</v>
+        <v>530</v>
       </c>
       <c r="E174" t="s">
-        <v>410</v>
+        <v>528</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="C175" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="D175" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="E175" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>317</v>
+        <v>535</v>
       </c>
       <c r="C176" t="s">
-        <v>284</v>
+        <v>537</v>
       </c>
       <c r="D176" t="s">
-        <v>318</v>
+        <v>538</v>
       </c>
       <c r="E176" t="s">
-        <v>772</v>
+        <v>536</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>645</v>
+        <v>531</v>
       </c>
       <c r="C177" t="s">
-        <v>647</v>
+        <v>533</v>
       </c>
       <c r="D177" t="s">
-        <v>648</v>
+        <v>534</v>
       </c>
       <c r="E177" t="s">
-        <v>646</v>
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="C178" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="D178" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="E178" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="C179" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="D179" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="E179" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C180" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="D180" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="E180" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>341</v>
+        <v>621</v>
       </c>
       <c r="C181" t="s">
-        <v>343</v>
+        <v>623</v>
       </c>
       <c r="D181" t="s">
-        <v>344</v>
+        <v>624</v>
       </c>
       <c r="E181" t="s">
-        <v>342</v>
+        <v>622</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="C182" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D182" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="E182" t="s">
-        <v>288</v>
+        <v>771</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
-        <v>331</v>
+        <v>645</v>
       </c>
       <c r="C183" t="s">
-        <v>333</v>
+        <v>647</v>
       </c>
       <c r="D183" t="s">
-        <v>334</v>
+        <v>648</v>
       </c>
       <c r="E183" t="s">
-        <v>332</v>
+        <v>646</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C184" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D184" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E184" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="C185" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="D185" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="E185" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>326</v>
+        <v>428</v>
       </c>
       <c r="C186" t="s">
-        <v>328</v>
+        <v>430</v>
       </c>
       <c r="D186" t="s">
-        <v>329</v>
+        <v>431</v>
       </c>
       <c r="E186" t="s">
-        <v>327</v>
+        <v>429</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C187" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D187" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E187" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C188" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D188" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E188" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
-        <v>399</v>
+        <v>331</v>
       </c>
       <c r="C189" t="s">
-        <v>401</v>
+        <v>333</v>
       </c>
       <c r="D189" t="s">
-        <v>402</v>
+        <v>334</v>
       </c>
       <c r="E189" t="s">
-        <v>400</v>
+        <v>332</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
-        <v>658</v>
+        <v>293</v>
       </c>
       <c r="C190" t="s">
-        <v>660</v>
+        <v>295</v>
       </c>
       <c r="D190" t="s">
-        <v>661</v>
+        <v>296</v>
       </c>
       <c r="E190" t="s">
-        <v>659</v>
+        <v>294</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>653</v>
+        <v>393</v>
       </c>
       <c r="C191" t="s">
-        <v>655</v>
+        <v>395</v>
       </c>
       <c r="D191" t="s">
-        <v>656</v>
+        <v>396</v>
       </c>
       <c r="E191" t="s">
-        <v>654</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
-        <v>608</v>
+        <v>326</v>
       </c>
       <c r="C192" t="s">
-        <v>610</v>
+        <v>328</v>
       </c>
       <c r="D192" t="s">
-        <v>611</v>
+        <v>329</v>
       </c>
       <c r="E192" t="s">
-        <v>609</v>
+        <v>327</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
-        <v>483</v>
+        <v>346</v>
       </c>
       <c r="C193" t="s">
-        <v>485</v>
+        <v>348</v>
       </c>
       <c r="D193" t="s">
-        <v>486</v>
+        <v>349</v>
       </c>
       <c r="E193" t="s">
-        <v>484</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>461</v>
+        <v>303</v>
       </c>
       <c r="C194" t="s">
-        <v>463</v>
+        <v>305</v>
       </c>
       <c r="D194" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
       <c r="E194" t="s">
-        <v>462</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>539</v>
+        <v>399</v>
       </c>
       <c r="C195" t="s">
-        <v>541</v>
+        <v>401</v>
       </c>
       <c r="D195" t="s">
-        <v>542</v>
+        <v>402</v>
       </c>
       <c r="E195" t="s">
-        <v>540</v>
+        <v>400</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>371</v>
+        <v>658</v>
       </c>
       <c r="C196" t="s">
-        <v>373</v>
+        <v>660</v>
       </c>
       <c r="D196" t="s">
-        <v>290</v>
+        <v>661</v>
       </c>
       <c r="E196" t="s">
-        <v>372</v>
+        <v>659</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>743</v>
-      </c>
       <c r="B197" t="s">
-        <v>491</v>
+        <v>653</v>
       </c>
       <c r="C197" t="s">
-        <v>493</v>
+        <v>655</v>
       </c>
       <c r="D197" t="s">
-        <v>494</v>
+        <v>656</v>
       </c>
       <c r="E197" t="s">
-        <v>492</v>
+        <v>654</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>716</v>
+        <v>608</v>
       </c>
       <c r="C198" t="s">
-        <v>718</v>
+        <v>610</v>
       </c>
       <c r="D198" t="s">
-        <v>719</v>
+        <v>611</v>
       </c>
       <c r="E198" t="s">
-        <v>717</v>
+        <v>609</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="C199" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="D199" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="E199" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>612</v>
+        <v>461</v>
       </c>
       <c r="C200" t="s">
-        <v>614</v>
+        <v>463</v>
       </c>
       <c r="D200" t="s">
-        <v>615</v>
+        <v>464</v>
       </c>
       <c r="E200" t="s">
-        <v>613</v>
+        <v>462</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>712</v>
+        <v>539</v>
       </c>
       <c r="C201" t="s">
-        <v>714</v>
+        <v>541</v>
       </c>
       <c r="D201" t="s">
-        <v>715</v>
+        <v>542</v>
       </c>
       <c r="E201" t="s">
-        <v>713</v>
+        <v>540</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>749</v>
-      </c>
       <c r="B202" t="s">
-        <v>761</v>
+        <v>371</v>
       </c>
       <c r="C202" t="s">
-        <v>750</v>
+        <v>373</v>
       </c>
       <c r="D202" t="s">
-        <v>748</v>
+        <v>290</v>
       </c>
       <c r="E202" t="s">
-        <v>830</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>743</v>
+      </c>
       <c r="B203" t="s">
-        <v>762</v>
+        <v>491</v>
       </c>
       <c r="C203" t="s">
-        <v>752</v>
+        <v>493</v>
       </c>
       <c r="D203" t="s">
-        <v>751</v>
+        <v>494</v>
       </c>
       <c r="E203" t="s">
-        <v>831</v>
+        <v>492</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
-        <v>766</v>
+        <v>716</v>
       </c>
       <c r="C204" t="s">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="D204" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="E204" t="s">
-        <v>835</v>
+        <v>717</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>765</v>
+        <v>432</v>
       </c>
       <c r="C205" t="s">
-        <v>758</v>
+        <v>434</v>
       </c>
       <c r="D205" t="s">
-        <v>757</v>
+        <v>435</v>
       </c>
       <c r="E205" t="s">
-        <v>834</v>
+        <v>433</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
-        <v>763</v>
+        <v>612</v>
       </c>
       <c r="C206" t="s">
-        <v>754</v>
+        <v>614</v>
       </c>
       <c r="D206" t="s">
-        <v>753</v>
+        <v>615</v>
       </c>
       <c r="E206" t="s">
-        <v>832</v>
+        <v>613</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
-        <v>764</v>
+        <v>712</v>
       </c>
       <c r="C207" t="s">
-        <v>756</v>
+        <v>714</v>
       </c>
       <c r="D207" t="s">
-        <v>755</v>
+        <v>715</v>
       </c>
       <c r="E207" t="s">
-        <v>833</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -10495,8 +10488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28873CF9-E3BC-49B1-B081-ECDB2863C8AA}">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10520,7 +10513,7 @@
         <v>262</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -10756,7 +10749,7 @@
         <v>744</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -10854,7 +10847,7 @@
         <v>86</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -10871,7 +10864,7 @@
         <v>86</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -10888,7 +10881,7 @@
         <v>86</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -10905,7 +10898,7 @@
         <v>86</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -10922,7 +10915,7 @@
         <v>86</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -10939,7 +10932,7 @@
         <v>86</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -10956,7 +10949,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -10973,7 +10966,7 @@
         <v>86</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -10990,7 +10983,7 @@
         <v>86</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -11007,7 +11000,7 @@
         <v>86</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -11024,7 +11017,7 @@
         <v>86</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -11056,7 +11049,7 @@
         <v>86</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -11073,7 +11066,7 @@
         <v>86</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11090,7 +11083,7 @@
         <v>86</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -11107,7 +11100,7 @@
         <v>86</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -11124,7 +11117,7 @@
         <v>86</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -11141,7 +11134,7 @@
         <v>86</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -11158,7 +11151,7 @@
         <v>86</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -11243,7 +11236,7 @@
         <v>141</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -11260,7 +11253,7 @@
         <v>141</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -11277,7 +11270,7 @@
         <v>141</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -11294,7 +11287,7 @@
         <v>141</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -11311,7 +11304,7 @@
         <v>141</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -11328,7 +11321,7 @@
         <v>141</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -11345,7 +11338,7 @@
         <v>141</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -11362,7 +11355,7 @@
         <v>141</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -11379,7 +11372,7 @@
         <v>141</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -11396,7 +11389,7 @@
         <v>141</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -11413,7 +11406,7 @@
         <v>141</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -11430,7 +11423,7 @@
         <v>141</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -11447,7 +11440,7 @@
         <v>141</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -11464,7 +11457,7 @@
         <v>141</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -11481,7 +11474,7 @@
         <v>141</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -11498,7 +11491,7 @@
         <v>141</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -11515,7 +11508,7 @@
         <v>141</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -11532,7 +11525,7 @@
         <v>141</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -11549,7 +11542,7 @@
         <v>141</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -11719,7 +11712,7 @@
         <v>261</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -11736,7 +11729,7 @@
         <v>261</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -11753,7 +11746,7 @@
         <v>261</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -11770,7 +11763,7 @@
         <v>261</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -11787,7 +11780,7 @@
         <v>261</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -11804,7 +11797,7 @@
         <v>261</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -11821,7 +11814,7 @@
         <v>261</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -11838,7 +11831,7 @@
         <v>261</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -11855,7 +11848,7 @@
         <v>261</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -11872,7 +11865,7 @@
         <v>261</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -11889,7 +11882,7 @@
         <v>261</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -11906,7 +11899,7 @@
         <v>261</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -11923,7 +11916,7 @@
         <v>261</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -11940,7 +11933,7 @@
         <v>261</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -11957,7 +11950,7 @@
         <v>261</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -11974,7 +11967,7 @@
         <v>261</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -11991,7 +11984,7 @@
         <v>261</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -12008,7 +12001,7 @@
         <v>261</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -12025,7 +12018,7 @@
         <v>261</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -12042,7 +12035,7 @@
         <v>261</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -12059,7 +12052,7 @@
         <v>261</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -12076,7 +12069,7 @@
         <v>261</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -12093,7 +12086,7 @@
         <v>261</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -12110,7 +12103,7 @@
         <v>261</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -12127,7 +12120,7 @@
         <v>261</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -12144,7 +12137,7 @@
         <v>261</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -12161,7 +12154,7 @@
         <v>261</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -12178,7 +12171,7 @@
         <v>261</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -12195,7 +12188,7 @@
         <v>261</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -12212,7 +12205,7 @@
         <v>261</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -12229,7 +12222,7 @@
         <v>261</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -12246,7 +12239,7 @@
         <v>261</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -12263,7 +12256,7 @@
         <v>261</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -12280,7 +12273,7 @@
         <v>261</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -12297,7 +12290,7 @@
         <v>261</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -12314,7 +12307,7 @@
         <v>261</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -12331,7 +12324,7 @@
         <v>261</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -12348,7 +12341,7 @@
         <v>261</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -12365,7 +12358,7 @@
         <v>261</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -12382,7 +12375,7 @@
         <v>261</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -12399,7 +12392,7 @@
         <v>261</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -12416,7 +12409,7 @@
         <v>261</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -12433,7 +12426,7 @@
         <v>261</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -13092,7 +13085,7 @@
         <v>742</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -13721,7 +13714,7 @@
         <v>30</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -13738,7 +13731,7 @@
         <v>30</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -13755,7 +13748,7 @@
         <v>30</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -13772,7 +13765,7 @@
         <v>30</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -13789,7 +13782,7 @@
         <v>30</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -13806,7 +13799,7 @@
         <v>30</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -13823,7 +13816,7 @@
         <v>30</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -13840,7 +13833,7 @@
         <v>30</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -13857,109 +13850,109 @@
         <v>30</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>748</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>746</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B200" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>751</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>752</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>746</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B201" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>753</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>754</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>746</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B202" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>755</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>756</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>746</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B203" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="C203" s="5" t="s">
         <v>757</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>758</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>746</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B204" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C204" s="5" t="s">
         <v>759</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>760</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>746</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/PARC RZB (version 1).xlsx
+++ b/PARC RZB (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthur.cahn\OneDrive - Groupe Exedra\Bureau\App-Parc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC75690-6B4D-4C73-83C8-A7D5E6E96DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADDAF00-46C9-40D0-A9C3-7CC69BAAA825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16380" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{3DFD6CFB-0C71-4847-AAE3-4AD380DC4CBE}"/>
+    <workbookView xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{3DFD6CFB-0C71-4847-AAE3-4AD380DC4CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="47" r:id="rId5"/>
+    <pivotCache cacheId="48" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31691,7 +31691,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A7010B8-C376-401A-A4C2-AA85DC7E94E7}" name="Tableau croisé dynamique1" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A7010B8-C376-401A-A4C2-AA85DC7E94E7}" name="Tableau croisé dynamique1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:G497" firstHeaderRow="1" firstDataRow="1" firstDataCol="7"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -41778,7 +41778,7 @@
   <dimension ref="A3:G497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PARC RZB (version 1).xlsx
+++ b/PARC RZB (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthur.cahn\OneDrive - Groupe Exedra\Bureau\App-Parc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD35BBC-9316-41A9-B2AE-6C8BEA1ABC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615AB02F-7E6B-4611-89C3-88015ADE1EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16380" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{3DFD6CFB-0C71-4847-AAE3-4AD380DC4CBE}"/>
+    <workbookView xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{3DFD6CFB-0C71-4847-AAE3-4AD380DC4CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="62" r:id="rId4"/>
+    <pivotCache cacheId="73" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6034" uniqueCount="1665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6088" uniqueCount="1719">
   <si>
     <t>Libellé</t>
   </si>
@@ -5183,6 +5183,168 @@
   </si>
   <si>
     <t>pm18,5fab g15300111813 annéé 2018</t>
+  </si>
+  <si>
+    <t>SERIE DRI 08250145</t>
+  </si>
+  <si>
+    <t>SERIE DRI 133300805 DRI 20005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PV14-40849 BRH EPIROC SB102 BES164896 attache morin m1</t>
+  </si>
+  <si>
+    <t>SERIE 66729</t>
+  </si>
+  <si>
+    <t>YCE VIO27 JSCM03012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERIE 67319 </t>
+  </si>
+  <si>
+    <t>SERIE 11803 SERIE MOTEUR 7KJ6690</t>
+  </si>
+  <si>
+    <t>serie 161790</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> serie wlhz1508vzk( serie 110641)</t>
+  </si>
+  <si>
+    <t>SERIE 64953 SERIE BRH BE 110949</t>
+  </si>
+  <si>
+    <t>SERIE L JL03386</t>
+  </si>
+  <si>
+    <t>SERIE L J L03263</t>
+  </si>
+  <si>
+    <t>SERIE MEC12MTXEF0045043 n°moteur serie 11682613</t>
+  </si>
+  <si>
+    <t>SERIE VCECR50DT0 0 0 05507</t>
+  </si>
+  <si>
+    <t>SERIE M315FA   F4D00319</t>
+  </si>
+  <si>
+    <t>SERIE 82091</t>
+  </si>
+  <si>
+    <t>SERIE b34s 14129</t>
+  </si>
+  <si>
+    <t>serie VCEW160EH00321052</t>
+  </si>
+  <si>
+    <t>serie 101462032214</t>
+  </si>
+  <si>
+    <t>serie d8a00363</t>
+  </si>
+  <si>
+    <t>SERIE VCEP6820C00022996</t>
+  </si>
+  <si>
+    <t>SERIE TL08041098</t>
+  </si>
+  <si>
+    <t>SERIE 48RZ00950</t>
+  </si>
+  <si>
+    <t>serie 101650461870</t>
+  </si>
+  <si>
+    <t>serie 161673</t>
+  </si>
+  <si>
+    <t>SERIE 45 651</t>
+  </si>
+  <si>
+    <t>serie 730027</t>
+  </si>
+  <si>
+    <t>SERIE NDBF20524</t>
+  </si>
+  <si>
+    <t>serie 643033 immat 4587kw82 fiat 80/90</t>
+  </si>
+  <si>
+    <t>serie 1421b/288</t>
+  </si>
+  <si>
+    <t>SERIE 101880031067</t>
+  </si>
+  <si>
+    <t>CAT0320EJNAZ02374</t>
+  </si>
+  <si>
+    <t>MEC06MCRKJ0 120663</t>
+  </si>
+  <si>
+    <t>SERIE 63983</t>
+  </si>
+  <si>
+    <t>SERIE 65061</t>
+  </si>
+  <si>
+    <t>SERIE AXJ01330</t>
+  </si>
+  <si>
+    <t>SERIE 026 FDF /  30E10112</t>
+  </si>
+  <si>
+    <t>vf93502d021438233</t>
+  </si>
+  <si>
+    <t>vjurfe160jf405310</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vjurfd250jf461495</t>
+  </si>
+  <si>
+    <t>VF92E21CC39EB881047</t>
+  </si>
+  <si>
+    <t>VF921MN160F160040</t>
+  </si>
+  <si>
+    <t>VF924MN160F160041</t>
+  </si>
+  <si>
+    <t>N° de serie 461651</t>
+  </si>
+  <si>
+    <t>N° de serie 461652</t>
+  </si>
+  <si>
+    <t>VJURFD250KF461583</t>
+  </si>
+  <si>
+    <t>VF92502D021438084</t>
+  </si>
+  <si>
+    <t>vf92502D021438083</t>
+  </si>
+  <si>
+    <t>N° de serie 461649</t>
+  </si>
+  <si>
+    <t>vf9ezcc39eb881046</t>
+  </si>
+  <si>
+    <t>VJURFD250SF461751</t>
+  </si>
+  <si>
+    <t>VJURFD250F461752</t>
+  </si>
+  <si>
+    <t>vgurfb25onf461718</t>
+  </si>
+  <si>
+    <t>N° de serie 461653</t>
   </si>
 </sst>
 </file>
@@ -5513,7 +5675,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CAHN Arthur" refreshedDate="46077.486790162038" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="494" xr:uid="{0F99EE54-8968-4F1A-9D7A-78457B92DB09}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CAHN Arthur" refreshedDate="46077.497376967593" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="494" xr:uid="{0F99EE54-8968-4F1A-9D7A-78457B92DB09}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="Feuil1"/>
   </cacheSource>
@@ -11248,12 +11410,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="N° SERIE" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="14140021" count="57">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="14140021" count="111">
         <m/>
         <n v="0"/>
         <s v="WV3ZZZSZ5S9048974"/>
+        <s v="N° de serie 461651"/>
+        <s v="N° de serie 461652"/>
+        <s v="SERIE 63983"/>
         <s v="WOVVST600KB176553"/>
         <s v="WOVVST608KB176705"/>
+        <s v="SERIE 65061"/>
+        <s v="MEC06MCRKJ0 120663"/>
+        <s v="CAT0320EJNAZ02374"/>
         <s v="VF6VG000156476840"/>
         <s v="WMA26SZZ3HM735650"/>
         <n v="14140021"/>
@@ -11263,11 +11431,24 @@
         <s v="YS2P6X40009366678"/>
         <s v="WMA37SZZ0EP055524"/>
         <s v="WMA30SZZ2HM720708"/>
+        <s v=" serie wlhz1508vzk( serie 110641)"/>
+        <s v="serie 161790"/>
+        <s v="SERIE 64953 SERIE BRH BE 110949"/>
+        <s v="VJURFD250SF461751"/>
+        <s v="VJURFD250F461752"/>
+        <s v="vgurfb25onf461718"/>
+        <s v="N° de serie 461653"/>
         <s v="WMA26SZZ6KM806170"/>
         <s v="YS2P6X40009367008"/>
         <s v="WMA26SZZ9EPO55472"/>
+        <s v="SERIE DRI 133300805 DRI 20005"/>
         <s v="ZCFCA35BXOD656276"/>
         <s v="ZCFC835B105427703"/>
+        <s v=" PV14-40849 BRH EPIROC SB102 BES164896 attache morin m1"/>
+        <s v="SERIE 11803 SERIE MOTEUR 7KJ6690"/>
+        <s v="YCE VIO27 JSCM03012"/>
+        <s v="SERIE 67319 "/>
+        <s v="SERIE 66729"/>
         <s v="3FV2C00012"/>
         <s v="XS228250"/>
         <s v="vgvts243BW1SV0064"/>
@@ -11276,6 +11457,9 @@
         <s v="VF6VG000660943710"/>
         <s v="VF6VG000X60943712"/>
         <s v="VF1MAA4DE49510821"/>
+        <s v="vjurfe160jf405310"/>
+        <s v=" vjurfd250jf461495"/>
+        <s v="vf93502d021438233"/>
         <s v="WOVMRS605KB176811"/>
         <s v="WMAN16ZZ4EY316195"/>
         <s v="VF644AGE000000130"/>
@@ -11286,6 +11470,19 @@
         <s v="WOVMRL601KB162765"/>
         <s v="N10PELCT626P650"/>
         <s v="WMA18SZZ9LM855662"/>
+        <s v="SERIE 82091"/>
+        <s v="SERIE VCECR50DT0 0 0 05507"/>
+        <s v="serie VCEW160EH00321052"/>
+        <s v="SERIE b34s 14129"/>
+        <s v="serie 161673"/>
+        <s v="SERIE MEC12MTXEF0045043 n°moteur serie 11682613"/>
+        <s v="SERIE L JL03386"/>
+        <s v="SERIE M315FA   F4D00319"/>
+        <s v="SERIE 45 651"/>
+        <s v="SERIE L J L03263"/>
+        <s v="SERIE TL08041098"/>
+        <s v="SERIE AXJ01330"/>
+        <s v="SERIE NDBF20524"/>
         <s v="VF1MAFESC50070935"/>
         <s v="VF6VG000458583918"/>
         <s v="VF6VG000058583916"/>
@@ -11306,6 +11503,25 @@
         <s v="W0VVST608KB176462"/>
         <s v="ZCFCA35B905423595"/>
         <s v="WOVVST608KB176445"/>
+        <s v="SERIE 026 FDF /  30E10112"/>
+        <s v="serie d8a00363"/>
+        <s v="serie 730027"/>
+        <s v="SERIE VCEP6820C00022996"/>
+        <s v="serie 101462032214"/>
+        <s v="serie 101650461870"/>
+        <s v="serie 1421b/288"/>
+        <s v="SERIE 48RZ00950"/>
+        <s v="SERIE 101880031067"/>
+        <s v="serie 643033 immat 4587kw82 fiat 80/90"/>
+        <s v="vf9ezcc39eb881046"/>
+        <s v="VF92502D021438084"/>
+        <s v="VF92E21CC39EB881047"/>
+        <s v="VJURFD250KF461583"/>
+        <s v="vf92502D021438083"/>
+        <s v="N° de serie 461649"/>
+        <s v="VF921MN160F160040"/>
+        <s v="VF924MN160F160041"/>
+        <s v="SERIE DRI 08250145"/>
       </sharedItems>
     </cacheField>
     <cacheField name="N° SERIE GRUE" numFmtId="0">
@@ -11526,7 +11742,7 @@
     <x v="19"/>
     <x v="2"/>
     <x v="20"/>
-    <x v="0"/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
@@ -11535,7 +11751,7 @@
     <x v="20"/>
     <x v="2"/>
     <x v="21"/>
-    <x v="0"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
@@ -11571,7 +11787,7 @@
     <x v="24"/>
     <x v="2"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="5"/>
     <x v="0"/>
   </r>
   <r>
@@ -11580,7 +11796,7 @@
     <x v="25"/>
     <x v="2"/>
     <x v="23"/>
-    <x v="3"/>
+    <x v="6"/>
     <x v="0"/>
   </r>
   <r>
@@ -11589,7 +11805,7 @@
     <x v="26"/>
     <x v="2"/>
     <x v="24"/>
-    <x v="4"/>
+    <x v="7"/>
     <x v="0"/>
   </r>
   <r>
@@ -11598,7 +11814,7 @@
     <x v="27"/>
     <x v="2"/>
     <x v="25"/>
-    <x v="0"/>
+    <x v="8"/>
     <x v="0"/>
   </r>
   <r>
@@ -11625,7 +11841,7 @@
     <x v="30"/>
     <x v="2"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="9"/>
     <x v="0"/>
   </r>
   <r>
@@ -11634,7 +11850,7 @@
     <x v="31"/>
     <x v="2"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="10"/>
     <x v="0"/>
   </r>
   <r>
@@ -11643,7 +11859,7 @@
     <x v="32"/>
     <x v="2"/>
     <x v="27"/>
-    <x v="5"/>
+    <x v="11"/>
     <x v="0"/>
   </r>
   <r>
@@ -11652,7 +11868,7 @@
     <x v="33"/>
     <x v="2"/>
     <x v="28"/>
-    <x v="6"/>
+    <x v="12"/>
     <x v="1"/>
   </r>
   <r>
@@ -11661,7 +11877,7 @@
     <x v="34"/>
     <x v="2"/>
     <x v="29"/>
-    <x v="7"/>
+    <x v="13"/>
     <x v="2"/>
   </r>
   <r>
@@ -11670,7 +11886,7 @@
     <x v="35"/>
     <x v="2"/>
     <x v="30"/>
-    <x v="8"/>
+    <x v="14"/>
     <x v="3"/>
   </r>
   <r>
@@ -11724,7 +11940,7 @@
     <x v="41"/>
     <x v="3"/>
     <x v="36"/>
-    <x v="9"/>
+    <x v="15"/>
     <x v="4"/>
   </r>
   <r>
@@ -11733,7 +11949,7 @@
     <x v="42"/>
     <x v="3"/>
     <x v="37"/>
-    <x v="10"/>
+    <x v="16"/>
     <x v="5"/>
   </r>
   <r>
@@ -11742,7 +11958,7 @@
     <x v="43"/>
     <x v="3"/>
     <x v="38"/>
-    <x v="11"/>
+    <x v="17"/>
     <x v="6"/>
   </r>
   <r>
@@ -11751,7 +11967,7 @@
     <x v="44"/>
     <x v="3"/>
     <x v="39"/>
-    <x v="12"/>
+    <x v="18"/>
     <x v="0"/>
   </r>
   <r>
@@ -11760,7 +11976,7 @@
     <x v="45"/>
     <x v="3"/>
     <x v="40"/>
-    <x v="13"/>
+    <x v="19"/>
     <x v="7"/>
   </r>
   <r>
@@ -11805,7 +12021,7 @@
     <x v="50"/>
     <x v="3"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="20"/>
     <x v="0"/>
   </r>
   <r>
@@ -11814,7 +12030,7 @@
     <x v="51"/>
     <x v="3"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="21"/>
     <x v="0"/>
   </r>
   <r>
@@ -11823,7 +12039,7 @@
     <x v="52"/>
     <x v="3"/>
     <x v="41"/>
-    <x v="0"/>
+    <x v="22"/>
     <x v="0"/>
   </r>
   <r>
@@ -11841,7 +12057,7 @@
     <x v="54"/>
     <x v="3"/>
     <x v="43"/>
-    <x v="0"/>
+    <x v="23"/>
     <x v="0"/>
   </r>
   <r>
@@ -11850,7 +12066,7 @@
     <x v="55"/>
     <x v="3"/>
     <x v="44"/>
-    <x v="0"/>
+    <x v="24"/>
     <x v="0"/>
   </r>
   <r>
@@ -11868,7 +12084,7 @@
     <x v="57"/>
     <x v="3"/>
     <x v="46"/>
-    <x v="0"/>
+    <x v="25"/>
     <x v="0"/>
   </r>
   <r>
@@ -11886,7 +12102,7 @@
     <x v="59"/>
     <x v="3"/>
     <x v="48"/>
-    <x v="0"/>
+    <x v="26"/>
     <x v="0"/>
   </r>
   <r>
@@ -11976,7 +12192,7 @@
     <x v="69"/>
     <x v="4"/>
     <x v="58"/>
-    <x v="14"/>
+    <x v="27"/>
     <x v="8"/>
   </r>
   <r>
@@ -11985,7 +12201,7 @@
     <x v="70"/>
     <x v="4"/>
     <x v="59"/>
-    <x v="15"/>
+    <x v="28"/>
     <x v="9"/>
   </r>
   <r>
@@ -11994,7 +12210,7 @@
     <x v="71"/>
     <x v="4"/>
     <x v="60"/>
-    <x v="10"/>
+    <x v="16"/>
     <x v="10"/>
   </r>
   <r>
@@ -12003,7 +12219,7 @@
     <x v="72"/>
     <x v="4"/>
     <x v="61"/>
-    <x v="16"/>
+    <x v="29"/>
     <x v="0"/>
   </r>
   <r>
@@ -12093,7 +12309,7 @@
     <x v="82"/>
     <x v="4"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="30"/>
     <x v="0"/>
   </r>
   <r>
@@ -12111,7 +12327,7 @@
     <x v="84"/>
     <x v="4"/>
     <x v="62"/>
-    <x v="17"/>
+    <x v="31"/>
     <x v="0"/>
   </r>
   <r>
@@ -12120,7 +12336,7 @@
     <x v="85"/>
     <x v="4"/>
     <x v="63"/>
-    <x v="18"/>
+    <x v="32"/>
     <x v="0"/>
   </r>
   <r>
@@ -12138,7 +12354,7 @@
     <x v="87"/>
     <x v="4"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="33"/>
     <x v="0"/>
   </r>
   <r>
@@ -12147,7 +12363,7 @@
     <x v="88"/>
     <x v="4"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="34"/>
     <x v="0"/>
   </r>
   <r>
@@ -12156,7 +12372,7 @@
     <x v="89"/>
     <x v="4"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="35"/>
     <x v="0"/>
   </r>
   <r>
@@ -12165,7 +12381,7 @@
     <x v="90"/>
     <x v="4"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="36"/>
     <x v="0"/>
   </r>
   <r>
@@ -12174,7 +12390,7 @@
     <x v="91"/>
     <x v="4"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="37"/>
     <x v="0"/>
   </r>
   <r>
@@ -12219,7 +12435,7 @@
     <x v="96"/>
     <x v="4"/>
     <x v="69"/>
-    <x v="19"/>
+    <x v="38"/>
     <x v="0"/>
   </r>
   <r>
@@ -12228,7 +12444,7 @@
     <x v="97"/>
     <x v="4"/>
     <x v="70"/>
-    <x v="20"/>
+    <x v="39"/>
     <x v="11"/>
   </r>
   <r>
@@ -12237,7 +12453,7 @@
     <x v="98"/>
     <x v="4"/>
     <x v="71"/>
-    <x v="21"/>
+    <x v="40"/>
     <x v="12"/>
   </r>
   <r>
@@ -12246,7 +12462,7 @@
     <x v="99"/>
     <x v="4"/>
     <x v="72"/>
-    <x v="22"/>
+    <x v="41"/>
     <x v="0"/>
   </r>
   <r>
@@ -12273,7 +12489,7 @@
     <x v="102"/>
     <x v="4"/>
     <x v="75"/>
-    <x v="23"/>
+    <x v="42"/>
     <x v="0"/>
   </r>
   <r>
@@ -12282,7 +12498,7 @@
     <x v="103"/>
     <x v="4"/>
     <x v="76"/>
-    <x v="24"/>
+    <x v="43"/>
     <x v="0"/>
   </r>
   <r>
@@ -12291,7 +12507,7 @@
     <x v="104"/>
     <x v="4"/>
     <x v="77"/>
-    <x v="25"/>
+    <x v="44"/>
     <x v="0"/>
   </r>
   <r>
@@ -12300,7 +12516,7 @@
     <x v="105"/>
     <x v="4"/>
     <x v="78"/>
-    <x v="26"/>
+    <x v="45"/>
     <x v="0"/>
   </r>
   <r>
@@ -12309,7 +12525,7 @@
     <x v="106"/>
     <x v="4"/>
     <x v="79"/>
-    <x v="10"/>
+    <x v="16"/>
     <x v="0"/>
   </r>
   <r>
@@ -12318,7 +12534,7 @@
     <x v="107"/>
     <x v="4"/>
     <x v="80"/>
-    <x v="0"/>
+    <x v="46"/>
     <x v="0"/>
   </r>
   <r>
@@ -12327,7 +12543,7 @@
     <x v="108"/>
     <x v="4"/>
     <x v="81"/>
-    <x v="0"/>
+    <x v="47"/>
     <x v="0"/>
   </r>
   <r>
@@ -12354,7 +12570,7 @@
     <x v="111"/>
     <x v="4"/>
     <x v="84"/>
-    <x v="0"/>
+    <x v="48"/>
     <x v="0"/>
   </r>
   <r>
@@ -13038,7 +13254,7 @@
     <x v="185"/>
     <x v="9"/>
     <x v="158"/>
-    <x v="27"/>
+    <x v="49"/>
     <x v="0"/>
   </r>
   <r>
@@ -13056,7 +13272,7 @@
     <x v="187"/>
     <x v="9"/>
     <x v="160"/>
-    <x v="28"/>
+    <x v="50"/>
     <x v="0"/>
   </r>
   <r>
@@ -13065,7 +13281,7 @@
     <x v="188"/>
     <x v="9"/>
     <x v="161"/>
-    <x v="29"/>
+    <x v="51"/>
     <x v="0"/>
   </r>
   <r>
@@ -13074,7 +13290,7 @@
     <x v="189"/>
     <x v="9"/>
     <x v="162"/>
-    <x v="30"/>
+    <x v="52"/>
     <x v="0"/>
   </r>
   <r>
@@ -13119,7 +13335,7 @@
     <x v="194"/>
     <x v="0"/>
     <x v="166"/>
-    <x v="31"/>
+    <x v="53"/>
     <x v="0"/>
   </r>
   <r>
@@ -13128,7 +13344,7 @@
     <x v="195"/>
     <x v="0"/>
     <x v="167"/>
-    <x v="32"/>
+    <x v="54"/>
     <x v="0"/>
   </r>
   <r>
@@ -13137,7 +13353,7 @@
     <x v="196"/>
     <x v="0"/>
     <x v="168"/>
-    <x v="33"/>
+    <x v="55"/>
     <x v="0"/>
   </r>
   <r>
@@ -13146,7 +13362,7 @@
     <x v="197"/>
     <x v="0"/>
     <x v="169"/>
-    <x v="34"/>
+    <x v="56"/>
     <x v="0"/>
   </r>
   <r>
@@ -13155,7 +13371,7 @@
     <x v="198"/>
     <x v="0"/>
     <x v="170"/>
-    <x v="35"/>
+    <x v="57"/>
     <x v="0"/>
   </r>
   <r>
@@ -13164,7 +13380,7 @@
     <x v="199"/>
     <x v="0"/>
     <x v="171"/>
-    <x v="36"/>
+    <x v="58"/>
     <x v="13"/>
   </r>
   <r>
@@ -13299,7 +13515,7 @@
     <x v="214"/>
     <x v="8"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="59"/>
     <x v="0"/>
   </r>
   <r>
@@ -13317,7 +13533,7 @@
     <x v="216"/>
     <x v="8"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="60"/>
     <x v="0"/>
   </r>
   <r>
@@ -13326,7 +13542,7 @@
     <x v="217"/>
     <x v="8"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="61"/>
     <x v="0"/>
   </r>
   <r>
@@ -13335,7 +13551,7 @@
     <x v="218"/>
     <x v="8"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="62"/>
     <x v="0"/>
   </r>
   <r>
@@ -13353,7 +13569,7 @@
     <x v="220"/>
     <x v="5"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="63"/>
     <x v="0"/>
   </r>
   <r>
@@ -13362,7 +13578,7 @@
     <x v="221"/>
     <x v="8"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="64"/>
     <x v="0"/>
   </r>
   <r>
@@ -13371,7 +13587,7 @@
     <x v="222"/>
     <x v="8"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="65"/>
     <x v="0"/>
   </r>
   <r>
@@ -13380,7 +13596,7 @@
     <x v="223"/>
     <x v="8"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="66"/>
     <x v="0"/>
   </r>
   <r>
@@ -13398,7 +13614,7 @@
     <x v="225"/>
     <x v="5"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="67"/>
     <x v="0"/>
   </r>
   <r>
@@ -13407,7 +13623,7 @@
     <x v="226"/>
     <x v="8"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="68"/>
     <x v="0"/>
   </r>
   <r>
@@ -13443,7 +13659,7 @@
     <x v="230"/>
     <x v="8"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="69"/>
     <x v="0"/>
   </r>
   <r>
@@ -13461,7 +13677,7 @@
     <x v="232"/>
     <x v="6"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="70"/>
     <x v="0"/>
   </r>
   <r>
@@ -13488,7 +13704,7 @@
     <x v="235"/>
     <x v="5"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="71"/>
     <x v="0"/>
   </r>
   <r>
@@ -14262,7 +14478,7 @@
     <x v="321"/>
     <x v="10"/>
     <x v="262"/>
-    <x v="37"/>
+    <x v="72"/>
     <x v="0"/>
   </r>
   <r>
@@ -14289,7 +14505,7 @@
     <x v="324"/>
     <x v="6"/>
     <x v="265"/>
-    <x v="38"/>
+    <x v="73"/>
     <x v="0"/>
   </r>
   <r>
@@ -14298,7 +14514,7 @@
     <x v="325"/>
     <x v="6"/>
     <x v="266"/>
-    <x v="39"/>
+    <x v="74"/>
     <x v="0"/>
   </r>
   <r>
@@ -14307,7 +14523,7 @@
     <x v="326"/>
     <x v="6"/>
     <x v="267"/>
-    <x v="40"/>
+    <x v="75"/>
     <x v="0"/>
   </r>
   <r>
@@ -14316,7 +14532,7 @@
     <x v="327"/>
     <x v="6"/>
     <x v="268"/>
-    <x v="41"/>
+    <x v="76"/>
     <x v="0"/>
   </r>
   <r>
@@ -14361,7 +14577,7 @@
     <x v="332"/>
     <x v="10"/>
     <x v="272"/>
-    <x v="42"/>
+    <x v="77"/>
     <x v="0"/>
   </r>
   <r>
@@ -14379,7 +14595,7 @@
     <x v="334"/>
     <x v="5"/>
     <x v="274"/>
-    <x v="43"/>
+    <x v="78"/>
     <x v="0"/>
   </r>
   <r>
@@ -14388,7 +14604,7 @@
     <x v="335"/>
     <x v="8"/>
     <x v="275"/>
-    <x v="44"/>
+    <x v="79"/>
     <x v="0"/>
   </r>
   <r>
@@ -14397,7 +14613,7 @@
     <x v="336"/>
     <x v="6"/>
     <x v="276"/>
-    <x v="45"/>
+    <x v="80"/>
     <x v="0"/>
   </r>
   <r>
@@ -14640,7 +14856,7 @@
     <x v="363"/>
     <x v="10"/>
     <x v="302"/>
-    <x v="46"/>
+    <x v="81"/>
     <x v="0"/>
   </r>
   <r>
@@ -14649,7 +14865,7 @@
     <x v="364"/>
     <x v="5"/>
     <x v="303"/>
-    <x v="47"/>
+    <x v="82"/>
     <x v="0"/>
   </r>
   <r>
@@ -14658,7 +14874,7 @@
     <x v="365"/>
     <x v="5"/>
     <x v="304"/>
-    <x v="48"/>
+    <x v="83"/>
     <x v="0"/>
   </r>
   <r>
@@ -14694,7 +14910,7 @@
     <x v="369"/>
     <x v="8"/>
     <x v="308"/>
-    <x v="49"/>
+    <x v="84"/>
     <x v="0"/>
   </r>
   <r>
@@ -14703,7 +14919,7 @@
     <x v="370"/>
     <x v="5"/>
     <x v="309"/>
-    <x v="50"/>
+    <x v="85"/>
     <x v="0"/>
   </r>
   <r>
@@ -14712,7 +14928,7 @@
     <x v="371"/>
     <x v="5"/>
     <x v="310"/>
-    <x v="51"/>
+    <x v="86"/>
     <x v="0"/>
   </r>
   <r>
@@ -14730,7 +14946,7 @@
     <x v="373"/>
     <x v="6"/>
     <x v="312"/>
-    <x v="52"/>
+    <x v="87"/>
     <x v="0"/>
   </r>
   <r>
@@ -14739,7 +14955,7 @@
     <x v="374"/>
     <x v="5"/>
     <x v="313"/>
-    <x v="53"/>
+    <x v="88"/>
     <x v="0"/>
   </r>
   <r>
@@ -14757,7 +14973,7 @@
     <x v="376"/>
     <x v="8"/>
     <x v="315"/>
-    <x v="54"/>
+    <x v="89"/>
     <x v="0"/>
   </r>
   <r>
@@ -14766,7 +14982,7 @@
     <x v="377"/>
     <x v="6"/>
     <x v="316"/>
-    <x v="55"/>
+    <x v="90"/>
     <x v="0"/>
   </r>
   <r>
@@ -14775,7 +14991,7 @@
     <x v="378"/>
     <x v="8"/>
     <x v="317"/>
-    <x v="56"/>
+    <x v="91"/>
     <x v="0"/>
   </r>
   <r>
@@ -14856,7 +15072,7 @@
     <x v="387"/>
     <x v="10"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="92"/>
     <x v="0"/>
   </r>
   <r>
@@ -14874,7 +15090,7 @@
     <x v="389"/>
     <x v="8"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="93"/>
     <x v="0"/>
   </r>
   <r>
@@ -14883,7 +15099,7 @@
     <x v="390"/>
     <x v="5"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="94"/>
     <x v="0"/>
   </r>
   <r>
@@ -14910,7 +15126,7 @@
     <x v="393"/>
     <x v="8"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="95"/>
     <x v="0"/>
   </r>
   <r>
@@ -14928,7 +15144,7 @@
     <x v="395"/>
     <x v="8"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="96"/>
     <x v="0"/>
   </r>
   <r>
@@ -14946,7 +15162,7 @@
     <x v="397"/>
     <x v="5"/>
     <x v="22"/>
-    <x v="0"/>
+    <x v="97"/>
     <x v="0"/>
   </r>
   <r>
@@ -14955,7 +15171,7 @@
     <x v="398"/>
     <x v="5"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="98"/>
     <x v="0"/>
   </r>
   <r>
@@ -14964,7 +15180,7 @@
     <x v="399"/>
     <x v="5"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="99"/>
     <x v="0"/>
   </r>
   <r>
@@ -14973,7 +15189,7 @@
     <x v="400"/>
     <x v="5"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="100"/>
     <x v="0"/>
   </r>
   <r>
@@ -15027,7 +15243,7 @@
     <x v="406"/>
     <x v="5"/>
     <x v="323"/>
-    <x v="0"/>
+    <x v="101"/>
     <x v="0"/>
   </r>
   <r>
@@ -15333,7 +15549,7 @@
     <x v="440"/>
     <x v="5"/>
     <x v="327"/>
-    <x v="0"/>
+    <x v="102"/>
     <x v="0"/>
   </r>
   <r>
@@ -15351,7 +15567,7 @@
     <x v="442"/>
     <x v="6"/>
     <x v="329"/>
-    <x v="0"/>
+    <x v="103"/>
     <x v="0"/>
   </r>
   <r>
@@ -15378,7 +15594,7 @@
     <x v="445"/>
     <x v="8"/>
     <x v="332"/>
-    <x v="0"/>
+    <x v="104"/>
     <x v="0"/>
   </r>
   <r>
@@ -15396,7 +15612,7 @@
     <x v="447"/>
     <x v="6"/>
     <x v="333"/>
-    <x v="0"/>
+    <x v="105"/>
     <x v="0"/>
   </r>
   <r>
@@ -15405,7 +15621,7 @@
     <x v="448"/>
     <x v="6"/>
     <x v="334"/>
-    <x v="0"/>
+    <x v="106"/>
     <x v="0"/>
   </r>
   <r>
@@ -15450,7 +15666,7 @@
     <x v="453"/>
     <x v="6"/>
     <x v="339"/>
-    <x v="0"/>
+    <x v="107"/>
     <x v="0"/>
   </r>
   <r>
@@ -15522,7 +15738,7 @@
     <x v="461"/>
     <x v="8"/>
     <x v="347"/>
-    <x v="0"/>
+    <x v="108"/>
     <x v="0"/>
   </r>
   <r>
@@ -15549,7 +15765,7 @@
     <x v="464"/>
     <x v="8"/>
     <x v="349"/>
-    <x v="0"/>
+    <x v="109"/>
     <x v="0"/>
   </r>
   <r>
@@ -15756,7 +15972,7 @@
     <x v="487"/>
     <x v="12"/>
     <x v="15"/>
-    <x v="0"/>
+    <x v="110"/>
     <x v="0"/>
   </r>
   <r>
@@ -15790,7 +16006,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A7010B8-C376-401A-A4C2-AA85DC7E94E7}" name="Tableau croisé dynamique1" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A7010B8-C376-401A-A4C2-AA85DC7E94E7}" name="Tableau croisé dynamique1" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:G497" firstHeaderRow="1" firstDataRow="1" firstDataCol="7"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -21523,64 +21739,118 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="57">
-        <item x="22"/>
-        <item x="7"/>
+      <items count="111">
+        <item x="41"/>
+        <item x="13"/>
+        <item x="38"/>
+        <item x="14"/>
+        <item x="51"/>
+        <item x="40"/>
+        <item x="16"/>
+        <item x="58"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="29"/>
         <item x="19"/>
-        <item x="8"/>
-        <item x="29"/>
-        <item x="21"/>
-        <item x="10"/>
-        <item x="36"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="9"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="50"/>
+        <item x="52"/>
+        <item x="39"/>
+        <item x="17"/>
         <item x="28"/>
-        <item x="30"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="15"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="49"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="17"/>
-        <item x="18"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="32"/>
+        <item x="30"/>
         <item x="33"/>
         <item x="34"/>
         <item x="35"/>
+        <item x="36"/>
         <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
@@ -21645,7 +21915,7 @@
       <x v="1921"/>
       <x v="41"/>
       <x/>
-      <x v="19"/>
+      <x v="61"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -21661,7 +21931,7 @@
       <x v="1915"/>
       <x v="33"/>
       <x/>
-      <x v="19"/>
+      <x v="59"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -21669,7 +21939,7 @@
       <x v="1924"/>
       <x v="43"/>
       <x/>
-      <x v="19"/>
+      <x v="62"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -21829,7 +22099,7 @@
       <x v="1797"/>
       <x v="73"/>
       <x v="58"/>
-      <x v="19"/>
+      <x v="57"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -21837,7 +22107,7 @@
       <x v="1798"/>
       <x v="73"/>
       <x v="57"/>
-      <x v="19"/>
+      <x v="58"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -21853,7 +22123,7 @@
       <x v="1951"/>
       <x v="51"/>
       <x v="42"/>
-      <x v="19"/>
+      <x v="60"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -21878,7 +22148,7 @@
       <x v="1922"/>
       <x v="38"/>
       <x/>
-      <x v="19"/>
+      <x v="63"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -21886,7 +22156,7 @@
       <x v="1923"/>
       <x v="42"/>
       <x/>
-      <x v="19"/>
+      <x v="64"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22086,7 +22356,7 @@
       <x v="1795"/>
       <x v="65"/>
       <x v="166"/>
-      <x v="19"/>
+      <x v="66"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22102,7 +22372,7 @@
       <x v="1796"/>
       <x v="65"/>
       <x v="167"/>
-      <x v="19"/>
+      <x v="67"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22110,7 +22380,7 @@
       <x v="1802"/>
       <x v="71"/>
       <x v="83"/>
-      <x v="19"/>
+      <x v="68"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22126,7 +22396,7 @@
       <x v="1799"/>
       <x v="72"/>
       <x v="59"/>
-      <x v="19"/>
+      <x v="69"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22142,7 +22412,7 @@
       <x v="1949"/>
       <x v="49"/>
       <x v="39"/>
-      <x v="19"/>
+      <x v="65"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22159,7 +22429,7 @@
       <x v="1917"/>
       <x v="39"/>
       <x/>
-      <x v="19"/>
+      <x v="74"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22167,7 +22437,7 @@
       <x v="1919"/>
       <x v="34"/>
       <x/>
-      <x v="19"/>
+      <x v="71"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22175,7 +22445,7 @@
       <x v="1920"/>
       <x v="36"/>
       <x/>
-      <x v="19"/>
+      <x v="73"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22183,7 +22453,7 @@
       <x v="1918"/>
       <x v="40"/>
       <x/>
-      <x v="19"/>
+      <x v="75"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22191,7 +22461,7 @@
       <x v="1916"/>
       <x v="35"/>
       <x/>
-      <x v="19"/>
+      <x v="72"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22575,7 +22845,7 @@
       <x v="1800"/>
       <x v="74"/>
       <x v="71"/>
-      <x v="19"/>
+      <x v="78"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22583,7 +22853,7 @@
       <x v="1804"/>
       <x v="66"/>
       <x v="28"/>
-      <x v="19"/>
+      <x v="76"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22591,7 +22861,7 @@
       <x v="1805"/>
       <x v="67"/>
       <x v="32"/>
-      <x v="19"/>
+      <x v="77"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -22695,7 +22965,7 @@
       <x v="1"/>
       <x v="22"/>
       <x/>
-      <x v="19"/>
+      <x v="70"/>
       <x v="9"/>
     </i>
     <i>
@@ -23108,7 +23378,7 @@
       <x v="69"/>
       <x v="203"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="83"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23116,7 +23386,7 @@
       <x v="79"/>
       <x v="208"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="87"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23132,7 +23402,7 @@
       <x v="176"/>
       <x v="218"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="91"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23436,7 +23706,7 @@
       <x v="1321"/>
       <x v="366"/>
       <x/>
-      <x v="19"/>
+      <x v="94"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23444,7 +23714,7 @@
       <x v="1334"/>
       <x v="372"/>
       <x/>
-      <x v="19"/>
+      <x v="97"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23452,7 +23722,7 @@
       <x v="1346"/>
       <x v="373"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="98"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23460,7 +23730,7 @@
       <x v="1350"/>
       <x v="374"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="99"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23468,7 +23738,7 @@
       <x v="1370"/>
       <x v="375"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="100"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23484,7 +23754,7 @@
       <x v="1431"/>
       <x v="381"/>
       <x v="1118"/>
-      <x v="19"/>
+      <x v="101"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23516,7 +23786,7 @@
       <x v="1527"/>
       <x v="414"/>
       <x v="1133"/>
-      <x v="19"/>
+      <x v="102"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23541,7 +23811,7 @@
       <x v="149"/>
       <x v="215"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="90"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23781,7 +24051,7 @@
       <x v="1531"/>
       <x v="416"/>
       <x v="1137"/>
-      <x v="19"/>
+      <x v="103"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23789,7 +24059,7 @@
       <x v="1542"/>
       <x v="421"/>
       <x v="1147"/>
-      <x v="19"/>
+      <x v="105"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23797,7 +24067,7 @@
       <x v="1543"/>
       <x v="422"/>
       <x v="1148"/>
-      <x v="19"/>
+      <x v="106"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -23805,7 +24075,7 @@
       <x v="1565"/>
       <x v="427"/>
       <x v="1169"/>
-      <x v="19"/>
+      <x v="107"/>
       <x v="9"/>
     </i>
     <i>
@@ -24991,7 +25261,7 @@
       <x v="60"/>
       <x v="197"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="79"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -24999,7 +25269,7 @@
       <x v="65"/>
       <x v="199"/>
       <x/>
-      <x v="19"/>
+      <x v="80"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25007,7 +25277,7 @@
       <x v="66"/>
       <x v="200"/>
       <x/>
-      <x v="19"/>
+      <x v="81"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25015,7 +25285,7 @@
       <x v="67"/>
       <x v="201"/>
       <x/>
-      <x v="19"/>
+      <x v="82"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25023,7 +25293,7 @@
       <x v="75"/>
       <x v="204"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="84"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25031,7 +25301,7 @@
       <x v="76"/>
       <x v="205"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="85"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25039,7 +25309,7 @@
       <x v="77"/>
       <x v="206"/>
       <x/>
-      <x v="19"/>
+      <x v="86"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25047,7 +25317,7 @@
       <x v="90"/>
       <x v="209"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="88"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25055,7 +25325,7 @@
       <x v="141"/>
       <x v="213"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="89"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25239,7 +25509,7 @@
       <x v="1320"/>
       <x v="365"/>
       <x/>
-      <x v="19"/>
+      <x v="93"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25247,7 +25517,7 @@
       <x v="1324"/>
       <x v="368"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="95"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25263,7 +25533,7 @@
       <x v="1332"/>
       <x v="370"/>
       <x/>
-      <x v="19"/>
+      <x v="96"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25271,7 +25541,7 @@
       <x v="1539"/>
       <x v="419"/>
       <x v="1145"/>
-      <x v="19"/>
+      <x v="104"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25279,7 +25549,7 @@
       <x v="1585"/>
       <x v="419"/>
       <x v="1187"/>
-      <x v="19"/>
+      <x v="108"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25287,7 +25557,7 @@
       <x v="1590"/>
       <x v="419"/>
       <x v="1191"/>
-      <x v="19"/>
+      <x v="109"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25474,7 +25744,7 @@
       <x v="1300"/>
       <x v="363"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="92"/>
       <x v="9"/>
     </i>
     <i r="1">
@@ -25579,7 +25849,7 @@
       <x v="1758"/>
       <x v="458"/>
       <x v="171"/>
-      <x v="19"/>
+      <x v="110"/>
       <x v="9"/>
     </i>
   </rowItems>
@@ -25918,16 +26188,7 @@
   <dimension ref="A3:G497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" dimension="4" start="14" min="14" max="15" activeRow="17" activeCol="4" previousRow="17" previousCol="4" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4" count="1">
-              <x v="92"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26039,7 +26300,7 @@
         <v>765</v>
       </c>
       <c r="F7" t="s">
-        <v>741</v>
+        <v>1697</v>
       </c>
       <c r="G7" t="s">
         <v>741</v>
@@ -26079,7 +26340,7 @@
         <v>765</v>
       </c>
       <c r="F9" t="s">
-        <v>741</v>
+        <v>1698</v>
       </c>
       <c r="G9" t="s">
         <v>741</v>
@@ -26099,7 +26360,7 @@
         <v>765</v>
       </c>
       <c r="F10" t="s">
-        <v>741</v>
+        <v>1696</v>
       </c>
       <c r="G10" t="s">
         <v>741</v>
@@ -26499,7 +26760,7 @@
         <v>763</v>
       </c>
       <c r="F30" t="s">
-        <v>741</v>
+        <v>1708</v>
       </c>
       <c r="G30" t="s">
         <v>741</v>
@@ -26519,7 +26780,7 @@
         <v>764</v>
       </c>
       <c r="F31" t="s">
-        <v>741</v>
+        <v>1709</v>
       </c>
       <c r="G31" t="s">
         <v>741</v>
@@ -26559,7 +26820,7 @@
         <v>768</v>
       </c>
       <c r="F33" t="s">
-        <v>741</v>
+        <v>1699</v>
       </c>
       <c r="G33" t="s">
         <v>741</v>
@@ -26622,7 +26883,7 @@
         <v>765</v>
       </c>
       <c r="F36" t="s">
-        <v>741</v>
+        <v>1673</v>
       </c>
       <c r="G36" t="s">
         <v>741</v>
@@ -26642,7 +26903,7 @@
         <v>765</v>
       </c>
       <c r="F37" t="s">
-        <v>741</v>
+        <v>1672</v>
       </c>
       <c r="G37" t="s">
         <v>741</v>
@@ -27142,7 +27403,7 @@
         <v>782</v>
       </c>
       <c r="F62" t="s">
-        <v>741</v>
+        <v>1715</v>
       </c>
       <c r="G62" t="s">
         <v>741</v>
@@ -27182,7 +27443,7 @@
         <v>783</v>
       </c>
       <c r="F64" t="s">
-        <v>741</v>
+        <v>1716</v>
       </c>
       <c r="G64" t="s">
         <v>741</v>
@@ -27202,7 +27463,7 @@
         <v>785</v>
       </c>
       <c r="F65" t="s">
-        <v>741</v>
+        <v>1717</v>
       </c>
       <c r="G65" t="s">
         <v>741</v>
@@ -27242,7 +27503,7 @@
         <v>787</v>
       </c>
       <c r="F67" t="s">
-        <v>741</v>
+        <v>1718</v>
       </c>
       <c r="G67" t="s">
         <v>741</v>
@@ -27282,7 +27543,7 @@
         <v>780</v>
       </c>
       <c r="F69" t="s">
-        <v>741</v>
+        <v>1674</v>
       </c>
       <c r="G69" t="s">
         <v>741</v>
@@ -27325,7 +27586,7 @@
         <v>765</v>
       </c>
       <c r="F71" t="s">
-        <v>741</v>
+        <v>1670</v>
       </c>
       <c r="G71" t="s">
         <v>741</v>
@@ -27345,7 +27606,7 @@
         <v>765</v>
       </c>
       <c r="F72" t="s">
-        <v>741</v>
+        <v>1667</v>
       </c>
       <c r="G72" t="s">
         <v>741</v>
@@ -27365,7 +27626,7 @@
         <v>765</v>
       </c>
       <c r="F73" t="s">
-        <v>741</v>
+        <v>1669</v>
       </c>
       <c r="G73" t="s">
         <v>741</v>
@@ -27385,7 +27646,7 @@
         <v>765</v>
       </c>
       <c r="F74" t="s">
-        <v>741</v>
+        <v>1668</v>
       </c>
       <c r="G74" t="s">
         <v>741</v>
@@ -27405,7 +27666,7 @@
         <v>765</v>
       </c>
       <c r="F75" t="s">
-        <v>741</v>
+        <v>1671</v>
       </c>
       <c r="G75" t="s">
         <v>741</v>
@@ -28365,7 +28626,7 @@
         <v>814</v>
       </c>
       <c r="F123" t="s">
-        <v>741</v>
+        <v>1702</v>
       </c>
       <c r="G123" t="s">
         <v>741</v>
@@ -28385,7 +28646,7 @@
         <v>810</v>
       </c>
       <c r="F124" t="s">
-        <v>741</v>
+        <v>1703</v>
       </c>
       <c r="G124" t="s">
         <v>741</v>
@@ -28405,7 +28666,7 @@
         <v>811</v>
       </c>
       <c r="F125" t="s">
-        <v>741</v>
+        <v>1704</v>
       </c>
       <c r="G125" t="s">
         <v>741</v>
@@ -28665,7 +28926,7 @@
         <v>765</v>
       </c>
       <c r="F138" t="s">
-        <v>741</v>
+        <v>1666</v>
       </c>
       <c r="G138" t="s">
         <v>741</v>
@@ -29700,7 +29961,7 @@
         <v>741</v>
       </c>
       <c r="F189" t="s">
-        <v>741</v>
+        <v>1689</v>
       </c>
       <c r="G189" t="s">
         <v>741</v>
@@ -29720,7 +29981,7 @@
         <v>741</v>
       </c>
       <c r="F190" t="s">
-        <v>741</v>
+        <v>1690</v>
       </c>
       <c r="G190" t="s">
         <v>741</v>
@@ -29760,7 +30021,7 @@
         <v>741</v>
       </c>
       <c r="F192" t="s">
-        <v>741</v>
+        <v>1692</v>
       </c>
       <c r="G192" t="s">
         <v>741</v>
@@ -30520,7 +30781,7 @@
         <v>765</v>
       </c>
       <c r="F230" t="s">
-        <v>741</v>
+        <v>1691</v>
       </c>
       <c r="G230" t="s">
         <v>741</v>
@@ -30540,7 +30801,7 @@
         <v>765</v>
       </c>
       <c r="F231" t="s">
-        <v>741</v>
+        <v>1688</v>
       </c>
       <c r="G231" t="s">
         <v>741</v>
@@ -30560,7 +30821,7 @@
         <v>741</v>
       </c>
       <c r="F232" t="s">
-        <v>741</v>
+        <v>1694</v>
       </c>
       <c r="G232" t="s">
         <v>741</v>
@@ -30580,7 +30841,7 @@
         <v>741</v>
       </c>
       <c r="F233" t="s">
-        <v>741</v>
+        <v>1687</v>
       </c>
       <c r="G233" t="s">
         <v>741</v>
@@ -30600,7 +30861,7 @@
         <v>741</v>
       </c>
       <c r="F234" t="s">
-        <v>741</v>
+        <v>1695</v>
       </c>
       <c r="G234" t="s">
         <v>741</v>
@@ -30640,7 +30901,7 @@
         <v>1582</v>
       </c>
       <c r="F236" t="s">
-        <v>741</v>
+        <v>1693</v>
       </c>
       <c r="G236" t="s">
         <v>741</v>
@@ -30720,7 +30981,7 @@
         <v>1586</v>
       </c>
       <c r="F240" t="s">
-        <v>741</v>
+        <v>1714</v>
       </c>
       <c r="G240" t="s">
         <v>741</v>
@@ -30783,7 +31044,7 @@
         <v>741</v>
       </c>
       <c r="F243" t="s">
-        <v>741</v>
+        <v>1700</v>
       </c>
       <c r="G243" t="s">
         <v>741</v>
@@ -31383,7 +31644,7 @@
         <v>1588</v>
       </c>
       <c r="F273" t="s">
-        <v>741</v>
+        <v>1711</v>
       </c>
       <c r="G273" t="s">
         <v>741</v>
@@ -31403,7 +31664,7 @@
         <v>1592</v>
       </c>
       <c r="F274" t="s">
-        <v>741</v>
+        <v>1710</v>
       </c>
       <c r="G274" t="s">
         <v>741</v>
@@ -31423,7 +31684,7 @@
         <v>1593</v>
       </c>
       <c r="F275" t="s">
-        <v>741</v>
+        <v>1712</v>
       </c>
       <c r="G275" t="s">
         <v>741</v>
@@ -31443,7 +31704,7 @@
         <v>1598</v>
       </c>
       <c r="F276" t="s">
-        <v>741</v>
+        <v>1713</v>
       </c>
       <c r="G276" t="s">
         <v>741</v>
@@ -34409,7 +34670,7 @@
         <v>741</v>
       </c>
       <c r="F424" t="s">
-        <v>741</v>
+        <v>1680</v>
       </c>
       <c r="G424" t="s">
         <v>741</v>
@@ -34429,7 +34690,7 @@
         <v>765</v>
       </c>
       <c r="F425" t="s">
-        <v>741</v>
+        <v>1678</v>
       </c>
       <c r="G425" t="s">
         <v>741</v>
@@ -34449,7 +34710,7 @@
         <v>765</v>
       </c>
       <c r="F426" t="s">
-        <v>741</v>
+        <v>1682</v>
       </c>
       <c r="G426" t="s">
         <v>741</v>
@@ -34469,7 +34730,7 @@
         <v>765</v>
       </c>
       <c r="F427" t="s">
-        <v>741</v>
+        <v>1681</v>
       </c>
       <c r="G427" t="s">
         <v>741</v>
@@ -34489,7 +34750,7 @@
         <v>741</v>
       </c>
       <c r="F428" t="s">
-        <v>741</v>
+        <v>1677</v>
       </c>
       <c r="G428" t="s">
         <v>741</v>
@@ -34509,7 +34770,7 @@
         <v>741</v>
       </c>
       <c r="F429" t="s">
-        <v>741</v>
+        <v>1675</v>
       </c>
       <c r="G429" t="s">
         <v>741</v>
@@ -34529,7 +34790,7 @@
         <v>765</v>
       </c>
       <c r="F430" t="s">
-        <v>741</v>
+        <v>1679</v>
       </c>
       <c r="G430" t="s">
         <v>741</v>
@@ -34549,7 +34810,7 @@
         <v>741</v>
       </c>
       <c r="F431" t="s">
-        <v>741</v>
+        <v>1676</v>
       </c>
       <c r="G431" t="s">
         <v>741</v>
@@ -34569,7 +34830,7 @@
         <v>741</v>
       </c>
       <c r="F432" t="s">
-        <v>741</v>
+        <v>1686</v>
       </c>
       <c r="G432" t="s">
         <v>741</v>
@@ -35029,7 +35290,7 @@
         <v>765</v>
       </c>
       <c r="F455" t="s">
-        <v>741</v>
+        <v>1684</v>
       </c>
       <c r="G455" t="s">
         <v>741</v>
@@ -35049,7 +35310,7 @@
         <v>741</v>
       </c>
       <c r="F456" t="s">
-        <v>741</v>
+        <v>1685</v>
       </c>
       <c r="G456" t="s">
         <v>741</v>
@@ -35089,7 +35350,7 @@
         <v>765</v>
       </c>
       <c r="F458" t="s">
-        <v>741</v>
+        <v>1683</v>
       </c>
       <c r="G458" t="s">
         <v>741</v>
@@ -35109,7 +35370,7 @@
         <v>1591</v>
       </c>
       <c r="F459" t="s">
-        <v>741</v>
+        <v>1705</v>
       </c>
       <c r="G459" t="s">
         <v>741</v>
@@ -35129,7 +35390,7 @@
         <v>1606</v>
       </c>
       <c r="F460" t="s">
-        <v>741</v>
+        <v>1706</v>
       </c>
       <c r="G460" t="s">
         <v>741</v>
@@ -35149,7 +35410,7 @@
         <v>1608</v>
       </c>
       <c r="F461" t="s">
-        <v>741</v>
+        <v>1707</v>
       </c>
       <c r="G461" t="s">
         <v>741</v>
@@ -35618,7 +35879,7 @@
         <v>741</v>
       </c>
       <c r="F484" t="s">
-        <v>741</v>
+        <v>1701</v>
       </c>
       <c r="G484" t="s">
         <v>741</v>
@@ -35881,7 +36142,7 @@
         <v>741</v>
       </c>
       <c r="F497" t="s">
-        <v>741</v>
+        <v>1665</v>
       </c>
       <c r="G497" t="s">
         <v>741</v>
@@ -35897,8 +36158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28873CF9-E3BC-49B1-B081-ECDB2863C8AA}">
   <dimension ref="A1:G494"/>
   <sheetViews>
-    <sheetView topLeftCell="A333" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E346" sqref="E346"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36326,7 +36587,9 @@
       <c r="E22" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>1708</v>
+      </c>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -36345,7 +36608,9 @@
       <c r="E23" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>1709</v>
+      </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -36421,7 +36686,9 @@
       <c r="E27" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>1698</v>
+      </c>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -36482,7 +36749,9 @@
       <c r="E30" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>1699</v>
+      </c>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -36537,7 +36806,9 @@
       <c r="E33" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>1697</v>
+      </c>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -36556,7 +36827,9 @@
       <c r="E34" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>1696</v>
+      </c>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36949,7 +37222,9 @@
       <c r="E53" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>1673</v>
+      </c>
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -36968,7 +37243,9 @@
       <c r="E54" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="6" t="s">
+        <v>1672</v>
+      </c>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -36987,7 +37264,9 @@
       <c r="E55" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="F55" s="6"/>
+      <c r="F55" s="6" t="s">
+        <v>1674</v>
+      </c>
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -37025,7 +37304,9 @@
       <c r="E57" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="F57" s="6"/>
+      <c r="F57" s="6" t="s">
+        <v>1715</v>
+      </c>
       <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -37044,7 +37325,9 @@
       <c r="E58" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="F58" s="6"/>
+      <c r="F58" s="6" t="s">
+        <v>1716</v>
+      </c>
       <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -37082,7 +37365,9 @@
       <c r="E60" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="F60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>1717</v>
+      </c>
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -37120,7 +37405,9 @@
       <c r="E62" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="F62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>1718</v>
+      </c>
       <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -37571,7 +37858,9 @@
       <c r="E85" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F85" s="6"/>
+      <c r="F85" s="6" t="s">
+        <v>1666</v>
+      </c>
       <c r="G85" s="6"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -37670,7 +37959,9 @@
       <c r="E90" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F90" s="6"/>
+      <c r="F90" s="6" t="s">
+        <v>1667</v>
+      </c>
       <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -37689,7 +37980,9 @@
       <c r="E91" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F91" s="6"/>
+      <c r="F91" s="6" t="s">
+        <v>1671</v>
+      </c>
       <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -37708,7 +38001,9 @@
       <c r="E92" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F92" s="6"/>
+      <c r="F92" s="6" t="s">
+        <v>1669</v>
+      </c>
       <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -37727,7 +38022,9 @@
       <c r="E93" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F93" s="6"/>
+      <c r="F93" s="6" t="s">
+        <v>1670</v>
+      </c>
       <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -37746,7 +38043,9 @@
       <c r="E94" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F94" s="6"/>
+      <c r="F94" s="6" t="s">
+        <v>1668</v>
+      </c>
       <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -38072,7 +38371,9 @@
       <c r="E110" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="F110" s="6"/>
+      <c r="F110" s="6" t="s">
+        <v>1703</v>
+      </c>
       <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -38091,7 +38392,9 @@
       <c r="E111" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="F111" s="6"/>
+      <c r="F111" s="6" t="s">
+        <v>1704</v>
+      </c>
       <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -38148,7 +38451,9 @@
       <c r="E114" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="F114" s="6"/>
+      <c r="F114" s="6" t="s">
+        <v>1702</v>
+      </c>
       <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -40151,7 +40456,9 @@
         <v>743</v>
       </c>
       <c r="E219" s="6"/>
-      <c r="F219" s="6"/>
+      <c r="F219" s="6" t="s">
+        <v>1680</v>
+      </c>
       <c r="G219" s="6"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -40189,7 +40496,9 @@
       <c r="E221" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F221" s="6"/>
+      <c r="F221" s="6" t="s">
+        <v>1678</v>
+      </c>
       <c r="G221" s="6"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -40208,7 +40517,9 @@
       <c r="E222" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F222" s="6"/>
+      <c r="F222" s="6" t="s">
+        <v>1682</v>
+      </c>
       <c r="G222" s="6"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -40227,7 +40538,9 @@
       <c r="E223" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F223" s="6"/>
+      <c r="F223" s="6" t="s">
+        <v>1681</v>
+      </c>
       <c r="G223" s="6"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -40261,7 +40574,9 @@
         <v>747</v>
       </c>
       <c r="E225" s="6"/>
-      <c r="F225" s="6"/>
+      <c r="F225" s="6" t="s">
+        <v>1689</v>
+      </c>
       <c r="G225" s="6"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -40278,7 +40593,9 @@
         <v>743</v>
       </c>
       <c r="E226" s="6"/>
-      <c r="F226" s="6"/>
+      <c r="F226" s="6" t="s">
+        <v>1677</v>
+      </c>
       <c r="G226" s="6"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -40295,7 +40612,9 @@
         <v>743</v>
       </c>
       <c r="E227" s="6"/>
-      <c r="F227" s="6"/>
+      <c r="F227" s="6" t="s">
+        <v>1675</v>
+      </c>
       <c r="G227" s="6"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -40314,7 +40633,9 @@
       <c r="E228" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F228" s="6"/>
+      <c r="F228" s="6" t="s">
+        <v>1679</v>
+      </c>
       <c r="G228" s="6"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -40350,7 +40671,9 @@
         <v>747</v>
       </c>
       <c r="E230" s="6"/>
-      <c r="F230" s="6"/>
+      <c r="F230" s="6" t="s">
+        <v>1690</v>
+      </c>
       <c r="G230" s="6"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -40367,7 +40690,9 @@
         <v>743</v>
       </c>
       <c r="E231" s="6"/>
-      <c r="F231" s="6"/>
+      <c r="F231" s="6" t="s">
+        <v>1676</v>
+      </c>
       <c r="G231" s="6"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -40435,7 +40760,9 @@
         <v>743</v>
       </c>
       <c r="E235" s="6"/>
-      <c r="F235" s="6"/>
+      <c r="F235" s="6" t="s">
+        <v>1686</v>
+      </c>
       <c r="G235" s="6"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -40469,7 +40796,9 @@
         <v>745</v>
       </c>
       <c r="E237" s="6"/>
-      <c r="F237" s="6"/>
+      <c r="F237" s="6" t="s">
+        <v>1700</v>
+      </c>
       <c r="G237" s="6"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -40520,7 +40849,9 @@
         <v>747</v>
       </c>
       <c r="E240" s="6"/>
-      <c r="F240" s="6"/>
+      <c r="F240" s="6" t="s">
+        <v>1692</v>
+      </c>
       <c r="G240" s="6"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -43454,7 +43785,9 @@
         <v>1619</v>
       </c>
       <c r="E392" s="6"/>
-      <c r="F392" s="6"/>
+      <c r="F392" s="6" t="s">
+        <v>1701</v>
+      </c>
       <c r="G392" s="6"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
@@ -43490,7 +43823,9 @@
       <c r="E394" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F394" s="6"/>
+      <c r="F394" s="6" t="s">
+        <v>1684</v>
+      </c>
       <c r="G394" s="6"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
@@ -43509,7 +43844,9 @@
       <c r="E395" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F395" s="6"/>
+      <c r="F395" s="6" t="s">
+        <v>1691</v>
+      </c>
       <c r="G395" s="6"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
@@ -43560,7 +43897,9 @@
         <v>743</v>
       </c>
       <c r="E398" s="6"/>
-      <c r="F398" s="6"/>
+      <c r="F398" s="6" t="s">
+        <v>1685</v>
+      </c>
       <c r="G398" s="6"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
@@ -43596,7 +43935,9 @@
       <c r="E400" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F400" s="6"/>
+      <c r="F400" s="6" t="s">
+        <v>1683</v>
+      </c>
       <c r="G400" s="6"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
@@ -43634,7 +43975,9 @@
       <c r="E402" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F402" s="6"/>
+      <c r="F402" s="6" t="s">
+        <v>1688</v>
+      </c>
       <c r="G402" s="6"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
@@ -43651,7 +43994,9 @@
         <v>747</v>
       </c>
       <c r="E403" s="6"/>
-      <c r="F403" s="6"/>
+      <c r="F403" s="6" t="s">
+        <v>1694</v>
+      </c>
       <c r="G403" s="6"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
@@ -43668,7 +44013,9 @@
         <v>747</v>
       </c>
       <c r="E404" s="6"/>
-      <c r="F404" s="6"/>
+      <c r="F404" s="6" t="s">
+        <v>1687</v>
+      </c>
       <c r="G404" s="6"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
@@ -43685,7 +44032,9 @@
         <v>747</v>
       </c>
       <c r="E405" s="6"/>
-      <c r="F405" s="6"/>
+      <c r="F405" s="6" t="s">
+        <v>1695</v>
+      </c>
       <c r="G405" s="6"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
@@ -43789,7 +44138,9 @@
       <c r="E411" s="6" t="s">
         <v>1582</v>
       </c>
-      <c r="F411" s="6"/>
+      <c r="F411" s="6" t="s">
+        <v>1693</v>
+      </c>
       <c r="G411" s="6"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
@@ -44415,7 +44766,9 @@
       <c r="E445" s="6" t="s">
         <v>1586</v>
       </c>
-      <c r="F445" s="6"/>
+      <c r="F445" s="6" t="s">
+        <v>1714</v>
+      </c>
       <c r="G445" s="6"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.3">
@@ -44453,7 +44806,9 @@
       <c r="E447" s="6" t="s">
         <v>1588</v>
       </c>
-      <c r="F447" s="6"/>
+      <c r="F447" s="6" t="s">
+        <v>1711</v>
+      </c>
       <c r="G447" s="6"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
@@ -44510,7 +44865,9 @@
       <c r="E450" s="6" t="s">
         <v>1591</v>
       </c>
-      <c r="F450" s="6"/>
+      <c r="F450" s="6" t="s">
+        <v>1705</v>
+      </c>
       <c r="G450" s="6"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.3">
@@ -44548,7 +44905,9 @@
       <c r="E452" s="6" t="s">
         <v>1592</v>
       </c>
-      <c r="F452" s="6"/>
+      <c r="F452" s="6" t="s">
+        <v>1710</v>
+      </c>
       <c r="G452" s="6"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.3">
@@ -44567,7 +44926,9 @@
       <c r="E453" s="6" t="s">
         <v>1593</v>
       </c>
-      <c r="F453" s="6"/>
+      <c r="F453" s="6" t="s">
+        <v>1712</v>
+      </c>
       <c r="G453" s="6"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.3">
@@ -44662,7 +45023,9 @@
       <c r="E458" s="6" t="s">
         <v>1598</v>
       </c>
-      <c r="F458" s="6"/>
+      <c r="F458" s="6" t="s">
+        <v>1713</v>
+      </c>
       <c r="G458" s="6"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.3">
@@ -44814,7 +45177,9 @@
       <c r="E466" s="6" t="s">
         <v>1606</v>
       </c>
-      <c r="F466" s="6"/>
+      <c r="F466" s="6" t="s">
+        <v>1706</v>
+      </c>
       <c r="G466" s="6"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.3">
@@ -44871,7 +45236,9 @@
       <c r="E469" s="6" t="s">
         <v>1608</v>
       </c>
-      <c r="F469" s="6"/>
+      <c r="F469" s="6" t="s">
+        <v>1707</v>
+      </c>
       <c r="G469" s="6"/>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.3">
@@ -45284,7 +45651,9 @@
         <v>1620</v>
       </c>
       <c r="E492" s="6"/>
-      <c r="F492" s="6"/>
+      <c r="F492" s="6" t="s">
+        <v>1665</v>
+      </c>
       <c r="G492" s="6"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.3">

--- a/PARC RZB (version 1).xlsx
+++ b/PARC RZB (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthur.cahn\OneDrive - Groupe Exedra\Bureau\App-Parc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B19D04-DC5B-42A9-8AD0-89119EDC4356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095C2990-0784-45FE-A9EF-8FC8276630B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16380" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{3DFD6CFB-0C71-4847-AAE3-4AD380DC4CBE}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="86" r:id="rId4"/>
+    <pivotCache cacheId="98" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7075" uniqueCount="1944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7077" uniqueCount="1945">
   <si>
     <t>Libellé</t>
   </si>
@@ -6020,6 +6020,9 @@
   </si>
   <si>
     <t>CYRIES</t>
+  </si>
+  <si>
+    <t>RAS</t>
   </si>
 </sst>
 </file>
@@ -6350,7 +6353,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CAHN Arthur" refreshedDate="46078.594600694443" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="494" xr:uid="{0F99EE54-8968-4F1A-9D7A-78457B92DB09}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CAHN Arthur" refreshedDate="46078.610339583334" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="494" xr:uid="{0F99EE54-8968-4F1A-9D7A-78457B92DB09}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Feuil1"/>
   </cacheSource>
@@ -12085,8 +12088,8 @@
       </sharedItems>
     </cacheField>
     <cacheField name="COMMENTAIRE" numFmtId="0">
-      <sharedItems containsBlank="1" count="257">
-        <s v=" "/>
+      <sharedItems containsBlank="1" count="258">
+        <s v="RAS"/>
         <s v="SARRAZIN Benjamin"/>
         <s v="MOUELE HUGOR"/>
         <s v="ANTOINE ALRIC"/>
@@ -12100,7 +12103,6 @@
         <s v="VILLAIN Sandrine"/>
         <s v="JAYSON SERDA"/>
         <s v="GOUINAUD Didier"/>
-        <m/>
         <s v="SERDA Jayson"/>
         <s v="VE ATELIER"/>
         <s v="COSTA Paulo"/>
@@ -12343,6 +12345,8 @@
         <s v="RESTITUE A LOXAM LE 06/05/2022"/>
         <s v="M. DEBAT"/>
         <s v="CYRIES"/>
+        <m/>
+        <s v=" " u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="N° SERIE" numFmtId="0">
@@ -12648,7 +12652,7 @@
     <x v="13"/>
     <x v="1"/>
     <x v="15"/>
-    <x v="14"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -12658,7 +12662,7 @@
     <x v="15"/>
     <x v="1"/>
     <x v="16"/>
-    <x v="15"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -12668,7 +12672,7 @@
     <x v="16"/>
     <x v="1"/>
     <x v="17"/>
-    <x v="16"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -12678,7 +12682,7 @@
     <x v="17"/>
     <x v="1"/>
     <x v="18"/>
-    <x v="17"/>
+    <x v="16"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -12688,7 +12692,7 @@
     <x v="18"/>
     <x v="2"/>
     <x v="19"/>
-    <x v="18"/>
+    <x v="17"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -12798,7 +12802,7 @@
     <x v="29"/>
     <x v="2"/>
     <x v="15"/>
-    <x v="19"/>
+    <x v="18"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -12808,7 +12812,7 @@
     <x v="30"/>
     <x v="2"/>
     <x v="22"/>
-    <x v="20"/>
+    <x v="19"/>
     <x v="9"/>
     <x v="0"/>
   </r>
@@ -12838,7 +12842,7 @@
     <x v="33"/>
     <x v="2"/>
     <x v="28"/>
-    <x v="21"/>
+    <x v="20"/>
     <x v="12"/>
     <x v="1"/>
   </r>
@@ -12848,7 +12852,7 @@
     <x v="34"/>
     <x v="2"/>
     <x v="29"/>
-    <x v="22"/>
+    <x v="21"/>
     <x v="13"/>
     <x v="2"/>
   </r>
@@ -12858,7 +12862,7 @@
     <x v="35"/>
     <x v="2"/>
     <x v="30"/>
-    <x v="23"/>
+    <x v="22"/>
     <x v="14"/>
     <x v="3"/>
   </r>
@@ -12878,7 +12882,7 @@
     <x v="37"/>
     <x v="2"/>
     <x v="32"/>
-    <x v="24"/>
+    <x v="23"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -12888,7 +12892,7 @@
     <x v="38"/>
     <x v="2"/>
     <x v="33"/>
-    <x v="25"/>
+    <x v="24"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -12908,7 +12912,7 @@
     <x v="40"/>
     <x v="2"/>
     <x v="35"/>
-    <x v="26"/>
+    <x v="25"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -12958,7 +12962,7 @@
     <x v="45"/>
     <x v="3"/>
     <x v="40"/>
-    <x v="27"/>
+    <x v="26"/>
     <x v="19"/>
     <x v="7"/>
   </r>
@@ -13108,7 +13112,7 @@
     <x v="60"/>
     <x v="3"/>
     <x v="49"/>
-    <x v="28"/>
+    <x v="27"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13118,7 +13122,7 @@
     <x v="61"/>
     <x v="3"/>
     <x v="50"/>
-    <x v="29"/>
+    <x v="28"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13128,7 +13132,7 @@
     <x v="62"/>
     <x v="3"/>
     <x v="51"/>
-    <x v="30"/>
+    <x v="29"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13138,7 +13142,7 @@
     <x v="63"/>
     <x v="3"/>
     <x v="52"/>
-    <x v="31"/>
+    <x v="30"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13148,7 +13152,7 @@
     <x v="64"/>
     <x v="3"/>
     <x v="53"/>
-    <x v="32"/>
+    <x v="31"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13158,7 +13162,7 @@
     <x v="65"/>
     <x v="3"/>
     <x v="54"/>
-    <x v="33"/>
+    <x v="32"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13168,7 +13172,7 @@
     <x v="66"/>
     <x v="3"/>
     <x v="55"/>
-    <x v="34"/>
+    <x v="33"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13178,7 +13182,7 @@
     <x v="67"/>
     <x v="3"/>
     <x v="56"/>
-    <x v="35"/>
+    <x v="34"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13188,7 +13192,7 @@
     <x v="68"/>
     <x v="3"/>
     <x v="57"/>
-    <x v="36"/>
+    <x v="35"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13208,7 +13212,7 @@
     <x v="70"/>
     <x v="4"/>
     <x v="59"/>
-    <x v="37"/>
+    <x v="36"/>
     <x v="28"/>
     <x v="9"/>
   </r>
@@ -13228,7 +13232,7 @@
     <x v="72"/>
     <x v="4"/>
     <x v="61"/>
-    <x v="38"/>
+    <x v="37"/>
     <x v="29"/>
     <x v="0"/>
   </r>
@@ -13328,7 +13332,7 @@
     <x v="82"/>
     <x v="4"/>
     <x v="22"/>
-    <x v="38"/>
+    <x v="37"/>
     <x v="30"/>
     <x v="0"/>
   </r>
@@ -13358,7 +13362,7 @@
     <x v="85"/>
     <x v="4"/>
     <x v="63"/>
-    <x v="39"/>
+    <x v="38"/>
     <x v="32"/>
     <x v="0"/>
   </r>
@@ -13368,7 +13372,7 @@
     <x v="86"/>
     <x v="4"/>
     <x v="64"/>
-    <x v="40"/>
+    <x v="39"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13448,7 +13452,7 @@
     <x v="94"/>
     <x v="4"/>
     <x v="67"/>
-    <x v="41"/>
+    <x v="40"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13468,7 +13472,7 @@
     <x v="96"/>
     <x v="4"/>
     <x v="69"/>
-    <x v="38"/>
+    <x v="37"/>
     <x v="38"/>
     <x v="0"/>
   </r>
@@ -13488,7 +13492,7 @@
     <x v="98"/>
     <x v="4"/>
     <x v="71"/>
-    <x v="38"/>
+    <x v="37"/>
     <x v="40"/>
     <x v="12"/>
   </r>
@@ -13508,7 +13512,7 @@
     <x v="100"/>
     <x v="4"/>
     <x v="73"/>
-    <x v="42"/>
+    <x v="41"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13518,7 +13522,7 @@
     <x v="101"/>
     <x v="4"/>
     <x v="74"/>
-    <x v="43"/>
+    <x v="42"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13558,7 +13562,7 @@
     <x v="105"/>
     <x v="4"/>
     <x v="78"/>
-    <x v="44"/>
+    <x v="43"/>
     <x v="45"/>
     <x v="0"/>
   </r>
@@ -13588,7 +13592,7 @@
     <x v="108"/>
     <x v="4"/>
     <x v="81"/>
-    <x v="45"/>
+    <x v="44"/>
     <x v="47"/>
     <x v="0"/>
   </r>
@@ -13598,7 +13602,7 @@
     <x v="109"/>
     <x v="4"/>
     <x v="82"/>
-    <x v="46"/>
+    <x v="45"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13638,7 +13642,7 @@
     <x v="113"/>
     <x v="4"/>
     <x v="86"/>
-    <x v="47"/>
+    <x v="46"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13648,7 +13652,7 @@
     <x v="13"/>
     <x v="4"/>
     <x v="15"/>
-    <x v="14"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13658,7 +13662,7 @@
     <x v="114"/>
     <x v="4"/>
     <x v="87"/>
-    <x v="48"/>
+    <x v="47"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13668,7 +13672,7 @@
     <x v="115"/>
     <x v="4"/>
     <x v="88"/>
-    <x v="49"/>
+    <x v="48"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13678,7 +13682,7 @@
     <x v="116"/>
     <x v="4"/>
     <x v="89"/>
-    <x v="50"/>
+    <x v="49"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13688,7 +13692,7 @@
     <x v="117"/>
     <x v="4"/>
     <x v="90"/>
-    <x v="51"/>
+    <x v="50"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13698,7 +13702,7 @@
     <x v="118"/>
     <x v="4"/>
     <x v="91"/>
-    <x v="52"/>
+    <x v="51"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13708,7 +13712,7 @@
     <x v="119"/>
     <x v="4"/>
     <x v="92"/>
-    <x v="53"/>
+    <x v="52"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13718,7 +13722,7 @@
     <x v="120"/>
     <x v="4"/>
     <x v="93"/>
-    <x v="54"/>
+    <x v="53"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13728,7 +13732,7 @@
     <x v="121"/>
     <x v="4"/>
     <x v="94"/>
-    <x v="55"/>
+    <x v="54"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13738,7 +13742,7 @@
     <x v="122"/>
     <x v="4"/>
     <x v="95"/>
-    <x v="48"/>
+    <x v="47"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13748,7 +13752,7 @@
     <x v="123"/>
     <x v="4"/>
     <x v="96"/>
-    <x v="56"/>
+    <x v="55"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13758,7 +13762,7 @@
     <x v="124"/>
     <x v="5"/>
     <x v="97"/>
-    <x v="57"/>
+    <x v="56"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13768,7 +13772,7 @@
     <x v="125"/>
     <x v="5"/>
     <x v="98"/>
-    <x v="58"/>
+    <x v="57"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13778,7 +13782,7 @@
     <x v="126"/>
     <x v="5"/>
     <x v="99"/>
-    <x v="59"/>
+    <x v="58"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13798,7 +13802,7 @@
     <x v="128"/>
     <x v="5"/>
     <x v="101"/>
-    <x v="60"/>
+    <x v="59"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13808,7 +13812,7 @@
     <x v="129"/>
     <x v="5"/>
     <x v="102"/>
-    <x v="61"/>
+    <x v="60"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13828,7 +13832,7 @@
     <x v="131"/>
     <x v="5"/>
     <x v="104"/>
-    <x v="62"/>
+    <x v="61"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13838,7 +13842,7 @@
     <x v="132"/>
     <x v="5"/>
     <x v="105"/>
-    <x v="63"/>
+    <x v="62"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13848,7 +13852,7 @@
     <x v="133"/>
     <x v="5"/>
     <x v="106"/>
-    <x v="64"/>
+    <x v="63"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13858,7 +13862,7 @@
     <x v="134"/>
     <x v="5"/>
     <x v="107"/>
-    <x v="65"/>
+    <x v="64"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13868,7 +13872,7 @@
     <x v="135"/>
     <x v="5"/>
     <x v="108"/>
-    <x v="66"/>
+    <x v="65"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13878,7 +13882,7 @@
     <x v="136"/>
     <x v="6"/>
     <x v="109"/>
-    <x v="67"/>
+    <x v="66"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13888,7 +13892,7 @@
     <x v="137"/>
     <x v="6"/>
     <x v="110"/>
-    <x v="68"/>
+    <x v="67"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13898,7 +13902,7 @@
     <x v="138"/>
     <x v="6"/>
     <x v="111"/>
-    <x v="69"/>
+    <x v="68"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -13908,7 +13912,7 @@
     <x v="139"/>
     <x v="6"/>
     <x v="112"/>
-    <x v="70"/>
+    <x v="69"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -13918,7 +13922,7 @@
     <x v="140"/>
     <x v="6"/>
     <x v="113"/>
-    <x v="71"/>
+    <x v="70"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13928,7 +13932,7 @@
     <x v="141"/>
     <x v="6"/>
     <x v="114"/>
-    <x v="72"/>
+    <x v="71"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13938,7 +13942,7 @@
     <x v="142"/>
     <x v="6"/>
     <x v="115"/>
-    <x v="73"/>
+    <x v="72"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13948,7 +13952,7 @@
     <x v="143"/>
     <x v="7"/>
     <x v="116"/>
-    <x v="74"/>
+    <x v="73"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13958,7 +13962,7 @@
     <x v="144"/>
     <x v="7"/>
     <x v="117"/>
-    <x v="75"/>
+    <x v="74"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13968,7 +13972,7 @@
     <x v="145"/>
     <x v="7"/>
     <x v="118"/>
-    <x v="76"/>
+    <x v="75"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13978,7 +13982,7 @@
     <x v="146"/>
     <x v="7"/>
     <x v="119"/>
-    <x v="77"/>
+    <x v="76"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13988,7 +13992,7 @@
     <x v="147"/>
     <x v="7"/>
     <x v="120"/>
-    <x v="78"/>
+    <x v="77"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -13998,7 +14002,7 @@
     <x v="148"/>
     <x v="7"/>
     <x v="121"/>
-    <x v="79"/>
+    <x v="78"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14018,7 +14022,7 @@
     <x v="149"/>
     <x v="7"/>
     <x v="122"/>
-    <x v="80"/>
+    <x v="79"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14028,7 +14032,7 @@
     <x v="150"/>
     <x v="7"/>
     <x v="123"/>
-    <x v="81"/>
+    <x v="80"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14038,7 +14042,7 @@
     <x v="151"/>
     <x v="7"/>
     <x v="124"/>
-    <x v="82"/>
+    <x v="81"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14048,7 +14052,7 @@
     <x v="152"/>
     <x v="7"/>
     <x v="125"/>
-    <x v="83"/>
+    <x v="82"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14058,7 +14062,7 @@
     <x v="153"/>
     <x v="7"/>
     <x v="126"/>
-    <x v="84"/>
+    <x v="83"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14068,7 +14072,7 @@
     <x v="154"/>
     <x v="7"/>
     <x v="127"/>
-    <x v="85"/>
+    <x v="84"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14078,7 +14082,7 @@
     <x v="155"/>
     <x v="7"/>
     <x v="128"/>
-    <x v="86"/>
+    <x v="85"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14088,7 +14092,7 @@
     <x v="156"/>
     <x v="7"/>
     <x v="129"/>
-    <x v="81"/>
+    <x v="80"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14098,7 +14102,7 @@
     <x v="157"/>
     <x v="7"/>
     <x v="130"/>
-    <x v="87"/>
+    <x v="86"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14108,7 +14112,7 @@
     <x v="158"/>
     <x v="7"/>
     <x v="131"/>
-    <x v="88"/>
+    <x v="87"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14118,7 +14122,7 @@
     <x v="159"/>
     <x v="7"/>
     <x v="132"/>
-    <x v="89"/>
+    <x v="88"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14128,7 +14132,7 @@
     <x v="160"/>
     <x v="7"/>
     <x v="133"/>
-    <x v="90"/>
+    <x v="89"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14138,7 +14142,7 @@
     <x v="161"/>
     <x v="7"/>
     <x v="134"/>
-    <x v="91"/>
+    <x v="90"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14148,7 +14152,7 @@
     <x v="162"/>
     <x v="7"/>
     <x v="135"/>
-    <x v="92"/>
+    <x v="91"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14158,7 +14162,7 @@
     <x v="163"/>
     <x v="7"/>
     <x v="136"/>
-    <x v="93"/>
+    <x v="92"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14168,7 +14172,7 @@
     <x v="164"/>
     <x v="7"/>
     <x v="137"/>
-    <x v="94"/>
+    <x v="93"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14178,7 +14182,7 @@
     <x v="165"/>
     <x v="7"/>
     <x v="138"/>
-    <x v="95"/>
+    <x v="94"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14188,7 +14192,7 @@
     <x v="166"/>
     <x v="7"/>
     <x v="139"/>
-    <x v="96"/>
+    <x v="95"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14198,7 +14202,7 @@
     <x v="167"/>
     <x v="7"/>
     <x v="140"/>
-    <x v="97"/>
+    <x v="96"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14208,7 +14212,7 @@
     <x v="168"/>
     <x v="7"/>
     <x v="141"/>
-    <x v="98"/>
+    <x v="97"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14218,7 +14222,7 @@
     <x v="169"/>
     <x v="7"/>
     <x v="142"/>
-    <x v="99"/>
+    <x v="98"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14228,7 +14232,7 @@
     <x v="170"/>
     <x v="7"/>
     <x v="143"/>
-    <x v="100"/>
+    <x v="99"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14238,7 +14242,7 @@
     <x v="171"/>
     <x v="7"/>
     <x v="144"/>
-    <x v="101"/>
+    <x v="100"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14248,7 +14252,7 @@
     <x v="172"/>
     <x v="7"/>
     <x v="145"/>
-    <x v="102"/>
+    <x v="101"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14258,7 +14262,7 @@
     <x v="173"/>
     <x v="8"/>
     <x v="146"/>
-    <x v="103"/>
+    <x v="102"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14268,7 +14272,7 @@
     <x v="174"/>
     <x v="8"/>
     <x v="147"/>
-    <x v="104"/>
+    <x v="103"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14278,7 +14282,7 @@
     <x v="175"/>
     <x v="8"/>
     <x v="148"/>
-    <x v="105"/>
+    <x v="104"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14288,7 +14292,7 @@
     <x v="176"/>
     <x v="8"/>
     <x v="149"/>
-    <x v="106"/>
+    <x v="105"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14298,7 +14302,7 @@
     <x v="177"/>
     <x v="8"/>
     <x v="150"/>
-    <x v="107"/>
+    <x v="106"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14308,7 +14312,7 @@
     <x v="178"/>
     <x v="9"/>
     <x v="151"/>
-    <x v="108"/>
+    <x v="107"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14318,7 +14322,7 @@
     <x v="179"/>
     <x v="9"/>
     <x v="152"/>
-    <x v="109"/>
+    <x v="108"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14328,7 +14332,7 @@
     <x v="180"/>
     <x v="9"/>
     <x v="153"/>
-    <x v="110"/>
+    <x v="109"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14338,7 +14342,7 @@
     <x v="181"/>
     <x v="9"/>
     <x v="154"/>
-    <x v="111"/>
+    <x v="110"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14348,7 +14352,7 @@
     <x v="182"/>
     <x v="9"/>
     <x v="155"/>
-    <x v="112"/>
+    <x v="111"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14358,7 +14362,7 @@
     <x v="183"/>
     <x v="9"/>
     <x v="156"/>
-    <x v="113"/>
+    <x v="112"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14368,7 +14372,7 @@
     <x v="184"/>
     <x v="9"/>
     <x v="157"/>
-    <x v="114"/>
+    <x v="113"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14378,7 +14382,7 @@
     <x v="185"/>
     <x v="9"/>
     <x v="158"/>
-    <x v="115"/>
+    <x v="114"/>
     <x v="49"/>
     <x v="0"/>
   </r>
@@ -14428,7 +14432,7 @@
     <x v="190"/>
     <x v="9"/>
     <x v="163"/>
-    <x v="110"/>
+    <x v="109"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14438,7 +14442,7 @@
     <x v="191"/>
     <x v="9"/>
     <x v="164"/>
-    <x v="110"/>
+    <x v="109"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14478,7 +14482,7 @@
     <x v="195"/>
     <x v="0"/>
     <x v="167"/>
-    <x v="116"/>
+    <x v="115"/>
     <x v="54"/>
     <x v="0"/>
   </r>
@@ -14528,7 +14532,7 @@
     <x v="200"/>
     <x v="8"/>
     <x v="172"/>
-    <x v="117"/>
+    <x v="116"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14548,7 +14552,7 @@
     <x v="202"/>
     <x v="2"/>
     <x v="173"/>
-    <x v="118"/>
+    <x v="117"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14558,7 +14562,7 @@
     <x v="203"/>
     <x v="5"/>
     <x v="174"/>
-    <x v="119"/>
+    <x v="118"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14578,7 +14582,7 @@
     <x v="205"/>
     <x v="10"/>
     <x v="15"/>
-    <x v="120"/>
+    <x v="119"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14588,7 +14592,7 @@
     <x v="206"/>
     <x v="6"/>
     <x v="15"/>
-    <x v="121"/>
+    <x v="120"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14598,7 +14602,7 @@
     <x v="207"/>
     <x v="7"/>
     <x v="15"/>
-    <x v="122"/>
+    <x v="121"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14608,7 +14612,7 @@
     <x v="208"/>
     <x v="8"/>
     <x v="15"/>
-    <x v="123"/>
+    <x v="122"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14618,7 +14622,7 @@
     <x v="209"/>
     <x v="7"/>
     <x v="15"/>
-    <x v="124"/>
+    <x v="123"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14628,7 +14632,7 @@
     <x v="210"/>
     <x v="8"/>
     <x v="15"/>
-    <x v="125"/>
+    <x v="124"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14748,7 +14752,7 @@
     <x v="222"/>
     <x v="8"/>
     <x v="15"/>
-    <x v="126"/>
+    <x v="125"/>
     <x v="65"/>
     <x v="0"/>
   </r>
@@ -14778,7 +14782,7 @@
     <x v="225"/>
     <x v="5"/>
     <x v="15"/>
-    <x v="127"/>
+    <x v="126"/>
     <x v="67"/>
     <x v="0"/>
   </r>
@@ -14868,7 +14872,7 @@
     <x v="234"/>
     <x v="7"/>
     <x v="15"/>
-    <x v="128"/>
+    <x v="127"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14878,7 +14882,7 @@
     <x v="235"/>
     <x v="5"/>
     <x v="15"/>
-    <x v="129"/>
+    <x v="128"/>
     <x v="71"/>
     <x v="0"/>
   </r>
@@ -14888,7 +14892,7 @@
     <x v="236"/>
     <x v="5"/>
     <x v="177"/>
-    <x v="119"/>
+    <x v="118"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14898,7 +14902,7 @@
     <x v="237"/>
     <x v="8"/>
     <x v="178"/>
-    <x v="130"/>
+    <x v="129"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14908,7 +14912,7 @@
     <x v="238"/>
     <x v="0"/>
     <x v="179"/>
-    <x v="131"/>
+    <x v="130"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14918,7 +14922,7 @@
     <x v="239"/>
     <x v="8"/>
     <x v="180"/>
-    <x v="117"/>
+    <x v="116"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14928,7 +14932,7 @@
     <x v="240"/>
     <x v="7"/>
     <x v="181"/>
-    <x v="132"/>
+    <x v="131"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14938,7 +14942,7 @@
     <x v="241"/>
     <x v="5"/>
     <x v="182"/>
-    <x v="133"/>
+    <x v="132"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14948,7 +14952,7 @@
     <x v="242"/>
     <x v="4"/>
     <x v="183"/>
-    <x v="134"/>
+    <x v="133"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14958,7 +14962,7 @@
     <x v="243"/>
     <x v="7"/>
     <x v="184"/>
-    <x v="135"/>
+    <x v="134"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14968,7 +14972,7 @@
     <x v="244"/>
     <x v="11"/>
     <x v="185"/>
-    <x v="136"/>
+    <x v="135"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14978,7 +14982,7 @@
     <x v="245"/>
     <x v="7"/>
     <x v="186"/>
-    <x v="137"/>
+    <x v="136"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14988,7 +14992,7 @@
     <x v="246"/>
     <x v="12"/>
     <x v="187"/>
-    <x v="138"/>
+    <x v="137"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -14998,7 +15002,7 @@
     <x v="247"/>
     <x v="7"/>
     <x v="188"/>
-    <x v="139"/>
+    <x v="138"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15008,7 +15012,7 @@
     <x v="248"/>
     <x v="7"/>
     <x v="189"/>
-    <x v="140"/>
+    <x v="139"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15018,7 +15022,7 @@
     <x v="249"/>
     <x v="8"/>
     <x v="190"/>
-    <x v="141"/>
+    <x v="140"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15028,7 +15032,7 @@
     <x v="250"/>
     <x v="7"/>
     <x v="191"/>
-    <x v="142"/>
+    <x v="141"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15038,7 +15042,7 @@
     <x v="251"/>
     <x v="7"/>
     <x v="192"/>
-    <x v="143"/>
+    <x v="142"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15048,7 +15052,7 @@
     <x v="252"/>
     <x v="6"/>
     <x v="193"/>
-    <x v="144"/>
+    <x v="143"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15058,7 +15062,7 @@
     <x v="253"/>
     <x v="7"/>
     <x v="194"/>
-    <x v="145"/>
+    <x v="144"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15068,7 +15072,7 @@
     <x v="254"/>
     <x v="2"/>
     <x v="195"/>
-    <x v="118"/>
+    <x v="117"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15078,7 +15082,7 @@
     <x v="255"/>
     <x v="5"/>
     <x v="196"/>
-    <x v="146"/>
+    <x v="145"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15088,7 +15092,7 @@
     <x v="256"/>
     <x v="4"/>
     <x v="197"/>
-    <x v="147"/>
+    <x v="146"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15098,7 +15102,7 @@
     <x v="257"/>
     <x v="7"/>
     <x v="198"/>
-    <x v="148"/>
+    <x v="147"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15108,7 +15112,7 @@
     <x v="258"/>
     <x v="3"/>
     <x v="199"/>
-    <x v="149"/>
+    <x v="148"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15118,7 +15122,7 @@
     <x v="259"/>
     <x v="5"/>
     <x v="200"/>
-    <x v="150"/>
+    <x v="149"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15128,7 +15132,7 @@
     <x v="260"/>
     <x v="2"/>
     <x v="201"/>
-    <x v="151"/>
+    <x v="150"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15138,7 +15142,7 @@
     <x v="261"/>
     <x v="4"/>
     <x v="202"/>
-    <x v="152"/>
+    <x v="151"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15148,7 +15152,7 @@
     <x v="262"/>
     <x v="7"/>
     <x v="203"/>
-    <x v="153"/>
+    <x v="152"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15158,7 +15162,7 @@
     <x v="263"/>
     <x v="0"/>
     <x v="204"/>
-    <x v="154"/>
+    <x v="153"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15168,7 +15172,7 @@
     <x v="264"/>
     <x v="11"/>
     <x v="205"/>
-    <x v="155"/>
+    <x v="154"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15178,7 +15182,7 @@
     <x v="265"/>
     <x v="11"/>
     <x v="206"/>
-    <x v="136"/>
+    <x v="135"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15188,7 +15192,7 @@
     <x v="266"/>
     <x v="7"/>
     <x v="207"/>
-    <x v="156"/>
+    <x v="155"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15198,7 +15202,7 @@
     <x v="267"/>
     <x v="11"/>
     <x v="208"/>
-    <x v="157"/>
+    <x v="156"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15208,7 +15212,7 @@
     <x v="268"/>
     <x v="3"/>
     <x v="209"/>
-    <x v="158"/>
+    <x v="157"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15218,7 +15222,7 @@
     <x v="269"/>
     <x v="8"/>
     <x v="210"/>
-    <x v="159"/>
+    <x v="158"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15228,7 +15232,7 @@
     <x v="270"/>
     <x v="4"/>
     <x v="211"/>
-    <x v="160"/>
+    <x v="159"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15238,7 +15242,7 @@
     <x v="271"/>
     <x v="2"/>
     <x v="212"/>
-    <x v="161"/>
+    <x v="160"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15248,7 +15252,7 @@
     <x v="272"/>
     <x v="5"/>
     <x v="213"/>
-    <x v="162"/>
+    <x v="161"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15258,7 +15262,7 @@
     <x v="273"/>
     <x v="4"/>
     <x v="214"/>
-    <x v="163"/>
+    <x v="162"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15268,7 +15272,7 @@
     <x v="274"/>
     <x v="4"/>
     <x v="215"/>
-    <x v="164"/>
+    <x v="163"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15278,7 +15282,7 @@
     <x v="275"/>
     <x v="3"/>
     <x v="216"/>
-    <x v="165"/>
+    <x v="164"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15288,7 +15292,7 @@
     <x v="276"/>
     <x v="8"/>
     <x v="217"/>
-    <x v="130"/>
+    <x v="129"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15298,7 +15302,7 @@
     <x v="277"/>
     <x v="7"/>
     <x v="218"/>
-    <x v="166"/>
+    <x v="165"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15308,7 +15312,7 @@
     <x v="278"/>
     <x v="7"/>
     <x v="219"/>
-    <x v="167"/>
+    <x v="166"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15318,7 +15322,7 @@
     <x v="279"/>
     <x v="6"/>
     <x v="220"/>
-    <x v="168"/>
+    <x v="167"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15328,7 +15332,7 @@
     <x v="280"/>
     <x v="7"/>
     <x v="221"/>
-    <x v="169"/>
+    <x v="168"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15338,7 +15342,7 @@
     <x v="281"/>
     <x v="3"/>
     <x v="222"/>
-    <x v="170"/>
+    <x v="169"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15348,7 +15352,7 @@
     <x v="282"/>
     <x v="6"/>
     <x v="223"/>
-    <x v="171"/>
+    <x v="170"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15358,7 +15362,7 @@
     <x v="283"/>
     <x v="2"/>
     <x v="224"/>
-    <x v="172"/>
+    <x v="171"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15368,7 +15372,7 @@
     <x v="284"/>
     <x v="5"/>
     <x v="225"/>
-    <x v="173"/>
+    <x v="172"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15378,7 +15382,7 @@
     <x v="285"/>
     <x v="3"/>
     <x v="226"/>
-    <x v="174"/>
+    <x v="173"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15388,7 +15392,7 @@
     <x v="286"/>
     <x v="7"/>
     <x v="227"/>
-    <x v="175"/>
+    <x v="174"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15398,7 +15402,7 @@
     <x v="287"/>
     <x v="4"/>
     <x v="228"/>
-    <x v="176"/>
+    <x v="175"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15408,7 +15412,7 @@
     <x v="288"/>
     <x v="7"/>
     <x v="229"/>
-    <x v="177"/>
+    <x v="176"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15418,7 +15422,7 @@
     <x v="289"/>
     <x v="5"/>
     <x v="230"/>
-    <x v="178"/>
+    <x v="177"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15428,7 +15432,7 @@
     <x v="290"/>
     <x v="11"/>
     <x v="231"/>
-    <x v="179"/>
+    <x v="178"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15438,7 +15442,7 @@
     <x v="291"/>
     <x v="7"/>
     <x v="232"/>
-    <x v="175"/>
+    <x v="174"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15448,7 +15452,7 @@
     <x v="292"/>
     <x v="7"/>
     <x v="233"/>
-    <x v="180"/>
+    <x v="179"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15458,7 +15462,7 @@
     <x v="293"/>
     <x v="6"/>
     <x v="234"/>
-    <x v="181"/>
+    <x v="180"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15468,7 +15472,7 @@
     <x v="294"/>
     <x v="3"/>
     <x v="235"/>
-    <x v="182"/>
+    <x v="181"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15478,7 +15482,7 @@
     <x v="295"/>
     <x v="0"/>
     <x v="236"/>
-    <x v="183"/>
+    <x v="182"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15488,7 +15492,7 @@
     <x v="296"/>
     <x v="4"/>
     <x v="237"/>
-    <x v="184"/>
+    <x v="183"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15498,7 +15502,7 @@
     <x v="297"/>
     <x v="11"/>
     <x v="238"/>
-    <x v="185"/>
+    <x v="184"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15508,7 +15512,7 @@
     <x v="298"/>
     <x v="4"/>
     <x v="239"/>
-    <x v="186"/>
+    <x v="185"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15518,7 +15522,7 @@
     <x v="299"/>
     <x v="2"/>
     <x v="240"/>
-    <x v="187"/>
+    <x v="186"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15528,7 +15532,7 @@
     <x v="300"/>
     <x v="5"/>
     <x v="241"/>
-    <x v="57"/>
+    <x v="56"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15538,7 +15542,7 @@
     <x v="301"/>
     <x v="0"/>
     <x v="242"/>
-    <x v="188"/>
+    <x v="187"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15548,7 +15552,7 @@
     <x v="302"/>
     <x v="10"/>
     <x v="243"/>
-    <x v="189"/>
+    <x v="188"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15558,7 +15562,7 @@
     <x v="303"/>
     <x v="7"/>
     <x v="244"/>
-    <x v="190"/>
+    <x v="189"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15568,7 +15572,7 @@
     <x v="304"/>
     <x v="6"/>
     <x v="245"/>
-    <x v="191"/>
+    <x v="190"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15578,7 +15582,7 @@
     <x v="305"/>
     <x v="3"/>
     <x v="246"/>
-    <x v="149"/>
+    <x v="148"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15588,7 +15592,7 @@
     <x v="306"/>
     <x v="11"/>
     <x v="247"/>
-    <x v="192"/>
+    <x v="191"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15598,7 +15602,7 @@
     <x v="307"/>
     <x v="7"/>
     <x v="248"/>
-    <x v="193"/>
+    <x v="192"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15608,7 +15612,7 @@
     <x v="308"/>
     <x v="11"/>
     <x v="249"/>
-    <x v="194"/>
+    <x v="193"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15618,7 +15622,7 @@
     <x v="309"/>
     <x v="7"/>
     <x v="250"/>
-    <x v="195"/>
+    <x v="194"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15628,7 +15632,7 @@
     <x v="310"/>
     <x v="7"/>
     <x v="251"/>
-    <x v="196"/>
+    <x v="195"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15638,7 +15642,7 @@
     <x v="311"/>
     <x v="7"/>
     <x v="252"/>
-    <x v="197"/>
+    <x v="196"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15648,7 +15652,7 @@
     <x v="312"/>
     <x v="6"/>
     <x v="253"/>
-    <x v="198"/>
+    <x v="197"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15658,7 +15662,7 @@
     <x v="313"/>
     <x v="6"/>
     <x v="254"/>
-    <x v="199"/>
+    <x v="198"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15668,7 +15672,7 @@
     <x v="314"/>
     <x v="7"/>
     <x v="255"/>
-    <x v="200"/>
+    <x v="199"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15678,7 +15682,7 @@
     <x v="315"/>
     <x v="12"/>
     <x v="256"/>
-    <x v="201"/>
+    <x v="200"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15688,7 +15692,7 @@
     <x v="316"/>
     <x v="4"/>
     <x v="257"/>
-    <x v="202"/>
+    <x v="201"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15698,7 +15702,7 @@
     <x v="317"/>
     <x v="7"/>
     <x v="258"/>
-    <x v="203"/>
+    <x v="202"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15708,7 +15712,7 @@
     <x v="318"/>
     <x v="7"/>
     <x v="259"/>
-    <x v="204"/>
+    <x v="203"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15718,7 +15722,7 @@
     <x v="319"/>
     <x v="7"/>
     <x v="260"/>
-    <x v="205"/>
+    <x v="204"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15728,7 +15732,7 @@
     <x v="320"/>
     <x v="6"/>
     <x v="261"/>
-    <x v="206"/>
+    <x v="205"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -15738,7 +15742,7 @@
     <x v="321"/>
     <x v="10"/>
     <x v="262"/>
-    <x v="207"/>
+    <x v="206"/>
     <x v="72"/>
     <x v="0"/>
   </r>
@@ -15748,7 +15752,7 @@
     <x v="322"/>
     <x v="7"/>
     <x v="263"/>
-    <x v="208"/>
+    <x v="207"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15758,7 +15762,7 @@
     <x v="323"/>
     <x v="7"/>
     <x v="264"/>
-    <x v="209"/>
+    <x v="208"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15768,7 +15772,7 @@
     <x v="324"/>
     <x v="6"/>
     <x v="265"/>
-    <x v="210"/>
+    <x v="209"/>
     <x v="73"/>
     <x v="0"/>
   </r>
@@ -15778,7 +15782,7 @@
     <x v="325"/>
     <x v="6"/>
     <x v="266"/>
-    <x v="211"/>
+    <x v="210"/>
     <x v="74"/>
     <x v="0"/>
   </r>
@@ -15788,7 +15792,7 @@
     <x v="326"/>
     <x v="6"/>
     <x v="267"/>
-    <x v="212"/>
+    <x v="211"/>
     <x v="75"/>
     <x v="0"/>
   </r>
@@ -15798,7 +15802,7 @@
     <x v="327"/>
     <x v="6"/>
     <x v="268"/>
-    <x v="213"/>
+    <x v="212"/>
     <x v="76"/>
     <x v="0"/>
   </r>
@@ -15808,7 +15812,7 @@
     <x v="328"/>
     <x v="7"/>
     <x v="269"/>
-    <x v="214"/>
+    <x v="213"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15818,7 +15822,7 @@
     <x v="329"/>
     <x v="7"/>
     <x v="270"/>
-    <x v="215"/>
+    <x v="214"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15838,7 +15842,7 @@
     <x v="331"/>
     <x v="7"/>
     <x v="271"/>
-    <x v="216"/>
+    <x v="215"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15848,7 +15852,7 @@
     <x v="332"/>
     <x v="10"/>
     <x v="272"/>
-    <x v="217"/>
+    <x v="216"/>
     <x v="77"/>
     <x v="0"/>
   </r>
@@ -15858,7 +15862,7 @@
     <x v="333"/>
     <x v="7"/>
     <x v="273"/>
-    <x v="76"/>
+    <x v="75"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15868,7 +15872,7 @@
     <x v="334"/>
     <x v="5"/>
     <x v="274"/>
-    <x v="218"/>
+    <x v="217"/>
     <x v="78"/>
     <x v="0"/>
   </r>
@@ -15888,7 +15892,7 @@
     <x v="336"/>
     <x v="6"/>
     <x v="276"/>
-    <x v="219"/>
+    <x v="218"/>
     <x v="80"/>
     <x v="0"/>
   </r>
@@ -15908,7 +15912,7 @@
     <x v="338"/>
     <x v="7"/>
     <x v="278"/>
-    <x v="220"/>
+    <x v="219"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15928,7 +15932,7 @@
     <x v="340"/>
     <x v="7"/>
     <x v="280"/>
-    <x v="221"/>
+    <x v="220"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15938,7 +15942,7 @@
     <x v="341"/>
     <x v="6"/>
     <x v="281"/>
-    <x v="222"/>
+    <x v="221"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15958,7 +15962,7 @@
     <x v="343"/>
     <x v="7"/>
     <x v="283"/>
-    <x v="223"/>
+    <x v="222"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -15978,7 +15982,7 @@
     <x v="345"/>
     <x v="5"/>
     <x v="285"/>
-    <x v="224"/>
+    <x v="223"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16008,7 +16012,7 @@
     <x v="348"/>
     <x v="6"/>
     <x v="288"/>
-    <x v="225"/>
+    <x v="224"/>
     <x v="0"/>
     <x v="14"/>
   </r>
@@ -16068,7 +16072,7 @@
     <x v="354"/>
     <x v="6"/>
     <x v="293"/>
-    <x v="226"/>
+    <x v="225"/>
     <x v="0"/>
     <x v="15"/>
   </r>
@@ -16078,7 +16082,7 @@
     <x v="355"/>
     <x v="6"/>
     <x v="294"/>
-    <x v="227"/>
+    <x v="226"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16108,7 +16112,7 @@
     <x v="358"/>
     <x v="5"/>
     <x v="297"/>
-    <x v="228"/>
+    <x v="227"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16118,7 +16122,7 @@
     <x v="359"/>
     <x v="5"/>
     <x v="298"/>
-    <x v="229"/>
+    <x v="228"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16158,7 +16162,7 @@
     <x v="363"/>
     <x v="10"/>
     <x v="302"/>
-    <x v="230"/>
+    <x v="229"/>
     <x v="81"/>
     <x v="0"/>
   </r>
@@ -16188,7 +16192,7 @@
     <x v="366"/>
     <x v="5"/>
     <x v="305"/>
-    <x v="231"/>
+    <x v="230"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16198,7 +16202,7 @@
     <x v="367"/>
     <x v="8"/>
     <x v="306"/>
-    <x v="232"/>
+    <x v="231"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -16218,7 +16222,7 @@
     <x v="369"/>
     <x v="8"/>
     <x v="308"/>
-    <x v="233"/>
+    <x v="232"/>
     <x v="84"/>
     <x v="0"/>
   </r>
@@ -16378,7 +16382,7 @@
     <x v="385"/>
     <x v="13"/>
     <x v="22"/>
-    <x v="234"/>
+    <x v="233"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16388,7 +16392,7 @@
     <x v="386"/>
     <x v="7"/>
     <x v="15"/>
-    <x v="235"/>
+    <x v="234"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16448,7 +16452,7 @@
     <x v="392"/>
     <x v="7"/>
     <x v="15"/>
-    <x v="236"/>
+    <x v="235"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16468,7 +16472,7 @@
     <x v="394"/>
     <x v="8"/>
     <x v="15"/>
-    <x v="237"/>
+    <x v="236"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16628,7 +16632,7 @@
     <x v="410"/>
     <x v="7"/>
     <x v="22"/>
-    <x v="238"/>
+    <x v="237"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16658,7 +16662,7 @@
     <x v="413"/>
     <x v="7"/>
     <x v="22"/>
-    <x v="238"/>
+    <x v="237"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16668,7 +16672,7 @@
     <x v="414"/>
     <x v="7"/>
     <x v="15"/>
-    <x v="239"/>
+    <x v="238"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16698,7 +16702,7 @@
     <x v="417"/>
     <x v="7"/>
     <x v="15"/>
-    <x v="238"/>
+    <x v="237"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16728,7 +16732,7 @@
     <x v="420"/>
     <x v="7"/>
     <x v="22"/>
-    <x v="238"/>
+    <x v="237"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16758,7 +16762,7 @@
     <x v="423"/>
     <x v="7"/>
     <x v="22"/>
-    <x v="240"/>
+    <x v="239"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16798,7 +16802,7 @@
     <x v="427"/>
     <x v="7"/>
     <x v="22"/>
-    <x v="241"/>
+    <x v="240"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16838,7 +16842,7 @@
     <x v="431"/>
     <x v="7"/>
     <x v="22"/>
-    <x v="242"/>
+    <x v="241"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16848,7 +16852,7 @@
     <x v="432"/>
     <x v="7"/>
     <x v="22"/>
-    <x v="242"/>
+    <x v="241"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16858,7 +16862,7 @@
     <x v="433"/>
     <x v="7"/>
     <x v="22"/>
-    <x v="242"/>
+    <x v="241"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16868,7 +16872,7 @@
     <x v="434"/>
     <x v="7"/>
     <x v="22"/>
-    <x v="242"/>
+    <x v="241"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16878,7 +16882,7 @@
     <x v="435"/>
     <x v="10"/>
     <x v="22"/>
-    <x v="242"/>
+    <x v="241"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16918,7 +16922,7 @@
     <x v="439"/>
     <x v="2"/>
     <x v="326"/>
-    <x v="243"/>
+    <x v="242"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16928,7 +16932,7 @@
     <x v="440"/>
     <x v="5"/>
     <x v="327"/>
-    <x v="244"/>
+    <x v="243"/>
     <x v="102"/>
     <x v="0"/>
   </r>
@@ -16938,7 +16942,7 @@
     <x v="441"/>
     <x v="7"/>
     <x v="328"/>
-    <x v="245"/>
+    <x v="244"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16948,7 +16952,7 @@
     <x v="442"/>
     <x v="6"/>
     <x v="329"/>
-    <x v="72"/>
+    <x v="71"/>
     <x v="103"/>
     <x v="0"/>
   </r>
@@ -16968,7 +16972,7 @@
     <x v="444"/>
     <x v="7"/>
     <x v="331"/>
-    <x v="246"/>
+    <x v="245"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -16978,7 +16982,7 @@
     <x v="445"/>
     <x v="8"/>
     <x v="332"/>
-    <x v="247"/>
+    <x v="246"/>
     <x v="104"/>
     <x v="0"/>
   </r>
@@ -16988,7 +16992,7 @@
     <x v="446"/>
     <x v="7"/>
     <x v="22"/>
-    <x v="238"/>
+    <x v="237"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17018,7 +17022,7 @@
     <x v="449"/>
     <x v="7"/>
     <x v="335"/>
-    <x v="246"/>
+    <x v="245"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17038,7 +17042,7 @@
     <x v="451"/>
     <x v="7"/>
     <x v="337"/>
-    <x v="248"/>
+    <x v="247"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17058,7 +17062,7 @@
     <x v="453"/>
     <x v="6"/>
     <x v="339"/>
-    <x v="67"/>
+    <x v="66"/>
     <x v="107"/>
     <x v="0"/>
   </r>
@@ -17068,7 +17072,7 @@
     <x v="454"/>
     <x v="7"/>
     <x v="340"/>
-    <x v="248"/>
+    <x v="247"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17078,7 +17082,7 @@
     <x v="455"/>
     <x v="7"/>
     <x v="341"/>
-    <x v="249"/>
+    <x v="248"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17098,7 +17102,7 @@
     <x v="457"/>
     <x v="7"/>
     <x v="343"/>
-    <x v="246"/>
+    <x v="245"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17108,7 +17112,7 @@
     <x v="458"/>
     <x v="7"/>
     <x v="344"/>
-    <x v="250"/>
+    <x v="249"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17128,7 +17132,7 @@
     <x v="460"/>
     <x v="7"/>
     <x v="346"/>
-    <x v="251"/>
+    <x v="250"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17138,7 +17142,7 @@
     <x v="461"/>
     <x v="8"/>
     <x v="347"/>
-    <x v="247"/>
+    <x v="246"/>
     <x v="108"/>
     <x v="0"/>
   </r>
@@ -17148,7 +17152,7 @@
     <x v="462"/>
     <x v="10"/>
     <x v="22"/>
-    <x v="252"/>
+    <x v="251"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17158,7 +17162,7 @@
     <x v="463"/>
     <x v="7"/>
     <x v="348"/>
-    <x v="251"/>
+    <x v="250"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17168,7 +17172,7 @@
     <x v="464"/>
     <x v="8"/>
     <x v="349"/>
-    <x v="247"/>
+    <x v="246"/>
     <x v="109"/>
     <x v="0"/>
   </r>
@@ -17178,7 +17182,7 @@
     <x v="465"/>
     <x v="7"/>
     <x v="350"/>
-    <x v="251"/>
+    <x v="250"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17188,7 +17192,7 @@
     <x v="466"/>
     <x v="7"/>
     <x v="351"/>
-    <x v="253"/>
+    <x v="252"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17198,7 +17202,7 @@
     <x v="467"/>
     <x v="7"/>
     <x v="352"/>
-    <x v="246"/>
+    <x v="245"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17208,7 +17212,7 @@
     <x v="468"/>
     <x v="7"/>
     <x v="353"/>
-    <x v="251"/>
+    <x v="250"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17218,7 +17222,7 @@
     <x v="469"/>
     <x v="4"/>
     <x v="354"/>
-    <x v="254"/>
+    <x v="253"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17278,7 +17282,7 @@
     <x v="475"/>
     <x v="12"/>
     <x v="356"/>
-    <x v="255"/>
+    <x v="254"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17398,7 +17402,7 @@
     <x v="487"/>
     <x v="12"/>
     <x v="15"/>
-    <x v="256"/>
+    <x v="255"/>
     <x v="110"/>
     <x v="0"/>
   </r>
@@ -17428,7 +17432,7 @@
     <x v="13"/>
     <x v="14"/>
     <x v="15"/>
-    <x v="14"/>
+    <x v="256"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -17436,7 +17440,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A7010B8-C376-401A-A4C2-AA85DC7E94E7}" name="Tableau croisé dynamique1" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A7010B8-C376-401A-A4C2-AA85DC7E94E7}" name="Tableau croisé dynamique1" cacheId="98" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:H497" firstHeaderRow="1" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -23169,264 +23173,265 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="257">
-        <item x="0"/>
+      <items count="258">
+        <item m="1" x="257"/>
+        <item x="128"/>
+        <item x="127"/>
+        <item x="232"/>
+        <item x="235"/>
+        <item x="42"/>
+        <item x="67"/>
+        <item x="221"/>
+        <item x="40"/>
+        <item x="190"/>
+        <item x="5"/>
+        <item x="238"/>
+        <item x="3"/>
+        <item x="29"/>
+        <item x="10"/>
+        <item x="84"/>
+        <item x="68"/>
+        <item x="202"/>
+        <item x="154"/>
+        <item x="214"/>
+        <item x="124"/>
+        <item x="122"/>
+        <item x="191"/>
+        <item x="160"/>
+        <item x="219"/>
+        <item x="103"/>
+        <item x="162"/>
+        <item x="222"/>
+        <item x="166"/>
+        <item x="70"/>
+        <item x="117"/>
+        <item x="189"/>
+        <item x="131"/>
+        <item x="99"/>
+        <item x="63"/>
+        <item x="57"/>
+        <item x="179"/>
+        <item x="118"/>
+        <item x="146"/>
+        <item x="197"/>
+        <item x="175"/>
+        <item x="24"/>
+        <item x="52"/>
+        <item x="21"/>
+        <item x="204"/>
+        <item x="144"/>
+        <item x="239"/>
+        <item x="79"/>
+        <item x="234"/>
+        <item x="194"/>
+        <item x="58"/>
+        <item x="98"/>
+        <item x="48"/>
+        <item x="195"/>
+        <item x="165"/>
+        <item x="252"/>
+        <item x="73"/>
+        <item x="198"/>
+        <item x="215"/>
+        <item x="247"/>
+        <item x="233"/>
+        <item x="245"/>
+        <item x="250"/>
+        <item x="242"/>
+        <item x="69"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="244"/>
+        <item x="199"/>
+        <item x="255"/>
+        <item x="145"/>
+        <item x="90"/>
+        <item x="71"/>
+        <item x="64"/>
+        <item x="107"/>
+        <item x="8"/>
+        <item x="164"/>
+        <item x="85"/>
+        <item x="212"/>
+        <item x="80"/>
+        <item x="35"/>
+        <item x="196"/>
+        <item x="209"/>
+        <item x="104"/>
+        <item x="158"/>
+        <item x="62"/>
+        <item x="59"/>
+        <item x="206"/>
+        <item x="110"/>
+        <item x="56"/>
+        <item x="143"/>
+        <item x="121"/>
+        <item x="123"/>
+        <item x="136"/>
+        <item x="86"/>
+        <item x="220"/>
+        <item x="133"/>
+        <item x="167"/>
+        <item x="37"/>
+        <item x="207"/>
+        <item x="216"/>
+        <item x="114"/>
+        <item x="74"/>
+        <item x="60"/>
+        <item x="66"/>
+        <item x="172"/>
+        <item x="13"/>
+        <item x="72"/>
+        <item x="168"/>
+        <item x="34"/>
+        <item x="81"/>
+        <item x="185"/>
         <item x="129"/>
-        <item x="128"/>
-        <item x="233"/>
+        <item x="156"/>
+        <item x="224"/>
+        <item x="12"/>
+        <item x="137"/>
+        <item x="61"/>
+        <item x="201"/>
+        <item x="47"/>
+        <item x="187"/>
+        <item x="120"/>
+        <item x="18"/>
+        <item x="200"/>
+        <item x="174"/>
+        <item x="188"/>
+        <item x="184"/>
+        <item x="148"/>
+        <item x="163"/>
         <item x="236"/>
-        <item x="43"/>
-        <item x="68"/>
-        <item x="222"/>
+        <item x="140"/>
+        <item x="173"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="153"/>
+        <item x="108"/>
+        <item x="230"/>
+        <item x="116"/>
+        <item x="82"/>
+        <item x="180"/>
+        <item x="76"/>
+        <item x="147"/>
+        <item x="39"/>
+        <item x="241"/>
+        <item x="38"/>
+        <item x="161"/>
+        <item x="254"/>
+        <item x="208"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="193"/>
         <item x="41"/>
-        <item x="191"/>
-        <item x="5"/>
-        <item x="239"/>
-        <item x="3"/>
+        <item x="182"/>
+        <item x="96"/>
+        <item x="157"/>
+        <item x="28"/>
+        <item x="228"/>
+        <item x="177"/>
+        <item x="27"/>
+        <item x="248"/>
+        <item x="93"/>
+        <item x="176"/>
+        <item x="119"/>
+        <item x="22"/>
+        <item x="32"/>
         <item x="30"/>
-        <item x="10"/>
-        <item x="85"/>
-        <item x="69"/>
+        <item x="125"/>
+        <item x="243"/>
+        <item x="246"/>
+        <item x="141"/>
+        <item x="237"/>
         <item x="203"/>
-        <item x="155"/>
-        <item x="215"/>
-        <item x="125"/>
-        <item x="123"/>
-        <item x="192"/>
-        <item x="161"/>
-        <item x="220"/>
-        <item x="104"/>
-        <item x="163"/>
-        <item x="223"/>
-        <item x="167"/>
-        <item x="71"/>
-        <item x="118"/>
-        <item x="190"/>
+        <item x="75"/>
+        <item x="2"/>
+        <item x="94"/>
+        <item x="111"/>
+        <item x="55"/>
+        <item x="240"/>
+        <item x="7"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="138"/>
+        <item x="134"/>
+        <item x="100"/>
+        <item x="231"/>
+        <item x="178"/>
+        <item x="213"/>
+        <item x="139"/>
+        <item x="211"/>
+        <item x="9"/>
+        <item x="46"/>
+        <item x="151"/>
+        <item x="186"/>
         <item x="132"/>
-        <item x="100"/>
-        <item x="64"/>
-        <item x="58"/>
-        <item x="180"/>
-        <item x="119"/>
-        <item x="147"/>
-        <item x="198"/>
-        <item x="176"/>
-        <item x="25"/>
-        <item x="53"/>
-        <item x="22"/>
-        <item x="205"/>
-        <item x="145"/>
-        <item x="240"/>
-        <item x="80"/>
-        <item x="235"/>
-        <item x="195"/>
-        <item x="59"/>
-        <item x="99"/>
-        <item x="49"/>
-        <item x="196"/>
-        <item x="166"/>
-        <item x="253"/>
-        <item x="74"/>
-        <item x="199"/>
-        <item x="216"/>
-        <item x="248"/>
-        <item x="234"/>
-        <item x="246"/>
-        <item x="251"/>
-        <item x="243"/>
-        <item x="70"/>
-        <item x="17"/>
-        <item x="6"/>
-        <item x="245"/>
-        <item x="200"/>
-        <item x="256"/>
-        <item x="146"/>
-        <item x="91"/>
-        <item x="72"/>
-        <item x="65"/>
-        <item x="108"/>
-        <item x="8"/>
-        <item x="165"/>
-        <item x="86"/>
-        <item x="213"/>
-        <item x="81"/>
+        <item x="105"/>
+        <item x="101"/>
+        <item x="181"/>
         <item x="36"/>
-        <item x="197"/>
-        <item x="210"/>
-        <item x="105"/>
+        <item x="51"/>
         <item x="159"/>
-        <item x="63"/>
-        <item x="60"/>
-        <item x="207"/>
-        <item x="111"/>
-        <item x="57"/>
-        <item x="144"/>
-        <item x="122"/>
-        <item x="124"/>
-        <item x="137"/>
-        <item x="87"/>
-        <item x="221"/>
-        <item x="134"/>
-        <item x="168"/>
-        <item x="38"/>
-        <item x="208"/>
-        <item x="217"/>
-        <item x="115"/>
-        <item x="75"/>
-        <item x="61"/>
-        <item x="67"/>
-        <item x="173"/>
-        <item x="13"/>
-        <item x="73"/>
-        <item x="169"/>
-        <item x="35"/>
-        <item x="82"/>
-        <item x="186"/>
-        <item x="130"/>
-        <item x="157"/>
-        <item x="225"/>
-        <item x="12"/>
-        <item x="138"/>
-        <item x="62"/>
-        <item x="202"/>
-        <item x="48"/>
-        <item x="188"/>
-        <item x="121"/>
-        <item x="19"/>
-        <item x="201"/>
-        <item x="175"/>
-        <item x="189"/>
-        <item x="185"/>
-        <item x="149"/>
-        <item x="164"/>
-        <item x="237"/>
-        <item x="141"/>
-        <item x="174"/>
-        <item x="151"/>
-        <item x="218"/>
-        <item x="154"/>
-        <item x="109"/>
-        <item x="231"/>
-        <item x="117"/>
-        <item x="83"/>
-        <item x="181"/>
-        <item x="77"/>
-        <item x="148"/>
-        <item x="40"/>
-        <item x="242"/>
-        <item x="39"/>
-        <item x="162"/>
-        <item x="255"/>
-        <item x="209"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="194"/>
-        <item x="42"/>
-        <item x="183"/>
-        <item x="97"/>
-        <item x="158"/>
-        <item x="29"/>
-        <item x="229"/>
-        <item x="178"/>
-        <item x="28"/>
-        <item x="249"/>
-        <item x="94"/>
-        <item x="177"/>
-        <item x="120"/>
-        <item x="23"/>
-        <item x="33"/>
         <item x="31"/>
         <item x="126"/>
-        <item x="244"/>
-        <item x="247"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="113"/>
+        <item x="170"/>
+        <item x="43"/>
+        <item x="183"/>
+        <item x="251"/>
+        <item x="171"/>
+        <item x="87"/>
+        <item x="227"/>
+        <item x="253"/>
+        <item x="169"/>
+        <item x="50"/>
+        <item x="89"/>
+        <item x="65"/>
+        <item x="223"/>
+        <item x="149"/>
+        <item x="226"/>
+        <item x="97"/>
+        <item x="95"/>
+        <item x="130"/>
+        <item x="210"/>
+        <item x="83"/>
+        <item x="1"/>
+        <item x="33"/>
+        <item x="152"/>
+        <item x="225"/>
+        <item x="14"/>
+        <item x="229"/>
+        <item x="135"/>
+        <item x="102"/>
+        <item x="92"/>
+        <item x="91"/>
+        <item x="109"/>
+        <item x="218"/>
+        <item x="88"/>
+        <item x="45"/>
+        <item x="112"/>
+        <item x="155"/>
+        <item x="249"/>
+        <item x="15"/>
+        <item x="205"/>
+        <item x="78"/>
+        <item x="54"/>
+        <item x="77"/>
+        <item x="11"/>
+        <item x="44"/>
+        <item x="49"/>
         <item x="142"/>
-        <item x="238"/>
-        <item x="204"/>
-        <item x="76"/>
-        <item x="2"/>
-        <item x="95"/>
-        <item x="112"/>
-        <item x="56"/>
-        <item x="241"/>
-        <item x="7"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="139"/>
-        <item x="135"/>
-        <item x="101"/>
-        <item x="232"/>
-        <item x="179"/>
-        <item x="214"/>
-        <item x="140"/>
-        <item x="212"/>
-        <item x="9"/>
-        <item x="47"/>
-        <item x="152"/>
-        <item x="187"/>
-        <item x="133"/>
+        <item x="192"/>
+        <item x="115"/>
+        <item x="17"/>
         <item x="106"/>
-        <item x="102"/>
-        <item x="182"/>
-        <item x="37"/>
-        <item x="52"/>
-        <item x="160"/>
-        <item x="32"/>
-        <item x="127"/>
-        <item x="27"/>
-        <item x="20"/>
-        <item x="114"/>
-        <item x="171"/>
-        <item x="44"/>
-        <item x="184"/>
-        <item x="252"/>
-        <item x="172"/>
-        <item x="88"/>
-        <item x="228"/>
-        <item x="254"/>
-        <item x="170"/>
-        <item x="51"/>
-        <item x="90"/>
-        <item x="66"/>
-        <item x="224"/>
-        <item x="150"/>
-        <item x="227"/>
-        <item x="98"/>
-        <item x="96"/>
-        <item x="131"/>
-        <item x="211"/>
-        <item x="84"/>
-        <item x="1"/>
-        <item x="34"/>
-        <item x="153"/>
-        <item x="226"/>
-        <item x="15"/>
-        <item x="230"/>
-        <item x="136"/>
-        <item x="103"/>
-        <item x="93"/>
-        <item x="92"/>
-        <item x="110"/>
-        <item x="219"/>
-        <item x="89"/>
-        <item x="46"/>
-        <item x="113"/>
-        <item x="156"/>
-        <item x="250"/>
-        <item x="16"/>
-        <item x="206"/>
-        <item x="79"/>
-        <item x="55"/>
-        <item x="78"/>
-        <item x="11"/>
-        <item x="45"/>
-        <item x="50"/>
-        <item x="143"/>
-        <item x="193"/>
-        <item x="116"/>
-        <item x="18"/>
-        <item x="107"/>
-        <item x="54"/>
-        <item x="14"/>
+        <item x="53"/>
+        <item x="256"/>
+        <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
@@ -23583,7 +23588,7 @@
       <x v="1977"/>
       <x v="44"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -23592,7 +23597,7 @@
       <x v="1978"/>
       <x v="45"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -23619,7 +23624,7 @@
       <x v="1914"/>
       <x v="32"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -23628,7 +23633,7 @@
       <x v="1915"/>
       <x v="33"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="59"/>
       <x v="9"/>
     </i>
@@ -23637,7 +23642,7 @@
       <x v="1924"/>
       <x v="43"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="62"/>
       <x v="9"/>
     </i>
@@ -23682,7 +23687,7 @@
       <x v="412"/>
       <x v="185"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -23736,7 +23741,7 @@
       <x v="1899"/>
       <x v="461"/>
       <x v="134"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -23745,7 +23750,7 @@
       <x v="1960"/>
       <x v="24"/>
       <x v="21"/>
-      <x/>
+      <x v="257"/>
       <x v="24"/>
       <x v="9"/>
     </i>
@@ -23790,7 +23795,7 @@
       <x v="1968"/>
       <x v="37"/>
       <x v="44"/>
-      <x/>
+      <x v="257"/>
       <x v="22"/>
       <x v="9"/>
     </i>
@@ -23799,7 +23804,7 @@
       <x v="1969"/>
       <x v="37"/>
       <x v="43"/>
-      <x/>
+      <x v="257"/>
       <x v="23"/>
       <x v="9"/>
     </i>
@@ -23817,7 +23822,7 @@
       <x v="1797"/>
       <x v="73"/>
       <x v="58"/>
-      <x/>
+      <x v="257"/>
       <x v="57"/>
       <x v="9"/>
     </i>
@@ -23826,7 +23831,7 @@
       <x v="1798"/>
       <x v="73"/>
       <x v="57"/>
-      <x/>
+      <x v="257"/>
       <x v="58"/>
       <x v="9"/>
     </i>
@@ -23835,7 +23840,7 @@
       <x v="1944"/>
       <x v="58"/>
       <x v="24"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -23844,7 +23849,7 @@
       <x v="1951"/>
       <x v="51"/>
       <x v="42"/>
-      <x/>
+      <x v="257"/>
       <x v="60"/>
       <x v="9"/>
     </i>
@@ -23853,7 +23858,7 @@
       <x v="1952"/>
       <x v="52"/>
       <x v="41"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -23863,7 +23868,7 @@
       <x v="1912"/>
       <x v="30"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -23872,7 +23877,7 @@
       <x v="1922"/>
       <x v="38"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="63"/>
       <x v="9"/>
     </i>
@@ -23881,7 +23886,7 @@
       <x v="1923"/>
       <x v="42"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="64"/>
       <x v="9"/>
     </i>
@@ -23890,7 +23895,7 @@
       <x v="1913"/>
       <x v="31"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24052,7 +24057,7 @@
       <x v="1936"/>
       <x v="7"/>
       <x v="14"/>
-      <x/>
+      <x v="257"/>
       <x v="12"/>
       <x v="9"/>
     </i>
@@ -24061,7 +24066,7 @@
       <x v="1938"/>
       <x v="2"/>
       <x v="15"/>
-      <x/>
+      <x v="257"/>
       <x v="6"/>
       <x v="11"/>
     </i>
@@ -24079,7 +24084,7 @@
       <x v="1976"/>
       <x/>
       <x v="75"/>
-      <x/>
+      <x v="257"/>
       <x v="13"/>
       <x v="1"/>
     </i>
@@ -24088,7 +24093,7 @@
       <x v="1937"/>
       <x v="5"/>
       <x v="164"/>
-      <x/>
+      <x v="257"/>
       <x v="17"/>
       <x v="12"/>
     </i>
@@ -24097,7 +24102,7 @@
       <x v="1791"/>
       <x v="17"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24106,7 +24111,7 @@
       <x v="1795"/>
       <x v="65"/>
       <x v="166"/>
-      <x/>
+      <x v="257"/>
       <x v="66"/>
       <x v="9"/>
     </i>
@@ -24115,7 +24120,7 @@
       <x v="1801"/>
       <x v="71"/>
       <x v="82"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24124,7 +24129,7 @@
       <x v="1796"/>
       <x v="65"/>
       <x v="167"/>
-      <x/>
+      <x v="257"/>
       <x v="67"/>
       <x v="9"/>
     </i>
@@ -24133,7 +24138,7 @@
       <x v="1802"/>
       <x v="71"/>
       <x v="83"/>
-      <x/>
+      <x v="257"/>
       <x v="68"/>
       <x v="9"/>
     </i>
@@ -24142,7 +24147,7 @@
       <x v="1803"/>
       <x v="71"/>
       <x v="84"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24151,7 +24156,7 @@
       <x v="1799"/>
       <x v="72"/>
       <x v="59"/>
-      <x/>
+      <x v="257"/>
       <x v="69"/>
       <x v="9"/>
     </i>
@@ -24160,7 +24165,7 @@
       <x v="1911"/>
       <x v="21"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24169,7 +24174,7 @@
       <x v="1949"/>
       <x v="49"/>
       <x v="39"/>
-      <x/>
+      <x v="257"/>
       <x v="65"/>
       <x v="9"/>
     </i>
@@ -24178,7 +24183,7 @@
       <x v="1950"/>
       <x v="50"/>
       <x v="40"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24188,7 +24193,7 @@
       <x v="1917"/>
       <x v="39"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="74"/>
       <x v="9"/>
     </i>
@@ -24197,7 +24202,7 @@
       <x v="1919"/>
       <x v="34"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="71"/>
       <x v="9"/>
     </i>
@@ -24206,7 +24211,7 @@
       <x v="1920"/>
       <x v="36"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="73"/>
       <x v="9"/>
     </i>
@@ -24215,7 +24220,7 @@
       <x v="1918"/>
       <x v="40"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="75"/>
       <x v="9"/>
     </i>
@@ -24224,7 +24229,7 @@
       <x v="1916"/>
       <x v="35"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="72"/>
       <x v="9"/>
     </i>
@@ -24350,7 +24355,7 @@
       <x v="1980"/>
       <x v="87"/>
       <x v="171"/>
-      <x v="256"/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24395,7 +24400,7 @@
       <x v="1807"/>
       <x v="76"/>
       <x v="162"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24449,7 +24454,7 @@
       <x v="1942"/>
       <x v="6"/>
       <x v="23"/>
-      <x/>
+      <x v="257"/>
       <x v="6"/>
       <x v="14"/>
     </i>
@@ -24467,7 +24472,7 @@
       <x v="1930"/>
       <x v="62"/>
       <x v="2"/>
-      <x/>
+      <x v="257"/>
       <x v="6"/>
       <x v="9"/>
     </i>
@@ -24476,7 +24481,7 @@
       <x v="1943"/>
       <x v="3"/>
       <x v="38"/>
-      <x/>
+      <x v="257"/>
       <x v="9"/>
       <x v="5"/>
     </i>
@@ -24494,7 +24499,7 @@
       <x v="1963"/>
       <x v="63"/>
       <x v="30"/>
-      <x/>
+      <x v="257"/>
       <x v="27"/>
       <x v="9"/>
     </i>
@@ -24512,7 +24517,7 @@
       <x v="1964"/>
       <x v="63"/>
       <x v="31"/>
-      <x/>
+      <x v="257"/>
       <x v="28"/>
       <x v="9"/>
     </i>
@@ -24521,7 +24526,7 @@
       <x v="1973"/>
       <x v="25"/>
       <x v="56"/>
-      <x/>
+      <x v="257"/>
       <x v="25"/>
       <x v="9"/>
     </i>
@@ -24539,7 +24544,7 @@
       <x v="1965"/>
       <x v="63"/>
       <x v="34"/>
-      <x/>
+      <x v="257"/>
       <x v="29"/>
       <x v="9"/>
     </i>
@@ -24566,7 +24571,7 @@
       <x v="1927"/>
       <x v="69"/>
       <x v="20"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24575,7 +24580,7 @@
       <x v="1792"/>
       <x v="16"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24584,7 +24589,7 @@
       <x v="1789"/>
       <x v="19"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24593,7 +24598,7 @@
       <x v="1793"/>
       <x v="16"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24602,7 +24607,7 @@
       <x v="1788"/>
       <x v="19"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24611,7 +24616,7 @@
       <x v="1787"/>
       <x v="20"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24620,7 +24625,7 @@
       <x v="1786"/>
       <x v="20"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24629,7 +24634,7 @@
       <x v="1785"/>
       <x v="20"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24638,7 +24643,7 @@
       <x v="1784"/>
       <x v="20"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24647,7 +24652,7 @@
       <x v="1783"/>
       <x v="20"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24656,7 +24661,7 @@
       <x v="1800"/>
       <x v="74"/>
       <x v="71"/>
-      <x/>
+      <x v="257"/>
       <x v="78"/>
       <x v="9"/>
     </i>
@@ -24665,7 +24670,7 @@
       <x v="1804"/>
       <x v="66"/>
       <x v="28"/>
-      <x/>
+      <x v="257"/>
       <x v="76"/>
       <x v="9"/>
     </i>
@@ -24701,7 +24706,7 @@
       <x v="1736"/>
       <x v="455"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24710,7 +24715,7 @@
       <x v="1946"/>
       <x v="54"/>
       <x v="77"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24728,7 +24733,7 @@
       <x v="1958"/>
       <x v="59"/>
       <x v="18"/>
-      <x/>
+      <x v="257"/>
       <x/>
       <x v="9"/>
     </i>
@@ -24755,7 +24760,7 @@
       <x v="1953"/>
       <x v="48"/>
       <x v="50"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24764,7 +24769,7 @@
       <x v="1954"/>
       <x v="46"/>
       <x v="4"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24773,7 +24778,7 @@
       <x v="1957"/>
       <x v="56"/>
       <x v="10"/>
-      <x/>
+      <x v="257"/>
       <x v="16"/>
       <x v="7"/>
     </i>
@@ -24782,7 +24787,7 @@
       <x v="2"/>
       <x v="23"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24801,7 +24806,7 @@
       <x/>
       <x v="14"/>
       <x v="1"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24873,7 +24878,7 @@
       <x v="1932"/>
       <x v="11"/>
       <x v="19"/>
-      <x/>
+      <x v="257"/>
       <x v="14"/>
       <x v="9"/>
     </i>
@@ -24882,7 +24887,7 @@
       <x v="1931"/>
       <x v="9"/>
       <x v="36"/>
-      <x/>
+      <x v="257"/>
       <x v="4"/>
       <x v="9"/>
     </i>
@@ -24891,7 +24896,7 @@
       <x v="1933"/>
       <x v="13"/>
       <x v="26"/>
-      <x/>
+      <x v="257"/>
       <x v="15"/>
       <x v="9"/>
     </i>
@@ -24927,7 +24932,7 @@
       <x v="1790"/>
       <x v="15"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -24936,7 +24941,7 @@
       <x v="1945"/>
       <x v="47"/>
       <x v="49"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25001,7 +25006,7 @@
       <x v="1909"/>
       <x v="78"/>
       <x v="168"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25019,7 +25024,7 @@
       <x v="1962"/>
       <x v="178"/>
       <x v="9"/>
-      <x/>
+      <x v="257"/>
       <x v="32"/>
       <x v="9"/>
     </i>
@@ -25118,7 +25123,7 @@
       <x v="1975"/>
       <x v="183"/>
       <x v="62"/>
-      <x/>
+      <x v="257"/>
       <x v="7"/>
       <x v="6"/>
     </i>
@@ -25127,7 +25132,7 @@
       <x v="1972"/>
       <x v="182"/>
       <x v="52"/>
-      <x/>
+      <x v="257"/>
       <x v="36"/>
       <x v="9"/>
     </i>
@@ -25136,7 +25141,7 @@
       <x v="1967"/>
       <x v="180"/>
       <x v="97"/>
-      <x/>
+      <x v="257"/>
       <x v="34"/>
       <x v="9"/>
     </i>
@@ -25145,7 +25150,7 @@
       <x v="1966"/>
       <x v="181"/>
       <x v="35"/>
-      <x/>
+      <x v="257"/>
       <x v="35"/>
       <x v="9"/>
     </i>
@@ -25154,7 +25159,7 @@
       <x v="1709"/>
       <x v="445"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25163,7 +25168,7 @@
       <x v="1766"/>
       <x v="459"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25182,7 +25187,7 @@
       <x v="1980"/>
       <x v="94"/>
       <x v="171"/>
-      <x v="256"/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25237,7 +25242,7 @@
       <x v="43"/>
       <x v="194"/>
       <x v="181"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25246,7 +25251,7 @@
       <x v="58"/>
       <x v="196"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25255,7 +25260,7 @@
       <x v="69"/>
       <x v="203"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="83"/>
       <x v="9"/>
     </i>
@@ -25273,7 +25278,7 @@
       <x v="142"/>
       <x v="214"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25417,7 +25422,7 @@
       <x v="1864"/>
       <x v="134"/>
       <x v="89"/>
-      <x/>
+      <x v="257"/>
       <x v="20"/>
       <x v="9"/>
     </i>
@@ -25426,7 +25431,7 @@
       <x v="1877"/>
       <x v="147"/>
       <x v="90"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25498,7 +25503,7 @@
       <x v="1176"/>
       <x v="332"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25507,7 +25512,7 @@
       <x v="1186"/>
       <x v="336"/>
       <x v="1032"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25534,7 +25539,7 @@
       <x v="1211"/>
       <x v="344"/>
       <x v="1053"/>
-      <x/>
+      <x v="257"/>
       <x v="47"/>
       <x v="9"/>
     </i>
@@ -25543,7 +25548,7 @@
       <x v="1214"/>
       <x v="345"/>
       <x v="1056"/>
-      <x/>
+      <x v="257"/>
       <x v="48"/>
       <x v="9"/>
     </i>
@@ -25561,7 +25566,7 @@
       <x v="1220"/>
       <x v="344"/>
       <x v="1062"/>
-      <x/>
+      <x v="257"/>
       <x v="50"/>
       <x v="9"/>
     </i>
@@ -25570,7 +25575,7 @@
       <x v="1222"/>
       <x v="350"/>
       <x v="1064"/>
-      <x/>
+      <x v="257"/>
       <x v="51"/>
       <x v="9"/>
     </i>
@@ -25579,7 +25584,7 @@
       <x v="1226"/>
       <x v="352"/>
       <x v="1067"/>
-      <x/>
+      <x v="257"/>
       <x v="53"/>
       <x v="9"/>
     </i>
@@ -25588,7 +25593,7 @@
       <x v="1227"/>
       <x v="353"/>
       <x v="1068"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25597,7 +25602,7 @@
       <x v="1247"/>
       <x v="358"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25606,7 +25611,7 @@
       <x v="1262"/>
       <x v="359"/>
       <x v="1098"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25615,7 +25620,7 @@
       <x v="1313"/>
       <x v="364"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25624,7 +25629,7 @@
       <x v="1321"/>
       <x v="366"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="94"/>
       <x v="9"/>
     </i>
@@ -25633,7 +25638,7 @@
       <x v="1334"/>
       <x v="372"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="97"/>
       <x v="9"/>
     </i>
@@ -25642,7 +25647,7 @@
       <x v="1346"/>
       <x v="373"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="98"/>
       <x v="9"/>
     </i>
@@ -25651,7 +25656,7 @@
       <x v="1350"/>
       <x v="374"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="99"/>
       <x v="9"/>
     </i>
@@ -25660,7 +25665,7 @@
       <x v="1370"/>
       <x v="375"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="100"/>
       <x v="9"/>
     </i>
@@ -25669,7 +25674,7 @@
       <x v="1417"/>
       <x v="378"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25678,7 +25683,7 @@
       <x v="1431"/>
       <x v="381"/>
       <x v="1118"/>
-      <x/>
+      <x v="257"/>
       <x v="101"/>
       <x v="9"/>
     </i>
@@ -25687,7 +25692,7 @@
       <x v="1471"/>
       <x v="397"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25696,7 +25701,7 @@
       <x v="1523"/>
       <x v="411"/>
       <x v="1129"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25705,7 +25710,7 @@
       <x v="1524"/>
       <x v="412"/>
       <x v="1130"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25723,7 +25728,7 @@
       <x v="1532"/>
       <x v="417"/>
       <x v="1138"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25742,7 +25747,7 @@
       <x v="149"/>
       <x v="215"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="90"/>
       <x v="9"/>
     </i>
@@ -25949,7 +25954,7 @@
       <x v="1171"/>
       <x v="331"/>
       <x v="1023"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -25976,7 +25981,7 @@
       <x v="1217"/>
       <x v="348"/>
       <x v="1059"/>
-      <x/>
+      <x v="257"/>
       <x v="20"/>
       <x v="9"/>
     </i>
@@ -25985,7 +25990,7 @@
       <x v="1224"/>
       <x v="344"/>
       <x v="1066"/>
-      <x/>
+      <x v="257"/>
       <x v="52"/>
       <x v="9"/>
     </i>
@@ -25994,7 +25999,7 @@
       <x v="1230"/>
       <x v="355"/>
       <x v="1071"/>
-      <x/>
+      <x v="257"/>
       <x v="55"/>
       <x v="9"/>
     </i>
@@ -26003,7 +26008,7 @@
       <x v="1420"/>
       <x v="379"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26021,7 +26026,7 @@
       <x v="1542"/>
       <x v="421"/>
       <x v="1147"/>
-      <x/>
+      <x v="257"/>
       <x v="105"/>
       <x v="9"/>
     </i>
@@ -26030,7 +26035,7 @@
       <x v="1543"/>
       <x v="422"/>
       <x v="1148"/>
-      <x/>
+      <x v="257"/>
       <x v="106"/>
       <x v="9"/>
     </i>
@@ -26067,7 +26072,7 @@
       <x v="64"/>
       <x v="198"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26076,7 +26081,7 @@
       <x v="68"/>
       <x v="202"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26085,7 +26090,7 @@
       <x v="78"/>
       <x v="207"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26094,7 +26099,7 @@
       <x v="91"/>
       <x v="210"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26103,7 +26108,7 @@
       <x v="110"/>
       <x v="211"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26112,7 +26117,7 @@
       <x v="112"/>
       <x v="212"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26121,7 +26126,7 @@
       <x v="160"/>
       <x v="216"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26472,7 +26477,7 @@
       <x v="1909"/>
       <x v="85"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26724,7 +26729,7 @@
       <x v="1115"/>
       <x v="319"/>
       <x v="980"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26742,7 +26747,7 @@
       <x v="1124"/>
       <x v="322"/>
       <x v="989"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26760,7 +26765,7 @@
       <x v="1131"/>
       <x v="324"/>
       <x v="995"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26769,7 +26774,7 @@
       <x v="1138"/>
       <x v="326"/>
       <x v="1001"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26778,7 +26783,7 @@
       <x v="1142"/>
       <x v="327"/>
       <x v="1004"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26787,7 +26792,7 @@
       <x v="1148"/>
       <x v="329"/>
       <x v="1008"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26796,7 +26801,7 @@
       <x v="1177"/>
       <x v="333"/>
       <x v="1027"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26805,7 +26810,7 @@
       <x v="1195"/>
       <x v="341"/>
       <x v="1041"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26814,7 +26819,7 @@
       <x v="1199"/>
       <x v="342"/>
       <x v="1044"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26823,7 +26828,7 @@
       <x v="1223"/>
       <x v="351"/>
       <x v="1065"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26832,7 +26837,7 @@
       <x v="1242"/>
       <x v="356"/>
       <x v="1082"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26841,7 +26846,7 @@
       <x v="1282"/>
       <x v="360"/>
       <x v="1114"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26859,7 +26864,7 @@
       <x v="1322"/>
       <x v="367"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26877,7 +26882,7 @@
       <x v="1333"/>
       <x v="371"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26886,7 +26891,7 @@
       <x v="1377"/>
       <x v="376"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26895,7 +26900,7 @@
       <x v="1414"/>
       <x v="377"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26904,7 +26909,7 @@
       <x v="1454"/>
       <x v="384"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26922,7 +26927,7 @@
       <x v="1456"/>
       <x v="386"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26931,7 +26936,7 @@
       <x v="1457"/>
       <x v="387"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26958,7 +26963,7 @@
       <x v="1462"/>
       <x v="390"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26967,7 +26972,7 @@
       <x v="1463"/>
       <x v="391"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26985,7 +26990,7 @@
       <x v="1465"/>
       <x v="393"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -26994,7 +26999,7 @@
       <x v="1468"/>
       <x v="394"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27012,7 +27017,7 @@
       <x v="1470"/>
       <x v="396"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27030,7 +27035,7 @@
       <x v="1474"/>
       <x v="398"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27039,7 +27044,7 @@
       <x v="1477"/>
       <x v="400"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27057,7 +27062,7 @@
       <x v="1485"/>
       <x v="402"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27066,7 +27071,7 @@
       <x v="1489"/>
       <x v="403"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27075,7 +27080,7 @@
       <x v="1493"/>
       <x v="404"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27156,7 +27161,7 @@
       <x v="1553"/>
       <x v="424"/>
       <x v="1158"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27174,7 +27179,7 @@
       <x v="1564"/>
       <x v="426"/>
       <x v="1168"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27201,7 +27206,7 @@
       <x v="1573"/>
       <x v="430"/>
       <x v="1177"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27228,7 +27233,7 @@
       <x v="1580"/>
       <x v="433"/>
       <x v="1183"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27291,7 +27296,7 @@
       <x v="1719"/>
       <x v="448"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27300,7 +27305,7 @@
       <x v="1721"/>
       <x v="450"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27309,7 +27314,7 @@
       <x v="1725"/>
       <x v="451"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27318,7 +27323,7 @@
       <x v="1726"/>
       <x v="452"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27327,7 +27332,7 @@
       <x v="1727"/>
       <x v="449"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27336,7 +27341,7 @@
       <x v="1728"/>
       <x v="453"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27345,7 +27350,7 @@
       <x v="1729"/>
       <x v="454"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27373,7 +27378,7 @@
       <x v="60"/>
       <x v="197"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="79"/>
       <x v="9"/>
     </i>
@@ -27382,7 +27387,7 @@
       <x v="65"/>
       <x v="199"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="80"/>
       <x v="9"/>
     </i>
@@ -27391,7 +27396,7 @@
       <x v="66"/>
       <x v="200"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="81"/>
       <x v="9"/>
     </i>
@@ -27400,7 +27405,7 @@
       <x v="67"/>
       <x v="201"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="82"/>
       <x v="9"/>
     </i>
@@ -27409,7 +27414,7 @@
       <x v="75"/>
       <x v="204"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="84"/>
       <x v="9"/>
     </i>
@@ -27427,7 +27432,7 @@
       <x v="77"/>
       <x v="206"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="86"/>
       <x v="9"/>
     </i>
@@ -27436,7 +27441,7 @@
       <x v="90"/>
       <x v="209"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="88"/>
       <x v="9"/>
     </i>
@@ -27445,7 +27450,7 @@
       <x v="141"/>
       <x v="213"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="89"/>
       <x v="9"/>
     </i>
@@ -27553,7 +27558,7 @@
       <x v="1033"/>
       <x v="315"/>
       <x v="937"/>
-      <x/>
+      <x v="257"/>
       <x v="44"/>
       <x v="9"/>
     </i>
@@ -27562,7 +27567,7 @@
       <x v="1106"/>
       <x v="317"/>
       <x v="972"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27571,7 +27576,7 @@
       <x v="1155"/>
       <x v="330"/>
       <x v="1011"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27580,7 +27585,7 @@
       <x v="1188"/>
       <x v="337"/>
       <x v="1034"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27589,7 +27594,7 @@
       <x v="1193"/>
       <x v="340"/>
       <x v="1039"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27616,7 +27621,7 @@
       <x v="1229"/>
       <x v="354"/>
       <x v="1070"/>
-      <x/>
+      <x v="257"/>
       <x v="54"/>
       <x v="9"/>
     </i>
@@ -27625,7 +27630,7 @@
       <x v="1232"/>
       <x v="354"/>
       <x v="1073"/>
-      <x/>
+      <x v="257"/>
       <x v="56"/>
       <x v="9"/>
     </i>
@@ -27634,7 +27639,7 @@
       <x v="1243"/>
       <x v="357"/>
       <x v="1083"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27643,7 +27648,7 @@
       <x v="1278"/>
       <x v="360"/>
       <x v="1110"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27652,7 +27657,7 @@
       <x v="1320"/>
       <x v="365"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="93"/>
       <x v="9"/>
     </i>
@@ -27661,7 +27666,7 @@
       <x v="1324"/>
       <x v="368"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="95"/>
       <x v="9"/>
     </i>
@@ -27679,7 +27684,7 @@
       <x v="1332"/>
       <x v="370"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="96"/>
       <x v="9"/>
     </i>
@@ -27715,7 +27720,7 @@
       <x v="1678"/>
       <x v="442"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27724,7 +27729,7 @@
       <x v="1682"/>
       <x v="443"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27733,7 +27738,7 @@
       <x v="1685"/>
       <x v="443"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27742,7 +27747,7 @@
       <x v="1750"/>
       <x v="456"/>
       <x v="1257"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27761,7 +27766,7 @@
       <x v="1422"/>
       <x v="380"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27770,7 +27775,7 @@
       <x v="1448"/>
       <x v="382"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27779,7 +27784,7 @@
       <x v="1751"/>
       <x v="457"/>
       <x v="1258"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27871,7 +27876,7 @@
       <x v="49"/>
       <x v="195"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27916,7 +27921,7 @@
       <x v="1300"/>
       <x v="363"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="92"/>
       <x v="9"/>
     </i>
@@ -27925,7 +27930,7 @@
       <x v="1449"/>
       <x v="383"/>
       <x v="171"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27934,7 +27939,7 @@
       <x v="1475"/>
       <x v="399"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27952,7 +27957,7 @@
       <x v="1516"/>
       <x v="410"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27970,7 +27975,7 @@
       <x v="1794"/>
       <x v="460"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -27998,7 +28003,7 @@
       <x v="1011"/>
       <x v="310"/>
       <x/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -28007,7 +28012,7 @@
       <x v="1707"/>
       <x v="444"/>
       <x v="1250"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -28025,7 +28030,7 @@
       <x v="1712"/>
       <x v="447"/>
       <x v="1252"/>
-      <x/>
+      <x v="257"/>
       <x v="19"/>
       <x v="9"/>
     </i>
@@ -28374,7 +28379,7 @@
   <dimension ref="A3:H497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28429,7 +28434,7 @@
         <v>765</v>
       </c>
       <c r="F4" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G4" t="s">
         <v>741</v>
@@ -28452,7 +28457,7 @@
         <v>765</v>
       </c>
       <c r="F5" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G5" t="s">
         <v>741</v>
@@ -28521,7 +28526,7 @@
         <v>765</v>
       </c>
       <c r="F8" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G8" t="s">
         <v>741</v>
@@ -28544,7 +28549,7 @@
         <v>765</v>
       </c>
       <c r="F9" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G9" t="s">
         <v>1698</v>
@@ -28567,7 +28572,7 @@
         <v>765</v>
       </c>
       <c r="F10" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G10" t="s">
         <v>1696</v>
@@ -28682,7 +28687,7 @@
         <v>765</v>
       </c>
       <c r="F15" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G15" t="s">
         <v>741</v>
@@ -28820,7 +28825,7 @@
         <v>700</v>
       </c>
       <c r="F21" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G21" t="s">
         <v>741</v>
@@ -28843,7 +28848,7 @@
         <v>770</v>
       </c>
       <c r="F22" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G22" t="s">
         <v>1631</v>
@@ -28958,7 +28963,7 @@
         <v>766</v>
       </c>
       <c r="F27" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G27" t="s">
         <v>1629</v>
@@ -28981,7 +28986,7 @@
         <v>767</v>
       </c>
       <c r="F28" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G28" t="s">
         <v>1630</v>
@@ -29027,7 +29032,7 @@
         <v>763</v>
       </c>
       <c r="F30" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G30" t="s">
         <v>1708</v>
@@ -29050,7 +29055,7 @@
         <v>764</v>
       </c>
       <c r="F31" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G31" t="s">
         <v>1709</v>
@@ -29073,7 +29078,7 @@
         <v>774</v>
       </c>
       <c r="F32" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G32" t="s">
         <v>741</v>
@@ -29096,7 +29101,7 @@
         <v>768</v>
       </c>
       <c r="F33" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G33" t="s">
         <v>1699</v>
@@ -29119,7 +29124,7 @@
         <v>769</v>
       </c>
       <c r="F34" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G34" t="s">
         <v>741</v>
@@ -29145,7 +29150,7 @@
         <v>765</v>
       </c>
       <c r="F35" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G35" t="s">
         <v>741</v>
@@ -29168,7 +29173,7 @@
         <v>765</v>
       </c>
       <c r="F36" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G36" t="s">
         <v>1673</v>
@@ -29191,7 +29196,7 @@
         <v>765</v>
       </c>
       <c r="F37" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G37" t="s">
         <v>1672</v>
@@ -29214,7 +29219,7 @@
         <v>765</v>
       </c>
       <c r="F38" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G38" t="s">
         <v>741</v>
@@ -29628,7 +29633,7 @@
         <v>778</v>
       </c>
       <c r="F56" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G56" t="s">
         <v>839</v>
@@ -29651,7 +29656,7 @@
         <v>776</v>
       </c>
       <c r="F57" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G57" t="s">
         <v>837</v>
@@ -29697,7 +29702,7 @@
         <v>775</v>
       </c>
       <c r="F59" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G59" t="s">
         <v>835</v>
@@ -29720,7 +29725,7 @@
         <v>777</v>
       </c>
       <c r="F60" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G60" t="s">
         <v>838</v>
@@ -29743,7 +29748,7 @@
         <v>765</v>
       </c>
       <c r="F61" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G61" t="s">
         <v>741</v>
@@ -29766,7 +29771,7 @@
         <v>782</v>
       </c>
       <c r="F62" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G62" t="s">
         <v>1715</v>
@@ -29789,7 +29794,7 @@
         <v>784</v>
       </c>
       <c r="F63" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G63" t="s">
         <v>741</v>
@@ -29812,7 +29817,7 @@
         <v>783</v>
       </c>
       <c r="F64" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G64" t="s">
         <v>1716</v>
@@ -29835,7 +29840,7 @@
         <v>785</v>
       </c>
       <c r="F65" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G65" t="s">
         <v>1717</v>
@@ -29858,7 +29863,7 @@
         <v>786</v>
       </c>
       <c r="F66" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G66" t="s">
         <v>741</v>
@@ -29881,7 +29886,7 @@
         <v>787</v>
       </c>
       <c r="F67" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G67" t="s">
         <v>1718</v>
@@ -29904,7 +29909,7 @@
         <v>765</v>
       </c>
       <c r="F68" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G68" t="s">
         <v>741</v>
@@ -29927,7 +29932,7 @@
         <v>780</v>
       </c>
       <c r="F69" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G69" t="s">
         <v>1674</v>
@@ -29950,7 +29955,7 @@
         <v>781</v>
       </c>
       <c r="F70" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G70" t="s">
         <v>741</v>
@@ -29976,7 +29981,7 @@
         <v>765</v>
       </c>
       <c r="F71" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G71" t="s">
         <v>1670</v>
@@ -29999,7 +30004,7 @@
         <v>765</v>
       </c>
       <c r="F72" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G72" t="s">
         <v>1667</v>
@@ -30022,7 +30027,7 @@
         <v>765</v>
       </c>
       <c r="F73" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G73" t="s">
         <v>1669</v>
@@ -30045,7 +30050,7 @@
         <v>765</v>
       </c>
       <c r="F74" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G74" t="s">
         <v>1668</v>
@@ -30068,7 +30073,7 @@
         <v>765</v>
       </c>
       <c r="F75" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G75" t="s">
         <v>1671</v>
@@ -30390,7 +30395,7 @@
         <v>741</v>
       </c>
       <c r="F89" t="s">
-        <v>741</v>
+        <v>1944</v>
       </c>
       <c r="G89" t="s">
         <v>741</v>
@@ -30505,7 +30510,7 @@
         <v>273</v>
       </c>
       <c r="F94" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G94" t="s">
         <v>741</v>
@@ -30643,7 +30648,7 @@
         <v>790</v>
       </c>
       <c r="F100" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G100" t="s">
         <v>837</v>
@@ -30689,7 +30694,7 @@
         <v>809</v>
       </c>
       <c r="F102" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G102" t="s">
         <v>837</v>
@@ -30712,7 +30717,7 @@
         <v>788</v>
       </c>
       <c r="F103" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G103" t="s">
         <v>842</v>
@@ -30758,7 +30763,7 @@
         <v>805</v>
       </c>
       <c r="F105" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G105" t="s">
         <v>1634</v>
@@ -30804,7 +30809,7 @@
         <v>806</v>
       </c>
       <c r="F107" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G107" t="s">
         <v>1635</v>
@@ -30827,7 +30832,7 @@
         <v>792</v>
       </c>
       <c r="F108" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G108" t="s">
         <v>1632</v>
@@ -30873,7 +30878,7 @@
         <v>807</v>
       </c>
       <c r="F110" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G110" t="s">
         <v>1636</v>
@@ -30942,7 +30947,7 @@
         <v>813</v>
       </c>
       <c r="F113" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G113" t="s">
         <v>741</v>
@@ -30965,7 +30970,7 @@
         <v>765</v>
       </c>
       <c r="F114" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G114" t="s">
         <v>741</v>
@@ -30988,7 +30993,7 @@
         <v>765</v>
       </c>
       <c r="F115" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G115" t="s">
         <v>741</v>
@@ -31011,7 +31016,7 @@
         <v>765</v>
       </c>
       <c r="F116" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G116" t="s">
         <v>741</v>
@@ -31034,7 +31039,7 @@
         <v>765</v>
       </c>
       <c r="F117" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G117" t="s">
         <v>741</v>
@@ -31057,7 +31062,7 @@
         <v>765</v>
       </c>
       <c r="F118" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G118" t="s">
         <v>741</v>
@@ -31080,7 +31085,7 @@
         <v>765</v>
       </c>
       <c r="F119" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G119" t="s">
         <v>741</v>
@@ -31103,7 +31108,7 @@
         <v>765</v>
       </c>
       <c r="F120" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G120" t="s">
         <v>741</v>
@@ -31126,7 +31131,7 @@
         <v>765</v>
       </c>
       <c r="F121" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G121" t="s">
         <v>741</v>
@@ -31149,7 +31154,7 @@
         <v>765</v>
       </c>
       <c r="F122" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G122" t="s">
         <v>741</v>
@@ -31172,7 +31177,7 @@
         <v>814</v>
       </c>
       <c r="F123" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G123" t="s">
         <v>1702</v>
@@ -31195,7 +31200,7 @@
         <v>810</v>
       </c>
       <c r="F124" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G124" t="s">
         <v>1703</v>
@@ -31287,7 +31292,7 @@
         <v>741</v>
       </c>
       <c r="F128" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G128" t="s">
         <v>741</v>
@@ -31310,7 +31315,7 @@
         <v>798</v>
       </c>
       <c r="F129" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G129" t="s">
         <v>741</v>
@@ -31356,7 +31361,7 @@
         <v>802</v>
       </c>
       <c r="F131" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G131">
         <v>10149</v>
@@ -31425,7 +31430,7 @@
         <v>796</v>
       </c>
       <c r="F134" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G134" t="s">
         <v>741</v>
@@ -31448,7 +31453,7 @@
         <v>795</v>
       </c>
       <c r="F135" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G135" t="s">
         <v>741</v>
@@ -31471,7 +31476,7 @@
         <v>800</v>
       </c>
       <c r="F136" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G136" t="s">
         <v>847</v>
@@ -31494,7 +31499,7 @@
         <v>765</v>
       </c>
       <c r="F137" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G137" t="s">
         <v>741</v>
@@ -31543,7 +31548,7 @@
         <v>816</v>
       </c>
       <c r="F139" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G139" t="s">
         <v>741</v>
@@ -31727,7 +31732,7 @@
         <v>817</v>
       </c>
       <c r="F147" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G147" t="s">
         <v>851</v>
@@ -31750,7 +31755,7 @@
         <v>818</v>
       </c>
       <c r="F148" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G148" t="s">
         <v>852</v>
@@ -31773,7 +31778,7 @@
         <v>819</v>
       </c>
       <c r="F149" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G149" t="s">
         <v>853</v>
@@ -31865,7 +31870,7 @@
         <v>765</v>
       </c>
       <c r="F153" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G153" t="s">
         <v>741</v>
@@ -31888,7 +31893,7 @@
         <v>822</v>
       </c>
       <c r="F154" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G154" t="s">
         <v>741</v>
@@ -32055,7 +32060,7 @@
         <v>283</v>
       </c>
       <c r="F161" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G161" t="s">
         <v>741</v>
@@ -32101,7 +32106,7 @@
         <v>823</v>
       </c>
       <c r="F163" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G163" t="s">
         <v>1639</v>
@@ -32354,7 +32359,7 @@
         <v>828</v>
       </c>
       <c r="F174" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G174" t="s">
         <v>854</v>
@@ -32377,7 +32382,7 @@
         <v>827</v>
       </c>
       <c r="F175" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G175" t="s">
         <v>1643</v>
@@ -32400,7 +32405,7 @@
         <v>825</v>
       </c>
       <c r="F176" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G176" t="s">
         <v>1641</v>
@@ -32423,7 +32428,7 @@
         <v>826</v>
       </c>
       <c r="F177" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G177" t="s">
         <v>1642</v>
@@ -32446,7 +32451,7 @@
         <v>765</v>
       </c>
       <c r="F178" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G178" t="s">
         <v>741</v>
@@ -32469,7 +32474,7 @@
         <v>765</v>
       </c>
       <c r="F179" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G179" t="s">
         <v>741</v>
@@ -32518,7 +32523,7 @@
         <v>741</v>
       </c>
       <c r="F181" t="s">
-        <v>741</v>
+        <v>1944</v>
       </c>
       <c r="G181" t="s">
         <v>741</v>
@@ -32659,7 +32664,7 @@
         <v>1435</v>
       </c>
       <c r="F187" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G187" t="s">
         <v>741</v>
@@ -32682,7 +32687,7 @@
         <v>741</v>
       </c>
       <c r="F188" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G188" t="s">
         <v>741</v>
@@ -32705,7 +32710,7 @@
         <v>741</v>
       </c>
       <c r="F189" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G189" t="s">
         <v>1689</v>
@@ -32751,7 +32756,7 @@
         <v>741</v>
       </c>
       <c r="F191" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G191" t="s">
         <v>741</v>
@@ -33119,7 +33124,7 @@
         <v>548</v>
       </c>
       <c r="F207" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -33142,7 +33147,7 @@
         <v>605</v>
       </c>
       <c r="F208" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G208" t="s">
         <v>741</v>
@@ -33326,7 +33331,7 @@
         <v>765</v>
       </c>
       <c r="F216" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G216" t="s">
         <v>741</v>
@@ -33349,7 +33354,7 @@
         <v>1554</v>
       </c>
       <c r="F217" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G217" t="s">
         <v>741</v>
@@ -33418,7 +33423,7 @@
         <v>1562</v>
       </c>
       <c r="F220" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G220" t="s">
         <v>1654</v>
@@ -33441,7 +33446,7 @@
         <v>1563</v>
       </c>
       <c r="F221" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G221" t="s">
         <v>1655</v>
@@ -33487,7 +33492,7 @@
         <v>1568</v>
       </c>
       <c r="F223" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G223" t="s">
         <v>1657</v>
@@ -33510,7 +33515,7 @@
         <v>1569</v>
       </c>
       <c r="F224" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G224" t="s">
         <v>1658</v>
@@ -33533,7 +33538,7 @@
         <v>1572</v>
       </c>
       <c r="F225" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G225" t="s">
         <v>1660</v>
@@ -33556,7 +33561,7 @@
         <v>1573</v>
       </c>
       <c r="F226" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G226" t="s">
         <v>741</v>
@@ -33579,7 +33584,7 @@
         <v>765</v>
       </c>
       <c r="F227" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G227" t="s">
         <v>741</v>
@@ -33602,7 +33607,7 @@
         <v>1579</v>
       </c>
       <c r="F228" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G228" t="s">
         <v>741</v>
@@ -33625,7 +33630,7 @@
         <v>741</v>
       </c>
       <c r="F229" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G229" t="s">
         <v>741</v>
@@ -33648,7 +33653,7 @@
         <v>765</v>
       </c>
       <c r="F230" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G230" t="s">
         <v>1691</v>
@@ -33671,7 +33676,7 @@
         <v>765</v>
       </c>
       <c r="F231" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G231" t="s">
         <v>1688</v>
@@ -33694,7 +33699,7 @@
         <v>741</v>
       </c>
       <c r="F232" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G232" t="s">
         <v>1694</v>
@@ -33717,7 +33722,7 @@
         <v>741</v>
       </c>
       <c r="F233" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G233" t="s">
         <v>1687</v>
@@ -33740,7 +33745,7 @@
         <v>741</v>
       </c>
       <c r="F234" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G234" t="s">
         <v>1695</v>
@@ -33763,7 +33768,7 @@
         <v>741</v>
       </c>
       <c r="F235" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G235" t="s">
         <v>741</v>
@@ -33786,7 +33791,7 @@
         <v>1582</v>
       </c>
       <c r="F236" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G236" t="s">
         <v>1693</v>
@@ -33809,7 +33814,7 @@
         <v>765</v>
       </c>
       <c r="F237" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G237" t="s">
         <v>741</v>
@@ -33832,7 +33837,7 @@
         <v>1583</v>
       </c>
       <c r="F238" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G238" t="s">
         <v>741</v>
@@ -33855,7 +33860,7 @@
         <v>1584</v>
       </c>
       <c r="F239" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G239" t="s">
         <v>741</v>
@@ -33901,7 +33906,7 @@
         <v>1589</v>
       </c>
       <c r="F241" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G241" t="s">
         <v>741</v>
@@ -33950,7 +33955,7 @@
         <v>741</v>
       </c>
       <c r="F243" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G243" t="s">
         <v>1700</v>
@@ -34479,7 +34484,7 @@
         <v>1550</v>
       </c>
       <c r="F266" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G266" t="s">
         <v>741</v>
@@ -34548,7 +34553,7 @@
         <v>1566</v>
       </c>
       <c r="F269" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -34571,7 +34576,7 @@
         <v>1571</v>
       </c>
       <c r="F270" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G270" t="s">
         <v>1659</v>
@@ -34594,7 +34599,7 @@
         <v>1575</v>
       </c>
       <c r="F271" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G271" t="s">
         <v>1662</v>
@@ -34617,7 +34622,7 @@
         <v>741</v>
       </c>
       <c r="F272" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G272" t="s">
         <v>741</v>
@@ -34663,7 +34668,7 @@
         <v>1592</v>
       </c>
       <c r="F274" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G274" t="s">
         <v>1710</v>
@@ -34686,7 +34691,7 @@
         <v>1593</v>
       </c>
       <c r="F275" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G275" t="s">
         <v>1712</v>
@@ -34781,7 +34786,7 @@
         <v>765</v>
       </c>
       <c r="F279" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G279" t="s">
         <v>741</v>
@@ -34804,7 +34809,7 @@
         <v>741</v>
       </c>
       <c r="F280" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G280" t="s">
         <v>741</v>
@@ -34827,7 +34832,7 @@
         <v>765</v>
       </c>
       <c r="F281" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G281" t="s">
         <v>741</v>
@@ -34850,7 +34855,7 @@
         <v>741</v>
       </c>
       <c r="F282" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G282" t="s">
         <v>741</v>
@@ -34873,7 +34878,7 @@
         <v>741</v>
       </c>
       <c r="F283" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G283" t="s">
         <v>741</v>
@@ -34896,7 +34901,7 @@
         <v>741</v>
       </c>
       <c r="F284" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G284" t="s">
         <v>741</v>
@@ -34919,7 +34924,7 @@
         <v>741</v>
       </c>
       <c r="F285" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G285" t="s">
         <v>741</v>
@@ -35816,7 +35821,7 @@
         <v>765</v>
       </c>
       <c r="F324" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G324" t="s">
         <v>741</v>
@@ -36460,7 +36465,7 @@
         <v>1538</v>
       </c>
       <c r="F352" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G352" t="s">
         <v>741</v>
@@ -36506,7 +36511,7 @@
         <v>1541</v>
       </c>
       <c r="F354" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G354" t="s">
         <v>741</v>
@@ -36552,7 +36557,7 @@
         <v>1543</v>
       </c>
       <c r="F356" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G356" t="s">
         <v>741</v>
@@ -36575,7 +36580,7 @@
         <v>1545</v>
       </c>
       <c r="F357" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G357" t="s">
         <v>741</v>
@@ -36598,7 +36603,7 @@
         <v>1546</v>
       </c>
       <c r="F358" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G358" t="s">
         <v>741</v>
@@ -36621,7 +36626,7 @@
         <v>1548</v>
       </c>
       <c r="F359" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G359" t="s">
         <v>741</v>
@@ -36644,7 +36649,7 @@
         <v>1551</v>
       </c>
       <c r="F360" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G360" t="s">
         <v>741</v>
@@ -36667,7 +36672,7 @@
         <v>1559</v>
       </c>
       <c r="F361" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G361" t="s">
         <v>741</v>
@@ -36690,7 +36695,7 @@
         <v>1560</v>
       </c>
       <c r="F362" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G362" t="s">
         <v>741</v>
@@ -36713,7 +36718,7 @@
         <v>1570</v>
       </c>
       <c r="F363" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G363" t="s">
         <v>741</v>
@@ -36736,7 +36741,7 @@
         <v>1577</v>
       </c>
       <c r="F364" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G364" t="s">
         <v>741</v>
@@ -36759,7 +36764,7 @@
         <v>1581</v>
       </c>
       <c r="F365" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G365" t="s">
         <v>741</v>
@@ -36805,7 +36810,7 @@
         <v>741</v>
       </c>
       <c r="F367" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G367" t="s">
         <v>741</v>
@@ -36851,7 +36856,7 @@
         <v>765</v>
       </c>
       <c r="F369" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G369" t="s">
         <v>741</v>
@@ -36874,7 +36879,7 @@
         <v>741</v>
       </c>
       <c r="F370" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G370" t="s">
         <v>741</v>
@@ -36897,7 +36902,7 @@
         <v>741</v>
       </c>
       <c r="F371" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G371" t="s">
         <v>741</v>
@@ -36920,7 +36925,7 @@
         <v>765</v>
       </c>
       <c r="F372" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G372" t="s">
         <v>741</v>
@@ -36966,7 +36971,7 @@
         <v>765</v>
       </c>
       <c r="F374" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G374" t="s">
         <v>741</v>
@@ -36989,7 +36994,7 @@
         <v>765</v>
       </c>
       <c r="F375" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G375" t="s">
         <v>741</v>
@@ -37058,7 +37063,7 @@
         <v>741</v>
       </c>
       <c r="F378" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G378" t="s">
         <v>741</v>
@@ -37081,7 +37086,7 @@
         <v>741</v>
       </c>
       <c r="F379" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G379" t="s">
         <v>741</v>
@@ -37127,7 +37132,7 @@
         <v>741</v>
       </c>
       <c r="F381" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G381" t="s">
         <v>741</v>
@@ -37150,7 +37155,7 @@
         <v>765</v>
       </c>
       <c r="F382" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G382" t="s">
         <v>741</v>
@@ -37196,7 +37201,7 @@
         <v>741</v>
       </c>
       <c r="F384" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G384" t="s">
         <v>741</v>
@@ -37242,7 +37247,7 @@
         <v>741</v>
       </c>
       <c r="F386" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G386" t="s">
         <v>741</v>
@@ -37265,7 +37270,7 @@
         <v>741</v>
       </c>
       <c r="F387" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G387" t="s">
         <v>741</v>
@@ -37311,7 +37316,7 @@
         <v>765</v>
       </c>
       <c r="F389" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G389" t="s">
         <v>741</v>
@@ -37334,7 +37339,7 @@
         <v>765</v>
       </c>
       <c r="F390" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G390" t="s">
         <v>741</v>
@@ -37357,7 +37362,7 @@
         <v>765</v>
       </c>
       <c r="F391" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G391" t="s">
         <v>741</v>
@@ -37564,7 +37569,7 @@
         <v>1595</v>
       </c>
       <c r="F400" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G400" t="s">
         <v>741</v>
@@ -37610,7 +37615,7 @@
         <v>1597</v>
       </c>
       <c r="F402" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G402" t="s">
         <v>741</v>
@@ -37679,7 +37684,7 @@
         <v>1601</v>
       </c>
       <c r="F405" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G405" t="s">
         <v>741</v>
@@ -37748,7 +37753,7 @@
         <v>1604</v>
       </c>
       <c r="F408" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G408" t="s">
         <v>741</v>
@@ -37909,7 +37914,7 @@
         <v>741</v>
       </c>
       <c r="F415" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G415" t="s">
         <v>741</v>
@@ -37932,7 +37937,7 @@
         <v>741</v>
       </c>
       <c r="F416" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G416" t="s">
         <v>741</v>
@@ -37955,7 +37960,7 @@
         <v>741</v>
       </c>
       <c r="F417" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G417" t="s">
         <v>741</v>
@@ -37978,7 +37983,7 @@
         <v>741</v>
       </c>
       <c r="F418" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G418" t="s">
         <v>741</v>
@@ -38001,7 +38006,7 @@
         <v>741</v>
       </c>
       <c r="F419" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G419" t="s">
         <v>741</v>
@@ -38024,7 +38029,7 @@
         <v>741</v>
       </c>
       <c r="F420" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G420" t="s">
         <v>741</v>
@@ -38047,7 +38052,7 @@
         <v>741</v>
       </c>
       <c r="F421" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G421" t="s">
         <v>741</v>
@@ -38119,7 +38124,7 @@
         <v>741</v>
       </c>
       <c r="F424" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G424" t="s">
         <v>1680</v>
@@ -38142,7 +38147,7 @@
         <v>765</v>
       </c>
       <c r="F425" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G425" t="s">
         <v>1678</v>
@@ -38165,7 +38170,7 @@
         <v>765</v>
       </c>
       <c r="F426" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G426" t="s">
         <v>1682</v>
@@ -38188,7 +38193,7 @@
         <v>765</v>
       </c>
       <c r="F427" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G427" t="s">
         <v>1681</v>
@@ -38211,7 +38216,7 @@
         <v>741</v>
       </c>
       <c r="F428" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G428" t="s">
         <v>1677</v>
@@ -38257,7 +38262,7 @@
         <v>765</v>
       </c>
       <c r="F430" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G430" t="s">
         <v>1679</v>
@@ -38280,7 +38285,7 @@
         <v>741</v>
       </c>
       <c r="F431" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G431" t="s">
         <v>1676</v>
@@ -38303,7 +38308,7 @@
         <v>741</v>
       </c>
       <c r="F432" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G432" t="s">
         <v>1686</v>
@@ -38579,7 +38584,7 @@
         <v>1534</v>
       </c>
       <c r="F444" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G444" t="s">
         <v>1651</v>
@@ -38602,7 +38607,7 @@
         <v>1536</v>
       </c>
       <c r="F445" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G445" t="s">
         <v>741</v>
@@ -38625,7 +38630,7 @@
         <v>1549</v>
       </c>
       <c r="F446" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G446" t="s">
         <v>741</v>
@@ -38648,7 +38653,7 @@
         <v>1555</v>
       </c>
       <c r="F447" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G447" t="s">
         <v>741</v>
@@ -38671,7 +38676,7 @@
         <v>1558</v>
       </c>
       <c r="F448" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G448" t="s">
         <v>741</v>
@@ -38740,7 +38745,7 @@
         <v>1574</v>
       </c>
       <c r="F451" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G451" t="s">
         <v>1661</v>
@@ -38763,7 +38768,7 @@
         <v>1576</v>
       </c>
       <c r="F452" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G452" t="s">
         <v>1663</v>
@@ -38786,7 +38791,7 @@
         <v>1578</v>
       </c>
       <c r="F453" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G453" t="s">
         <v>741</v>
@@ -38809,7 +38814,7 @@
         <v>1580</v>
       </c>
       <c r="F454" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G454" t="s">
         <v>741</v>
@@ -38832,7 +38837,7 @@
         <v>765</v>
       </c>
       <c r="F455" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G455" t="s">
         <v>1684</v>
@@ -38855,7 +38860,7 @@
         <v>741</v>
       </c>
       <c r="F456" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G456" t="s">
         <v>1685</v>
@@ -38901,7 +38906,7 @@
         <v>765</v>
       </c>
       <c r="F458" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G458" t="s">
         <v>1683</v>
@@ -38993,7 +38998,7 @@
         <v>741</v>
       </c>
       <c r="F462" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G462" t="s">
         <v>741</v>
@@ -39016,7 +39021,7 @@
         <v>741</v>
       </c>
       <c r="F463" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G463" t="s">
         <v>741</v>
@@ -39039,7 +39044,7 @@
         <v>741</v>
       </c>
       <c r="F464" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G464" t="s">
         <v>741</v>
@@ -39062,7 +39067,7 @@
         <v>1617</v>
       </c>
       <c r="F465" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G465" t="s">
         <v>741</v>
@@ -39111,7 +39116,7 @@
         <v>741</v>
       </c>
       <c r="F467" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G467" t="s">
         <v>741</v>
@@ -39134,7 +39139,7 @@
         <v>741</v>
       </c>
       <c r="F468" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G468" t="s">
         <v>741</v>
@@ -39157,7 +39162,7 @@
         <v>1618</v>
       </c>
       <c r="F469" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G469" t="s">
         <v>741</v>
@@ -39393,7 +39398,7 @@
         <v>765</v>
       </c>
       <c r="F479" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G479" t="s">
         <v>741</v>
@@ -39508,7 +39513,7 @@
         <v>741</v>
       </c>
       <c r="F484" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G484" t="s">
         <v>1701</v>
@@ -39531,7 +39536,7 @@
         <v>741</v>
       </c>
       <c r="F485" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G485" t="s">
         <v>741</v>
@@ -39554,7 +39559,7 @@
         <v>765</v>
       </c>
       <c r="F486" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G486" t="s">
         <v>741</v>
@@ -39600,7 +39605,7 @@
         <v>765</v>
       </c>
       <c r="F488" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G488" t="s">
         <v>741</v>
@@ -39646,7 +39651,7 @@
         <v>765</v>
       </c>
       <c r="F490" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G490" t="s">
         <v>741</v>
@@ -39718,7 +39723,7 @@
         <v>765</v>
       </c>
       <c r="F493" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G493" t="s">
         <v>741</v>
@@ -39741,7 +39746,7 @@
         <v>1614</v>
       </c>
       <c r="F494" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G494" t="s">
         <v>741</v>
@@ -39787,7 +39792,7 @@
         <v>1616</v>
       </c>
       <c r="F496" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G496" t="s">
         <v>741</v>
@@ -39829,8 +39834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28873CF9-E3BC-49B1-B081-ECDB2863C8AA}">
   <dimension ref="A1:H494"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39886,7 +39891,7 @@
         <v>283</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -40209,7 +40214,9 @@
         <v>744</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>1944</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
@@ -40322,7 +40329,7 @@
         <v>763</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>1708</v>
@@ -40346,7 +40353,7 @@
         <v>764</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>1709</v>
@@ -40370,7 +40377,7 @@
         <v>765</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -40392,7 +40399,7 @@
         <v>765</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -40414,7 +40421,7 @@
         <v>765</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -40436,7 +40443,7 @@
         <v>765</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>1698</v>
@@ -40460,7 +40467,7 @@
         <v>766</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>1629</v>
@@ -40484,7 +40491,7 @@
         <v>767</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>1630</v>
@@ -40508,7 +40515,7 @@
         <v>768</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>1699</v>
@@ -40532,7 +40539,7 @@
         <v>769</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -40598,7 +40605,7 @@
         <v>765</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>1696</v>
@@ -40622,7 +40629,7 @@
         <v>770</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>1631</v>
@@ -40724,7 +40731,7 @@
         <v>774</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -40790,7 +40797,7 @@
         <v>700</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -40834,7 +40841,7 @@
         <v>775</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>835</v>
@@ -40860,7 +40867,7 @@
         <v>776</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>837</v>
@@ -40886,7 +40893,7 @@
         <v>777</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>838</v>
@@ -40912,7 +40919,7 @@
         <v>778</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>839</v>
@@ -40962,7 +40969,7 @@
         <v>765</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -40984,7 +40991,7 @@
         <v>765</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -41006,7 +41013,7 @@
         <v>765</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -41028,7 +41035,7 @@
         <v>765</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -41050,7 +41057,7 @@
         <v>765</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>1673</v>
@@ -41074,7 +41081,7 @@
         <v>765</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>1672</v>
@@ -41098,7 +41105,7 @@
         <v>780</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>1674</v>
@@ -41122,7 +41129,7 @@
         <v>781</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -41144,7 +41151,7 @@
         <v>782</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>1715</v>
@@ -41168,7 +41175,7 @@
         <v>783</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>1716</v>
@@ -41192,7 +41199,7 @@
         <v>784</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -41214,7 +41221,7 @@
         <v>785</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>1717</v>
@@ -41238,7 +41245,7 @@
         <v>786</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -41260,7 +41267,7 @@
         <v>787</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>1718</v>
@@ -41482,7 +41489,7 @@
         <v>788</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>842</v>
@@ -41534,7 +41541,7 @@
         <v>790</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>837</v>
@@ -41584,7 +41591,7 @@
         <v>765</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -41606,7 +41613,7 @@
         <v>765</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -41628,7 +41635,7 @@
         <v>765</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -41650,7 +41657,7 @@
         <v>765</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -41672,7 +41679,7 @@
         <v>765</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -41694,7 +41701,7 @@
         <v>765</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -41716,7 +41723,7 @@
         <v>765</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -41738,7 +41745,7 @@
         <v>765</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -41760,7 +41767,7 @@
         <v>765</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -41806,7 +41813,7 @@
         <v>765</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -41828,7 +41835,7 @@
         <v>792</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>1632</v>
@@ -41898,7 +41905,7 @@
         <v>765</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>1667</v>
@@ -41922,7 +41929,7 @@
         <v>765</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>1671</v>
@@ -41946,7 +41953,7 @@
         <v>765</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>1669</v>
@@ -41970,7 +41977,7 @@
         <v>765</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>1670</v>
@@ -41994,7 +42001,7 @@
         <v>765</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>1668</v>
@@ -42018,7 +42025,7 @@
         <v>795</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -42040,7 +42047,7 @@
         <v>796</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -42084,7 +42091,7 @@
         <v>798</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -42130,7 +42137,7 @@
         <v>800</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>847</v>
@@ -42182,7 +42189,7 @@
         <v>802</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G102" s="6">
         <v>10149</v>
@@ -42250,7 +42257,7 @@
         <v>805</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>1634</v>
@@ -42274,7 +42281,7 @@
         <v>806</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>1635</v>
@@ -42298,7 +42305,7 @@
         <v>807</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>1636</v>
@@ -42346,7 +42353,7 @@
         <v>809</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>837</v>
@@ -42370,7 +42377,7 @@
         <v>810</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>1703</v>
@@ -42440,7 +42447,7 @@
         <v>813</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
@@ -42462,7 +42469,7 @@
         <v>814</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>1702</v>
@@ -42486,7 +42493,7 @@
         <v>273</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -42525,7 +42532,9 @@
         <v>261</v>
       </c>
       <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
+      <c r="F117" s="6" t="s">
+        <v>1944</v>
+      </c>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
@@ -42832,7 +42841,7 @@
         <v>548</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G131" s="6">
         <v>0</v>
@@ -42900,7 +42909,7 @@
         <v>605</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
@@ -43322,7 +43331,7 @@
         <v>765</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -44160,7 +44169,7 @@
         <v>816</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
@@ -44182,7 +44191,7 @@
         <v>817</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G192" s="6" t="s">
         <v>851</v>
@@ -44206,7 +44215,7 @@
         <v>818</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G193" s="6" t="s">
         <v>852</v>
@@ -44230,7 +44239,7 @@
         <v>819</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>853</v>
@@ -44298,7 +44307,7 @@
         <v>765</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
@@ -44320,7 +44329,7 @@
         <v>822</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
@@ -44342,7 +44351,7 @@
         <v>823</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G199" s="6" t="s">
         <v>1639</v>
@@ -44390,7 +44399,7 @@
         <v>825</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G201" s="6" t="s">
         <v>1641</v>
@@ -44414,7 +44423,7 @@
         <v>826</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G202" s="6" t="s">
         <v>1642</v>
@@ -44438,7 +44447,7 @@
         <v>827</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G203" s="6" t="s">
         <v>1643</v>
@@ -44462,7 +44471,7 @@
         <v>828</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G204" s="6" t="s">
         <v>854</v>
@@ -44510,7 +44519,7 @@
         <v>765</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
@@ -44718,7 +44727,7 @@
         <v>1435</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
@@ -44740,7 +44749,7 @@
         <v>765</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G217" s="6"/>
       <c r="H217" s="6"/>
@@ -44760,7 +44769,7 @@
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
@@ -44780,7 +44789,7 @@
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>1680</v>
@@ -44804,7 +44813,7 @@
         <v>765</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
@@ -44826,7 +44835,7 @@
         <v>765</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>1678</v>
@@ -44850,7 +44859,7 @@
         <v>765</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G222" s="6" t="s">
         <v>1682</v>
@@ -44874,7 +44883,7 @@
         <v>765</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>1681</v>
@@ -44896,7 +44905,7 @@
       </c>
       <c r="E224" s="6"/>
       <c r="F224" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G224" s="6"/>
       <c r="H224" s="6"/>
@@ -44916,7 +44925,7 @@
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>1689</v>
@@ -44938,7 +44947,7 @@
       </c>
       <c r="E226" s="6"/>
       <c r="F226" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G226" s="6" t="s">
         <v>1677</v>
@@ -44984,7 +44993,7 @@
         <v>765</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G228" s="6" t="s">
         <v>1679</v>
@@ -45008,7 +45017,7 @@
         <v>765</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
@@ -45050,7 +45059,7 @@
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G231" s="6" t="s">
         <v>1676</v>
@@ -45072,7 +45081,7 @@
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
@@ -45092,7 +45101,7 @@
       </c>
       <c r="E233" s="6"/>
       <c r="F233" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
@@ -45112,7 +45121,7 @@
       </c>
       <c r="E234" s="6"/>
       <c r="F234" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
@@ -45132,7 +45141,7 @@
       </c>
       <c r="E235" s="6"/>
       <c r="F235" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G235" s="6" t="s">
         <v>1686</v>
@@ -45154,7 +45163,7 @@
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
@@ -45174,7 +45183,7 @@
       </c>
       <c r="E237" s="6"/>
       <c r="F237" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G237" s="6" t="s">
         <v>1700</v>
@@ -45196,7 +45205,7 @@
       </c>
       <c r="E238" s="6"/>
       <c r="F238" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
@@ -47340,7 +47349,7 @@
         <v>765</v>
       </c>
       <c r="F335" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G335" s="6"/>
       <c r="H335" s="6"/>
@@ -47454,7 +47463,7 @@
         <v>1534</v>
       </c>
       <c r="F340" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G340" s="6" t="s">
         <v>1651</v>
@@ -47502,7 +47511,7 @@
         <v>1536</v>
       </c>
       <c r="F342" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G342" s="6"/>
       <c r="H342" s="6"/>
@@ -47546,7 +47555,7 @@
         <v>1538</v>
       </c>
       <c r="F344" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G344" s="6"/>
       <c r="H344" s="6"/>
@@ -47612,7 +47621,7 @@
         <v>1541</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G347" s="6"/>
       <c r="H347" s="6"/>
@@ -47656,7 +47665,7 @@
         <v>1543</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G349" s="6"/>
       <c r="H349" s="6"/>
@@ -47700,7 +47709,7 @@
         <v>1545</v>
       </c>
       <c r="F351" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G351" s="6"/>
       <c r="H351" s="6"/>
@@ -47722,7 +47731,7 @@
         <v>1546</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G352" s="6"/>
       <c r="H352" s="6"/>
@@ -47768,7 +47777,7 @@
         <v>1548</v>
       </c>
       <c r="F354" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G354" s="6"/>
       <c r="H354" s="6"/>
@@ -47790,7 +47799,7 @@
         <v>1549</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G355" s="6"/>
       <c r="H355" s="6"/>
@@ -47812,7 +47821,7 @@
         <v>1550</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G356" s="6"/>
       <c r="H356" s="6"/>
@@ -47834,7 +47843,7 @@
         <v>765</v>
       </c>
       <c r="F357" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G357" s="6"/>
       <c r="H357" s="6"/>
@@ -47856,7 +47865,7 @@
         <v>1551</v>
       </c>
       <c r="F358" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G358" s="6"/>
       <c r="H358" s="6"/>
@@ -47924,7 +47933,7 @@
         <v>1554</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G361" s="6"/>
       <c r="H361" s="6"/>
@@ -47946,7 +47955,7 @@
         <v>1555</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G362" s="6"/>
       <c r="H362" s="6"/>
@@ -48012,7 +48021,7 @@
         <v>1558</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G365" s="6"/>
       <c r="H365" s="6"/>
@@ -48034,7 +48043,7 @@
         <v>1559</v>
       </c>
       <c r="F366" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G366" s="6"/>
       <c r="H366" s="6"/>
@@ -48056,7 +48065,7 @@
         <v>1560</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
@@ -48102,7 +48111,7 @@
         <v>1562</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>1654</v>
@@ -48126,7 +48135,7 @@
         <v>1563</v>
       </c>
       <c r="F370" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G370" s="6" t="s">
         <v>1655</v>
@@ -48196,7 +48205,7 @@
         <v>1566</v>
       </c>
       <c r="F373" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G373" s="6">
         <v>0</v>
@@ -48244,7 +48253,7 @@
         <v>1568</v>
       </c>
       <c r="F375" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>1657</v>
@@ -48268,7 +48277,7 @@
         <v>1569</v>
       </c>
       <c r="F376" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G376" s="6" t="s">
         <v>1658</v>
@@ -48292,7 +48301,7 @@
         <v>1570</v>
       </c>
       <c r="F377" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G377" s="6"/>
       <c r="H377" s="6"/>
@@ -48314,7 +48323,7 @@
         <v>1571</v>
       </c>
       <c r="F378" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>1659</v>
@@ -48338,7 +48347,7 @@
         <v>1572</v>
       </c>
       <c r="F379" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G379" s="6" t="s">
         <v>1660</v>
@@ -48362,7 +48371,7 @@
         <v>1573</v>
       </c>
       <c r="F380" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G380" s="6"/>
       <c r="H380" s="6"/>
@@ -48384,7 +48393,7 @@
         <v>1574</v>
       </c>
       <c r="F381" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>1661</v>
@@ -48408,7 +48417,7 @@
         <v>1575</v>
       </c>
       <c r="F382" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>1662</v>
@@ -48432,7 +48441,7 @@
         <v>1576</v>
       </c>
       <c r="F383" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G383" s="6" t="s">
         <v>1663</v>
@@ -48456,7 +48465,7 @@
         <v>1577</v>
       </c>
       <c r="F384" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G384" s="6"/>
       <c r="H384" s="6"/>
@@ -48478,7 +48487,7 @@
         <v>1578</v>
       </c>
       <c r="F385" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
@@ -48500,7 +48509,7 @@
         <v>765</v>
       </c>
       <c r="F386" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G386" s="6"/>
       <c r="H386" s="6"/>
@@ -48522,7 +48531,7 @@
         <v>1579</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G387" s="6"/>
       <c r="H387" s="6"/>
@@ -48544,7 +48553,7 @@
         <v>1580</v>
       </c>
       <c r="F388" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G388" s="6"/>
       <c r="H388" s="6"/>
@@ -48566,7 +48575,7 @@
         <v>1581</v>
       </c>
       <c r="F389" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G389" s="6"/>
       <c r="H389" s="6"/>
@@ -48628,7 +48637,7 @@
       </c>
       <c r="E392" s="6"/>
       <c r="F392" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>1701</v>
@@ -48650,7 +48659,7 @@
       </c>
       <c r="E393" s="6"/>
       <c r="F393" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G393" s="6"/>
       <c r="H393" s="6"/>
@@ -48672,7 +48681,7 @@
         <v>765</v>
       </c>
       <c r="F394" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>1684</v>
@@ -48696,7 +48705,7 @@
         <v>765</v>
       </c>
       <c r="F395" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>1691</v>
@@ -48718,7 +48727,7 @@
       </c>
       <c r="E396" s="6"/>
       <c r="F396" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G396" s="6"/>
       <c r="H396" s="6"/>
@@ -48758,7 +48767,7 @@
       </c>
       <c r="E398" s="6"/>
       <c r="F398" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>1685</v>
@@ -48802,7 +48811,7 @@
         <v>765</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>1683</v>
@@ -48826,7 +48835,7 @@
         <v>765</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G401" s="6"/>
       <c r="H401" s="6"/>
@@ -48848,7 +48857,7 @@
         <v>765</v>
       </c>
       <c r="F402" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>1688</v>
@@ -48870,7 +48879,7 @@
       </c>
       <c r="E403" s="6"/>
       <c r="F403" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>1694</v>
@@ -48892,7 +48901,7 @@
       </c>
       <c r="E404" s="6"/>
       <c r="F404" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>1687</v>
@@ -48914,7 +48923,7 @@
       </c>
       <c r="E405" s="6"/>
       <c r="F405" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G405" s="6" t="s">
         <v>1695</v>
@@ -48936,7 +48945,7 @@
       </c>
       <c r="E406" s="6"/>
       <c r="F406" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G406" s="6"/>
       <c r="H406" s="6"/>
@@ -48956,7 +48965,7 @@
       </c>
       <c r="E407" s="6"/>
       <c r="F407" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G407" s="6"/>
       <c r="H407" s="6"/>
@@ -48976,7 +48985,7 @@
       </c>
       <c r="E408" s="6"/>
       <c r="F408" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G408" s="6"/>
       <c r="H408" s="6"/>
@@ -48996,7 +49005,7 @@
       </c>
       <c r="E409" s="6"/>
       <c r="F409" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G409" s="6"/>
       <c r="H409" s="6"/>
@@ -49016,7 +49025,7 @@
       </c>
       <c r="E410" s="6"/>
       <c r="F410" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G410" s="6"/>
       <c r="H410" s="6"/>
@@ -49038,7 +49047,7 @@
         <v>1582</v>
       </c>
       <c r="F411" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>1693</v>
@@ -49060,7 +49069,7 @@
       </c>
       <c r="E412" s="6"/>
       <c r="F412" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G412" s="6"/>
       <c r="H412" s="6"/>
@@ -49080,7 +49089,7 @@
       </c>
       <c r="E413" s="6"/>
       <c r="F413" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G413" s="6"/>
       <c r="H413" s="6"/>
@@ -49102,7 +49111,7 @@
         <v>765</v>
       </c>
       <c r="F414" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G414" s="6"/>
       <c r="H414" s="6"/>
@@ -49146,7 +49155,7 @@
         <v>765</v>
       </c>
       <c r="F416" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G416" s="6"/>
       <c r="H416" s="6"/>
@@ -49168,7 +49177,7 @@
         <v>765</v>
       </c>
       <c r="F417" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G417" s="6"/>
       <c r="H417" s="6"/>
@@ -49230,7 +49239,7 @@
       </c>
       <c r="E420" s="6"/>
       <c r="F420" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G420" s="6"/>
       <c r="H420" s="6"/>
@@ -49250,7 +49259,7 @@
       </c>
       <c r="E421" s="6"/>
       <c r="F421" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G421" s="6"/>
       <c r="H421" s="6"/>
@@ -49290,7 +49299,7 @@
       </c>
       <c r="E423" s="6"/>
       <c r="F423" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G423" s="6"/>
       <c r="H423" s="6"/>
@@ -49312,7 +49321,7 @@
         <v>765</v>
       </c>
       <c r="F424" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G424" s="6"/>
       <c r="H424" s="6"/>
@@ -49354,7 +49363,7 @@
       </c>
       <c r="E426" s="6"/>
       <c r="F426" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G426" s="6"/>
       <c r="H426" s="6"/>
@@ -49376,7 +49385,7 @@
         <v>765</v>
       </c>
       <c r="F427" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G427" s="6"/>
       <c r="H427" s="6"/>
@@ -49418,7 +49427,7 @@
       </c>
       <c r="E429" s="6"/>
       <c r="F429" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G429" s="6"/>
       <c r="H429" s="6"/>
@@ -49440,7 +49449,7 @@
         <v>765</v>
       </c>
       <c r="F430" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G430" s="6"/>
       <c r="H430" s="6"/>
@@ -49460,7 +49469,7 @@
       </c>
       <c r="E431" s="6"/>
       <c r="F431" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G431" s="6"/>
       <c r="H431" s="6"/>
@@ -49504,7 +49513,7 @@
         <v>765</v>
       </c>
       <c r="F433" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G433" s="6"/>
       <c r="H433" s="6"/>
@@ -49526,7 +49535,7 @@
         <v>765</v>
       </c>
       <c r="F434" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G434" s="6"/>
       <c r="H434" s="6"/>
@@ -49548,7 +49557,7 @@
         <v>765</v>
       </c>
       <c r="F435" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G435" s="6"/>
       <c r="H435" s="6"/>
@@ -49680,7 +49689,7 @@
         <v>765</v>
       </c>
       <c r="F441" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G441" s="6"/>
       <c r="H441" s="6"/>
@@ -49702,7 +49711,7 @@
         <v>1583</v>
       </c>
       <c r="F442" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G442" s="6"/>
       <c r="H442" s="6"/>
@@ -49724,7 +49733,7 @@
         <v>1584</v>
       </c>
       <c r="F443" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G443" s="6"/>
       <c r="H443" s="6"/>
@@ -49838,7 +49847,7 @@
         <v>1589</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G448" s="6"/>
       <c r="H448" s="6"/>
@@ -49928,7 +49937,7 @@
         <v>1592</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G452" s="6" t="s">
         <v>1710</v>
@@ -49952,7 +49961,7 @@
         <v>1593</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G453" s="6" t="s">
         <v>1712</v>
@@ -49998,7 +50007,7 @@
         <v>1595</v>
       </c>
       <c r="F455" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G455" s="6"/>
       <c r="H455" s="6"/>
@@ -50042,7 +50051,7 @@
         <v>1597</v>
       </c>
       <c r="F457" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G457" s="6"/>
       <c r="H457" s="6"/>
@@ -50132,7 +50141,7 @@
         <v>1601</v>
       </c>
       <c r="F461" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G461" s="6"/>
       <c r="H461" s="6"/>
@@ -50198,7 +50207,7 @@
         <v>1604</v>
       </c>
       <c r="F464" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G464" s="6"/>
       <c r="H464" s="6"/>
@@ -50442,7 +50451,7 @@
       </c>
       <c r="E475" s="6"/>
       <c r="F475" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G475" s="6"/>
       <c r="H475" s="6"/>
@@ -50462,7 +50471,7 @@
       </c>
       <c r="E476" s="6"/>
       <c r="F476" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G476" s="6"/>
       <c r="H476" s="6"/>
@@ -50482,7 +50491,7 @@
       </c>
       <c r="E477" s="6"/>
       <c r="F477" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G477" s="6"/>
       <c r="H477" s="6"/>
@@ -50504,7 +50513,7 @@
         <v>1614</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G478" s="6"/>
       <c r="H478" s="6"/>
@@ -50526,7 +50535,7 @@
         <v>765</v>
       </c>
       <c r="F479" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G479" s="6"/>
       <c r="H479" s="6"/>
@@ -50570,7 +50579,7 @@
         <v>1616</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G481" s="6"/>
       <c r="H481" s="6"/>
@@ -50590,7 +50599,7 @@
       </c>
       <c r="E482" s="6"/>
       <c r="F482" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G482" s="6"/>
       <c r="H482" s="6"/>
@@ -50610,7 +50619,7 @@
       </c>
       <c r="E483" s="6"/>
       <c r="F483" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G483" s="6"/>
       <c r="H483" s="6"/>
@@ -50630,7 +50639,7 @@
       </c>
       <c r="E484" s="6"/>
       <c r="F484" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G484" s="6"/>
       <c r="H484" s="6"/>
@@ -50650,7 +50659,7 @@
       </c>
       <c r="E485" s="6"/>
       <c r="F485" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G485" s="6"/>
       <c r="H485" s="6"/>
@@ -50670,7 +50679,7 @@
       </c>
       <c r="E486" s="6"/>
       <c r="F486" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G486" s="6"/>
       <c r="H486" s="6"/>
@@ -50690,7 +50699,7 @@
       </c>
       <c r="E487" s="6"/>
       <c r="F487" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G487" s="6"/>
       <c r="H487" s="6"/>
@@ -50710,7 +50719,7 @@
       </c>
       <c r="E488" s="6"/>
       <c r="F488" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G488" s="6"/>
       <c r="H488" s="6"/>
@@ -50730,7 +50739,7 @@
       </c>
       <c r="E489" s="6"/>
       <c r="F489" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G489" s="6"/>
       <c r="H489" s="6"/>
@@ -50752,7 +50761,7 @@
         <v>1617</v>
       </c>
       <c r="F490" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G490" s="6"/>
       <c r="H490" s="6"/>
@@ -50774,7 +50783,7 @@
         <v>1618</v>
       </c>
       <c r="F491" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G491" s="6"/>
       <c r="H491" s="6"/>
@@ -50818,7 +50827,7 @@
         <v>765</v>
       </c>
       <c r="F493" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G493" s="6"/>
       <c r="H493" s="6"/>
@@ -50840,7 +50849,7 @@
         <v>765</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>765</v>
+        <v>1944</v>
       </c>
       <c r="G494" s="6"/>
       <c r="H494" s="6"/>
